--- a/src/helpers/excel/template_export.xlsx
+++ b/src/helpers/excel/template_export.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhatr\Documents\GitHub\mission-timer-be\src\helpers\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C671D1CB-5789-4404-AF86-3CDCD9C0360B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D62F79E-2740-44CF-9907-73D9AED7CEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="447">
   <si>
     <t>Tổng cộng</t>
   </si>
@@ -1534,7 +1534,7 @@
     <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.0\ _₫_-;\-* #,##0.0\ _₫_-;_-* &quot;-&quot;?\ _₫_-;_-@_-"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="58">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
@@ -1542,6 +1542,7 @@
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1876,21 +1877,15 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="4"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -3309,46 +3304,39 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="27" borderId="21" xfId="88" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="27" borderId="26" xfId="88" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="27" borderId="22" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="27" borderId="26" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="27" borderId="22" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="27" borderId="19" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="88" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="26" borderId="14" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="27" borderId="21" xfId="88" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="27" borderId="26" xfId="88" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="27" borderId="22" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="27" borderId="26" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="27" borderId="22" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="27" borderId="19" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="88" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="26" borderId="30" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3382,22 +3370,22 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="58" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="58" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3406,16 +3394,16 @@
     <xf numFmtId="0" fontId="49" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="58" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="58" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="58" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="58" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3610,6 +3598,13 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="116">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3977,15 +3972,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>20500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>33616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3115235</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4002,10 +3997,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="95250" y="0"/>
-          <a:ext cx="4600015" cy="498662"/>
-          <a:chOff x="313364" y="0"/>
-          <a:chExt cx="3136117" cy="587836"/>
+          <a:off x="20500" y="33616"/>
+          <a:ext cx="4495470" cy="571502"/>
+          <a:chOff x="262402" y="39628"/>
+          <a:chExt cx="3064842" cy="673702"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4023,8 +4018,8 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="384639" y="0"/>
-            <a:ext cx="3064842" cy="508704"/>
+            <a:off x="262402" y="39628"/>
+            <a:ext cx="3064842" cy="673702"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7220,17 +7215,19 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="225" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="322"/>
+    <col min="2" max="2" width="12" style="322" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="322" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="322" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="322" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="322" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="322" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="322"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
@@ -7258,24 +7255,24 @@
       <c r="F3" s="211"/>
     </row>
     <row r="4" spans="1:6" ht="18.75">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="237"/>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
+      <c r="B4" s="233"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="233"/>
+      <c r="F4" s="233"/>
     </row>
     <row r="5" spans="1:6" ht="18.75">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="233" t="s">
         <v>444</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1">
       <c r="A6" s="3" t="s">
@@ -7291,14 +7288,14 @@
       <c r="A7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="238" t="s">
+      <c r="B7" s="234" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="239"/>
-      <c r="D7" s="224" t="s">
+      <c r="C7" s="323"/>
+      <c r="D7" s="232" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="224" t="s">
+      <c r="E7" s="232" t="s">
         <v>192</v>
       </c>
       <c r="F7" s="72" t="s">
@@ -7315,7 +7312,7 @@
       <c r="E8" s="215">
         <v>0</v>
       </c>
-      <c r="F8" s="235"/>
+      <c r="F8" s="230"/>
     </row>
     <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="45"/>
@@ -7327,7 +7324,7 @@
       <c r="E9" s="215">
         <v>0</v>
       </c>
-      <c r="F9" s="235"/>
+      <c r="F9" s="230"/>
     </row>
     <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="45"/>
@@ -7340,7 +7337,7 @@
         <f>E8-E9</f>
         <v>0</v>
       </c>
-      <c r="F10" s="235"/>
+      <c r="F10" s="230"/>
     </row>
     <row r="11" spans="1:6" ht="31.5">
       <c r="A11" s="45"/>
@@ -7350,32 +7347,26 @@
         <v>233</v>
       </c>
       <c r="E11" s="215"/>
-      <c r="F11" s="235"/>
-    </row>
-    <row r="12" spans="1:6" s="225" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A12" s="226">
-        <v>1</v>
-      </c>
-      <c r="B12" s="227">
-        <v>1001006</v>
-      </c>
-      <c r="C12" s="228" t="s">
-        <v>446</v>
-      </c>
-      <c r="D12" s="229"/>
-      <c r="E12" s="230"/>
-      <c r="F12" s="231"/>
+      <c r="F11" s="230"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A12" s="224"/>
+      <c r="B12" s="225"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="227"/>
+      <c r="E12" s="228"/>
+      <c r="F12" s="229"/>
     </row>
     <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="218"/>
       <c r="B13" s="219"/>
       <c r="C13" s="220"/>
-      <c r="D13" s="240" t="str">
+      <c r="D13" s="235" t="str">
         <f ca="1">"TP. Hồ Chí Minh, ngày "&amp;TEXT(DAY(TODAY()),"00")&amp;" tháng "&amp;TEXT(MONTH(TODAY()),"00")&amp;" năm "&amp;YEAR(TODAY())</f>
-        <v>TP. Hồ Chí Minh, ngày 28 tháng 05 năm 2022</v>
-      </c>
-      <c r="E13" s="240"/>
-      <c r="F13" s="240"/>
+        <v>TP. Hồ Chí Minh, ngày 30 tháng 05 năm 2022</v>
+      </c>
+      <c r="E13" s="235"/>
+      <c r="F13" s="235"/>
     </row>
     <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="218"/>
@@ -7387,25 +7378,20 @@
       <c r="E14" s="222"/>
       <c r="F14" s="223"/>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="225"/>
-      <c r="C17" s="233"/>
-      <c r="D17" s="225"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="C18" s="233"/>
-      <c r="D18" s="225"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="C19" s="234"/>
-      <c r="D19" s="225"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="C20" s="232"/>
-      <c r="D20" s="225"/>
-    </row>
-    <row r="22" spans="2:6" ht="15.75">
-      <c r="F22" s="236" t="s">
+    <row r="17" spans="3:6">
+      <c r="C17" s="324"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="324"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="325"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="326"/>
+    </row>
+    <row r="22" spans="3:6" ht="15.75">
+      <c r="F22" s="231" t="s">
         <v>446</v>
       </c>
     </row>
@@ -7475,25 +7461,25 @@
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="233" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="237"/>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
+      <c r="B4" s="233"/>
+      <c r="C4" s="233"/>
+      <c r="D4" s="233"/>
+      <c r="E4" s="233"/>
+      <c r="F4" s="233"/>
       <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="233" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
       <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
@@ -7511,10 +7497,10 @@
       <c r="A7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="242" t="s">
+      <c r="B7" s="237" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="243"/>
+      <c r="C7" s="238"/>
       <c r="D7" s="44" t="s">
         <v>191</v>
       </c>
@@ -15776,11 +15762,11 @@
       <c r="F567" s="65"/>
     </row>
     <row r="568" spans="1:6" s="10" customFormat="1" ht="20.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A568" s="244">
+      <c r="A568" s="239">
         <v>2</v>
       </c>
       <c r="B568" s="46"/>
-      <c r="C568" s="246" t="s">
+      <c r="C568" s="241" t="s">
         <v>234</v>
       </c>
       <c r="D568" s="98" t="s">
@@ -15790,9 +15776,9 @@
       <c r="F568" s="67"/>
     </row>
     <row r="569" spans="1:6" s="10" customFormat="1" ht="20.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A569" s="244"/>
+      <c r="A569" s="239"/>
       <c r="B569" s="46"/>
-      <c r="C569" s="246"/>
+      <c r="C569" s="241"/>
       <c r="D569" s="96" t="s">
         <v>4</v>
       </c>
@@ -15800,9 +15786,9 @@
       <c r="F569" s="64"/>
     </row>
     <row r="570" spans="1:6" s="15" customFormat="1" ht="20.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A570" s="244"/>
+      <c r="A570" s="239"/>
       <c r="B570" s="47"/>
-      <c r="C570" s="246"/>
+      <c r="C570" s="241"/>
       <c r="D570" s="96" t="s">
         <v>232</v>
       </c>
@@ -15810,9 +15796,9 @@
       <c r="F570" s="64"/>
     </row>
     <row r="571" spans="1:6" s="15" customFormat="1" ht="35.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A571" s="245"/>
+      <c r="A571" s="240"/>
       <c r="B571" s="48"/>
-      <c r="C571" s="247"/>
+      <c r="C571" s="242"/>
       <c r="D571" s="97" t="s">
         <v>233</v>
       </c>
@@ -15823,12 +15809,12 @@
       <c r="A572" s="49"/>
       <c r="B572" s="50"/>
       <c r="C572" s="51"/>
-      <c r="D572" s="241" t="str">
+      <c r="D572" s="236" t="str">
         <f ca="1">"TP. Hồ Chí Minh, ngày "&amp;TEXT(DAY(TODAY()),"00")&amp;" tháng "&amp;TEXT(MONTH(TODAY()),"00")&amp;" năm "&amp;YEAR(TODAY())</f>
-        <v>TP. Hồ Chí Minh, ngày 28 tháng 05 năm 2022</v>
-      </c>
-      <c r="E572" s="241"/>
-      <c r="F572" s="241"/>
+        <v>TP. Hồ Chí Minh, ngày 30 tháng 05 năm 2022</v>
+      </c>
+      <c r="E572" s="236"/>
+      <c r="F572" s="236"/>
     </row>
     <row r="573" spans="1:6" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A573" s="3" t="s">
@@ -23158,11 +23144,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="243" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -23170,30 +23156,30 @@
       <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="42" customHeight="1">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="244" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="14.25">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="245" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="250"/>
-      <c r="C3" s="250"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
+      <c r="B3" s="245"/>
+      <c r="C3" s="245"/>
+      <c r="D3" s="245"/>
+      <c r="E3" s="245"/>
+      <c r="F3" s="245"/>
+      <c r="G3" s="245"/>
+      <c r="H3" s="245"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="19"/>
@@ -23232,23 +23218,23 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A6" s="253">
+      <c r="A6" s="248">
         <v>1</v>
       </c>
-      <c r="B6" s="257" t="s">
+      <c r="B6" s="252" t="s">
         <v>107</v>
       </c>
       <c r="C6" s="101"/>
       <c r="D6" s="102"/>
-      <c r="E6" s="259">
+      <c r="E6" s="254">
         <f>D7</f>
         <v>29</v>
       </c>
-      <c r="F6" s="261">
+      <c r="F6" s="256">
         <f>587/12*9.5</f>
         <v>464.70833333333331</v>
       </c>
-      <c r="G6" s="259">
+      <c r="G6" s="254">
         <f>E6-F6</f>
         <v>-435.70833333333331</v>
       </c>
@@ -23257,26 +23243,26 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A7" s="254"/>
-      <c r="B7" s="258"/>
+      <c r="A7" s="249"/>
+      <c r="B7" s="253"/>
       <c r="C7" s="104" t="s">
         <v>388</v>
       </c>
       <c r="D7" s="105">
         <v>29</v>
       </c>
-      <c r="E7" s="260"/>
-      <c r="F7" s="262"/>
-      <c r="G7" s="260"/>
+      <c r="E7" s="255"/>
+      <c r="F7" s="257"/>
+      <c r="G7" s="255"/>
       <c r="H7" s="106" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A8" s="251">
+      <c r="A8" s="246">
         <v>2</v>
       </c>
-      <c r="B8" s="252" t="s">
+      <c r="B8" s="247" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="107" t="s">
@@ -23285,56 +23271,56 @@
       <c r="D8" s="108">
         <v>569.98</v>
       </c>
-      <c r="E8" s="255">
+      <c r="E8" s="250">
         <f>D8+D9+D10</f>
         <v>1098.28</v>
       </c>
-      <c r="F8" s="256">
+      <c r="F8" s="251">
         <v>587</v>
       </c>
-      <c r="G8" s="255">
+      <c r="G8" s="250">
         <f>E8-F8</f>
         <v>511.28</v>
       </c>
       <c r="H8" s="103"/>
     </row>
     <row r="9" spans="1:10" ht="110.25" customHeight="1">
-      <c r="A9" s="251"/>
-      <c r="B9" s="252"/>
+      <c r="A9" s="246"/>
+      <c r="B9" s="247"/>
       <c r="C9" s="107" t="s">
         <v>124</v>
       </c>
       <c r="D9" s="108">
         <v>469.3</v>
       </c>
-      <c r="E9" s="255"/>
-      <c r="F9" s="256"/>
-      <c r="G9" s="255"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="250"/>
       <c r="H9" s="103" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A10" s="251"/>
-      <c r="B10" s="252"/>
+      <c r="A10" s="246"/>
+      <c r="B10" s="247"/>
       <c r="C10" s="109" t="s">
         <v>125</v>
       </c>
       <c r="D10" s="108">
         <v>59</v>
       </c>
-      <c r="E10" s="255"/>
-      <c r="F10" s="256"/>
-      <c r="G10" s="255"/>
+      <c r="E10" s="250"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="250"/>
       <c r="H10" s="103" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A11" s="313">
+      <c r="A11" s="308">
         <v>3</v>
       </c>
-      <c r="B11" s="282" t="s">
+      <c r="B11" s="277" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="104" t="s">
@@ -23343,104 +23329,104 @@
       <c r="D11" s="105">
         <v>977.5</v>
       </c>
-      <c r="E11" s="283">
+      <c r="E11" s="278">
         <f>D11+D12+D13+D14+D15+D16</f>
         <v>1170.2</v>
       </c>
-      <c r="F11" s="284">
+      <c r="F11" s="279">
         <v>587</v>
       </c>
-      <c r="G11" s="284">
+      <c r="G11" s="279">
         <f>E11-F11</f>
         <v>583.20000000000005</v>
       </c>
       <c r="H11" s="111"/>
     </row>
     <row r="12" spans="1:10" ht="76.5">
-      <c r="A12" s="313"/>
-      <c r="B12" s="282"/>
+      <c r="A12" s="308"/>
+      <c r="B12" s="277"/>
       <c r="C12" s="104" t="s">
         <v>391</v>
       </c>
       <c r="D12" s="105">
         <v>32.700000000000003</v>
       </c>
-      <c r="E12" s="283"/>
-      <c r="F12" s="284"/>
-      <c r="G12" s="284"/>
+      <c r="E12" s="278"/>
+      <c r="F12" s="279"/>
+      <c r="G12" s="279"/>
       <c r="H12" s="111" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="76.5">
-      <c r="A13" s="313"/>
-      <c r="B13" s="282"/>
+      <c r="A13" s="308"/>
+      <c r="B13" s="277"/>
       <c r="C13" s="104" t="s">
         <v>392</v>
       </c>
       <c r="D13" s="105">
         <v>32.700000000000003</v>
       </c>
-      <c r="E13" s="283"/>
-      <c r="F13" s="284"/>
-      <c r="G13" s="284"/>
+      <c r="E13" s="278"/>
+      <c r="F13" s="279"/>
+      <c r="G13" s="279"/>
       <c r="H13" s="111" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A14" s="313"/>
-      <c r="B14" s="282"/>
+      <c r="A14" s="308"/>
+      <c r="B14" s="277"/>
       <c r="C14" s="104" t="s">
         <v>290</v>
       </c>
       <c r="D14" s="105">
         <v>59</v>
       </c>
-      <c r="E14" s="283"/>
-      <c r="F14" s="284"/>
-      <c r="G14" s="284"/>
+      <c r="E14" s="278"/>
+      <c r="F14" s="279"/>
+      <c r="G14" s="279"/>
       <c r="H14" s="111" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5">
-      <c r="A15" s="313"/>
-      <c r="B15" s="282"/>
+      <c r="A15" s="308"/>
+      <c r="B15" s="277"/>
       <c r="C15" s="104" t="s">
         <v>388</v>
       </c>
       <c r="D15" s="105">
         <v>29</v>
       </c>
-      <c r="E15" s="283"/>
-      <c r="F15" s="284"/>
-      <c r="G15" s="284"/>
+      <c r="E15" s="278"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="279"/>
       <c r="H15" s="111" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="63.75">
-      <c r="A16" s="313"/>
-      <c r="B16" s="282"/>
+      <c r="A16" s="308"/>
+      <c r="B16" s="277"/>
       <c r="C16" s="104" t="s">
         <v>394</v>
       </c>
       <c r="D16" s="105">
         <v>39.299999999999997</v>
       </c>
-      <c r="E16" s="283"/>
-      <c r="F16" s="284"/>
-      <c r="G16" s="284"/>
+      <c r="E16" s="278"/>
+      <c r="F16" s="279"/>
+      <c r="G16" s="279"/>
       <c r="H16" s="111" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A17" s="313">
+      <c r="A17" s="308">
         <v>4</v>
       </c>
-      <c r="B17" s="282" t="s">
+      <c r="B17" s="277" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="104" t="s">
@@ -23449,14 +23435,14 @@
       <c r="D17" s="112">
         <v>841</v>
       </c>
-      <c r="E17" s="285">
+      <c r="E17" s="280">
         <f>D17+D18+D19</f>
         <v>1591.9</v>
       </c>
-      <c r="F17" s="286">
+      <c r="F17" s="281">
         <v>0</v>
       </c>
-      <c r="G17" s="287">
+      <c r="G17" s="282">
         <f>E17-F17</f>
         <v>1591.9</v>
       </c>
@@ -23465,42 +23451,42 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="76.5">
-      <c r="A18" s="313"/>
-      <c r="B18" s="282"/>
+      <c r="A18" s="308"/>
+      <c r="B18" s="277"/>
       <c r="C18" s="104" t="s">
         <v>127</v>
       </c>
       <c r="D18" s="112">
         <v>469.3</v>
       </c>
-      <c r="E18" s="285"/>
-      <c r="F18" s="286"/>
-      <c r="G18" s="287"/>
+      <c r="E18" s="280"/>
+      <c r="F18" s="281"/>
+      <c r="G18" s="282"/>
       <c r="H18" s="111" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="51">
-      <c r="A19" s="313"/>
-      <c r="B19" s="282"/>
+      <c r="A19" s="308"/>
+      <c r="B19" s="277"/>
       <c r="C19" s="104" t="s">
         <v>128</v>
       </c>
       <c r="D19" s="112">
         <v>281.60000000000002</v>
       </c>
-      <c r="E19" s="285"/>
-      <c r="F19" s="286"/>
-      <c r="G19" s="287"/>
+      <c r="E19" s="280"/>
+      <c r="F19" s="281"/>
+      <c r="G19" s="282"/>
       <c r="H19" s="111" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A20" s="313">
+      <c r="A20" s="308">
         <v>5</v>
       </c>
-      <c r="B20" s="282" t="s">
+      <c r="B20" s="277" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="104" t="s">
@@ -23509,104 +23495,104 @@
       <c r="D20" s="112">
         <v>9.65</v>
       </c>
-      <c r="E20" s="285">
+      <c r="E20" s="280">
         <f>D20+D21+D22+D23+D24+D25</f>
         <v>1021.75</v>
       </c>
-      <c r="F20" s="288">
+      <c r="F20" s="283">
         <v>587</v>
       </c>
-      <c r="G20" s="285">
+      <c r="G20" s="280">
         <f>E20-F20</f>
         <v>434.75</v>
       </c>
       <c r="H20" s="111"/>
     </row>
     <row r="21" spans="1:8" ht="76.5">
-      <c r="A21" s="313"/>
-      <c r="B21" s="282"/>
+      <c r="A21" s="308"/>
+      <c r="B21" s="277"/>
       <c r="C21" s="104" t="s">
         <v>392</v>
       </c>
       <c r="D21" s="112">
         <v>13.1</v>
       </c>
-      <c r="E21" s="285"/>
-      <c r="F21" s="288"/>
-      <c r="G21" s="285"/>
+      <c r="E21" s="280"/>
+      <c r="F21" s="283"/>
+      <c r="G21" s="280"/>
       <c r="H21" s="111" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="51">
-      <c r="A22" s="313"/>
-      <c r="B22" s="282"/>
+      <c r="A22" s="308"/>
+      <c r="B22" s="277"/>
       <c r="C22" s="104" t="s">
         <v>395</v>
       </c>
       <c r="D22" s="112">
         <v>59</v>
       </c>
-      <c r="E22" s="285"/>
-      <c r="F22" s="288"/>
-      <c r="G22" s="285"/>
+      <c r="E22" s="280"/>
+      <c r="F22" s="283"/>
+      <c r="G22" s="280"/>
       <c r="H22" s="111" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="38.25">
-      <c r="A23" s="313"/>
-      <c r="B23" s="282"/>
+      <c r="A23" s="308"/>
+      <c r="B23" s="277"/>
       <c r="C23" s="104" t="s">
         <v>397</v>
       </c>
       <c r="D23" s="112">
         <v>59</v>
       </c>
-      <c r="E23" s="285"/>
-      <c r="F23" s="288"/>
-      <c r="G23" s="285"/>
+      <c r="E23" s="280"/>
+      <c r="F23" s="283"/>
+      <c r="G23" s="280"/>
       <c r="H23" s="111" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="69.75" customHeight="1">
-      <c r="A24" s="313"/>
-      <c r="B24" s="282"/>
+      <c r="A24" s="308"/>
+      <c r="B24" s="277"/>
       <c r="C24" s="104" t="s">
         <v>399</v>
       </c>
       <c r="D24" s="112">
         <v>822</v>
       </c>
-      <c r="E24" s="285"/>
-      <c r="F24" s="288"/>
-      <c r="G24" s="285"/>
+      <c r="E24" s="280"/>
+      <c r="F24" s="283"/>
+      <c r="G24" s="280"/>
       <c r="H24" s="111" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="76.5" customHeight="1">
-      <c r="A25" s="313"/>
-      <c r="B25" s="282"/>
+      <c r="A25" s="308"/>
+      <c r="B25" s="277"/>
       <c r="C25" s="104" t="s">
         <v>310</v>
       </c>
       <c r="D25" s="112">
         <v>59</v>
       </c>
-      <c r="E25" s="285"/>
-      <c r="F25" s="288"/>
-      <c r="G25" s="285"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="283"/>
+      <c r="G25" s="280"/>
       <c r="H25" s="111" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A26" s="313">
+      <c r="A26" s="308">
         <v>6</v>
       </c>
-      <c r="B26" s="289" t="s">
+      <c r="B26" s="284" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="115" t="s">
@@ -23615,95 +23601,95 @@
       <c r="D26" s="116">
         <v>31</v>
       </c>
-      <c r="E26" s="269">
+      <c r="E26" s="264">
         <f>SUM(D26:D31)</f>
         <v>1015.9</v>
       </c>
-      <c r="F26" s="290">
+      <c r="F26" s="285">
         <v>587</v>
       </c>
-      <c r="G26" s="269">
+      <c r="G26" s="264">
         <f>E26-F26</f>
         <v>428.9</v>
       </c>
       <c r="H26" s="117"/>
     </row>
     <row r="27" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A27" s="313"/>
-      <c r="B27" s="289"/>
+      <c r="A27" s="308"/>
+      <c r="B27" s="284"/>
       <c r="C27" s="104" t="s">
         <v>170</v>
       </c>
       <c r="D27" s="118">
         <v>78</v>
       </c>
-      <c r="E27" s="269"/>
-      <c r="F27" s="290"/>
-      <c r="G27" s="269"/>
+      <c r="E27" s="264"/>
+      <c r="F27" s="285"/>
+      <c r="G27" s="264"/>
       <c r="H27" s="119" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25.5">
-      <c r="A28" s="313"/>
-      <c r="B28" s="289"/>
+      <c r="A28" s="308"/>
+      <c r="B28" s="284"/>
       <c r="C28" s="120" t="s">
         <v>131</v>
       </c>
       <c r="D28" s="121">
         <v>58.7</v>
       </c>
-      <c r="E28" s="269"/>
-      <c r="F28" s="290"/>
-      <c r="G28" s="269"/>
+      <c r="E28" s="264"/>
+      <c r="F28" s="285"/>
+      <c r="G28" s="264"/>
       <c r="H28" s="119" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="110.25" customHeight="1">
-      <c r="A29" s="313"/>
-      <c r="B29" s="289"/>
+      <c r="A29" s="308"/>
+      <c r="B29" s="284"/>
       <c r="C29" s="122" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="123">
         <v>104.8</v>
       </c>
-      <c r="E29" s="269"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="269"/>
+      <c r="E29" s="264"/>
+      <c r="F29" s="285"/>
+      <c r="G29" s="264"/>
       <c r="H29" s="124" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A30" s="313"/>
-      <c r="B30" s="289"/>
+      <c r="A30" s="308"/>
+      <c r="B30" s="284"/>
       <c r="C30" s="122" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="123">
         <v>234.7</v>
       </c>
-      <c r="E30" s="269"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="269"/>
+      <c r="E30" s="264"/>
+      <c r="F30" s="285"/>
+      <c r="G30" s="264"/>
       <c r="H30" s="115" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A31" s="313"/>
-      <c r="B31" s="289"/>
+      <c r="A31" s="308"/>
+      <c r="B31" s="284"/>
       <c r="C31" s="115" t="s">
         <v>133</v>
       </c>
       <c r="D31" s="123">
         <v>508.7</v>
       </c>
-      <c r="E31" s="269"/>
-      <c r="F31" s="290"/>
-      <c r="G31" s="269"/>
+      <c r="E31" s="264"/>
+      <c r="F31" s="285"/>
+      <c r="G31" s="264"/>
       <c r="H31" s="125" t="s">
         <v>134</v>
       </c>
@@ -23733,10 +23719,10 @@
       <c r="H32" s="111"/>
     </row>
     <row r="33" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A33" s="314">
+      <c r="A33" s="309">
         <v>8</v>
       </c>
-      <c r="B33" s="270" t="s">
+      <c r="B33" s="265" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="126" t="s">
@@ -23745,14 +23731,14 @@
       <c r="D33" s="118">
         <v>352</v>
       </c>
-      <c r="E33" s="263">
+      <c r="E33" s="258">
         <f>SUM(D33:D35)</f>
         <v>834.40000000000009</v>
       </c>
-      <c r="F33" s="266">
+      <c r="F33" s="261">
         <v>587</v>
       </c>
-      <c r="G33" s="263">
+      <c r="G33" s="258">
         <f>E33-F33</f>
         <v>247.40000000000009</v>
       </c>
@@ -23761,40 +23747,40 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A34" s="315"/>
-      <c r="B34" s="271"/>
+      <c r="A34" s="310"/>
+      <c r="B34" s="266"/>
       <c r="C34" s="104" t="s">
         <v>376</v>
       </c>
       <c r="D34" s="121">
         <v>13.1</v>
       </c>
-      <c r="E34" s="264"/>
-      <c r="F34" s="267"/>
-      <c r="G34" s="264"/>
+      <c r="E34" s="259"/>
+      <c r="F34" s="262"/>
+      <c r="G34" s="259"/>
       <c r="H34" s="117"/>
     </row>
     <row r="35" spans="1:8" ht="38.25">
-      <c r="A35" s="316"/>
-      <c r="B35" s="272"/>
+      <c r="A35" s="311"/>
+      <c r="B35" s="267"/>
       <c r="C35" s="104" t="s">
         <v>402</v>
       </c>
       <c r="D35" s="121">
         <v>469.3</v>
       </c>
-      <c r="E35" s="265"/>
-      <c r="F35" s="268"/>
-      <c r="G35" s="265"/>
+      <c r="E35" s="260"/>
+      <c r="F35" s="263"/>
+      <c r="G35" s="260"/>
       <c r="H35" s="115" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A36" s="314">
+      <c r="A36" s="309">
         <v>9</v>
       </c>
-      <c r="B36" s="270" t="s">
+      <c r="B36" s="265" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="104" t="s">
@@ -23803,14 +23789,14 @@
       <c r="D36" s="112">
         <v>19.7</v>
       </c>
-      <c r="E36" s="273">
+      <c r="E36" s="268">
         <f>SUM(D36:D42)</f>
         <v>415.4</v>
       </c>
-      <c r="F36" s="276">
+      <c r="F36" s="271">
         <v>587</v>
       </c>
-      <c r="G36" s="279">
+      <c r="G36" s="274">
         <f>E36-F36</f>
         <v>-171.60000000000002</v>
       </c>
@@ -23819,104 +23805,104 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A37" s="315"/>
-      <c r="B37" s="271"/>
+      <c r="A37" s="310"/>
+      <c r="B37" s="266"/>
       <c r="C37" s="104" t="s">
         <v>298</v>
       </c>
       <c r="D37" s="112">
         <v>59</v>
       </c>
-      <c r="E37" s="274"/>
-      <c r="F37" s="277"/>
-      <c r="G37" s="280"/>
+      <c r="E37" s="269"/>
+      <c r="F37" s="272"/>
+      <c r="G37" s="275"/>
       <c r="H37" s="111" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A38" s="315"/>
-      <c r="B38" s="271"/>
+      <c r="A38" s="310"/>
+      <c r="B38" s="266"/>
       <c r="C38" s="104" t="s">
         <v>300</v>
       </c>
       <c r="D38" s="112">
         <v>59</v>
       </c>
-      <c r="E38" s="274"/>
-      <c r="F38" s="277"/>
-      <c r="G38" s="280"/>
+      <c r="E38" s="269"/>
+      <c r="F38" s="272"/>
+      <c r="G38" s="275"/>
       <c r="H38" s="111" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="63.75">
-      <c r="A39" s="315"/>
-      <c r="B39" s="271"/>
+      <c r="A39" s="310"/>
+      <c r="B39" s="266"/>
       <c r="C39" s="104" t="s">
         <v>136</v>
       </c>
       <c r="D39" s="112">
         <v>23.5</v>
       </c>
-      <c r="E39" s="274"/>
-      <c r="F39" s="277"/>
-      <c r="G39" s="280"/>
+      <c r="E39" s="269"/>
+      <c r="F39" s="272"/>
+      <c r="G39" s="275"/>
       <c r="H39" s="111" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="63.75">
-      <c r="A40" s="315"/>
-      <c r="B40" s="271"/>
+      <c r="A40" s="310"/>
+      <c r="B40" s="266"/>
       <c r="C40" s="104" t="s">
         <v>137</v>
       </c>
       <c r="D40" s="112">
         <v>39.1</v>
       </c>
-      <c r="E40" s="274"/>
-      <c r="F40" s="277"/>
-      <c r="G40" s="280"/>
+      <c r="E40" s="269"/>
+      <c r="F40" s="272"/>
+      <c r="G40" s="275"/>
       <c r="H40" s="111" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A41" s="315"/>
-      <c r="B41" s="271"/>
+      <c r="A41" s="310"/>
+      <c r="B41" s="266"/>
       <c r="C41" s="104" t="s">
         <v>138</v>
       </c>
       <c r="D41" s="112">
         <v>58.7</v>
       </c>
-      <c r="E41" s="274"/>
-      <c r="F41" s="277"/>
-      <c r="G41" s="280"/>
+      <c r="E41" s="269"/>
+      <c r="F41" s="272"/>
+      <c r="G41" s="275"/>
       <c r="H41" s="111" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A42" s="316"/>
-      <c r="B42" s="272"/>
+      <c r="A42" s="311"/>
+      <c r="B42" s="267"/>
       <c r="C42" s="107" t="s">
         <v>404</v>
       </c>
       <c r="D42" s="112">
         <v>156.4</v>
       </c>
-      <c r="E42" s="275"/>
-      <c r="F42" s="278"/>
-      <c r="G42" s="281"/>
+      <c r="E42" s="270"/>
+      <c r="F42" s="273"/>
+      <c r="G42" s="276"/>
       <c r="H42" s="111"/>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A43" s="322">
+      <c r="A43" s="317">
         <v>10</v>
       </c>
-      <c r="B43" s="282" t="s">
+      <c r="B43" s="277" t="s">
         <v>258</v>
       </c>
       <c r="C43" s="104" t="s">
@@ -23925,88 +23911,88 @@
       <c r="D43" s="112">
         <v>109.5</v>
       </c>
-      <c r="E43" s="285">
+      <c r="E43" s="280">
         <f>D43+D44+D45+D46+D47</f>
         <v>650.90000000000009</v>
       </c>
-      <c r="F43" s="291">
+      <c r="F43" s="286">
         <v>587</v>
       </c>
-      <c r="G43" s="292">
+      <c r="G43" s="287">
         <f>E43-F43</f>
         <v>63.900000000000091</v>
       </c>
       <c r="H43" s="111"/>
     </row>
     <row r="44" spans="1:8" ht="76.5">
-      <c r="A44" s="322"/>
-      <c r="B44" s="282"/>
+      <c r="A44" s="317"/>
+      <c r="B44" s="277"/>
       <c r="C44" s="104" t="s">
         <v>139</v>
       </c>
       <c r="D44" s="112">
         <v>117.3</v>
       </c>
-      <c r="E44" s="285"/>
-      <c r="F44" s="291"/>
-      <c r="G44" s="293"/>
+      <c r="E44" s="280"/>
+      <c r="F44" s="286"/>
+      <c r="G44" s="288"/>
       <c r="H44" s="111" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="76.5">
-      <c r="A45" s="322"/>
-      <c r="B45" s="282"/>
+      <c r="A45" s="317"/>
+      <c r="B45" s="277"/>
       <c r="C45" s="104" t="s">
         <v>140</v>
       </c>
       <c r="D45" s="112">
         <v>117.3</v>
       </c>
-      <c r="E45" s="285"/>
-      <c r="F45" s="291"/>
-      <c r="G45" s="293"/>
+      <c r="E45" s="280"/>
+      <c r="F45" s="286"/>
+      <c r="G45" s="288"/>
       <c r="H45" s="111" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A46" s="322"/>
-      <c r="B46" s="282"/>
+      <c r="A46" s="317"/>
+      <c r="B46" s="277"/>
       <c r="C46" s="104" t="s">
         <v>376</v>
       </c>
       <c r="D46" s="112">
         <v>32.799999999999997</v>
       </c>
-      <c r="E46" s="285"/>
-      <c r="F46" s="291"/>
-      <c r="G46" s="293"/>
+      <c r="E46" s="280"/>
+      <c r="F46" s="286"/>
+      <c r="G46" s="288"/>
       <c r="H46" s="111" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A47" s="322"/>
-      <c r="B47" s="282"/>
+      <c r="A47" s="317"/>
+      <c r="B47" s="277"/>
       <c r="C47" s="127" t="s">
         <v>405</v>
       </c>
       <c r="D47" s="112">
         <v>274</v>
       </c>
-      <c r="E47" s="285"/>
-      <c r="F47" s="291"/>
-      <c r="G47" s="293"/>
+      <c r="E47" s="280"/>
+      <c r="F47" s="286"/>
+      <c r="G47" s="288"/>
       <c r="H47" s="111" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A48" s="314">
+      <c r="A48" s="309">
         <v>11</v>
       </c>
-      <c r="B48" s="270" t="s">
+      <c r="B48" s="265" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="120" t="s">
@@ -24015,14 +24001,14 @@
       <c r="D48" s="128">
         <v>59</v>
       </c>
-      <c r="E48" s="266">
+      <c r="E48" s="261">
         <f>SUM(D48:D51)</f>
         <v>881</v>
       </c>
-      <c r="F48" s="294">
+      <c r="F48" s="289">
         <v>587</v>
       </c>
-      <c r="G48" s="294">
+      <c r="G48" s="289">
         <f>E48-F48</f>
         <v>294</v>
       </c>
@@ -24031,58 +24017,58 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="51">
-      <c r="A49" s="315"/>
-      <c r="B49" s="271"/>
+      <c r="A49" s="310"/>
+      <c r="B49" s="266"/>
       <c r="C49" s="120" t="s">
         <v>408</v>
       </c>
       <c r="D49" s="128">
         <v>59</v>
       </c>
-      <c r="E49" s="267"/>
-      <c r="F49" s="295"/>
-      <c r="G49" s="295"/>
+      <c r="E49" s="262"/>
+      <c r="F49" s="290"/>
+      <c r="G49" s="290"/>
       <c r="H49" s="129" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A50" s="315"/>
-      <c r="B50" s="271"/>
+      <c r="A50" s="310"/>
+      <c r="B50" s="266"/>
       <c r="C50" s="120" t="s">
         <v>410</v>
       </c>
       <c r="D50" s="128">
         <v>59</v>
       </c>
-      <c r="E50" s="267"/>
-      <c r="F50" s="295"/>
-      <c r="G50" s="295"/>
+      <c r="E50" s="262"/>
+      <c r="F50" s="290"/>
+      <c r="G50" s="290"/>
       <c r="H50" s="129" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A51" s="316"/>
-      <c r="B51" s="272"/>
+      <c r="A51" s="311"/>
+      <c r="B51" s="267"/>
       <c r="C51" s="120" t="s">
         <v>412</v>
       </c>
       <c r="D51" s="128">
         <v>704</v>
       </c>
-      <c r="E51" s="268"/>
-      <c r="F51" s="296"/>
-      <c r="G51" s="296"/>
+      <c r="E51" s="263"/>
+      <c r="F51" s="291"/>
+      <c r="G51" s="291"/>
       <c r="H51" s="129" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A52" s="322">
+      <c r="A52" s="317">
         <v>12</v>
       </c>
-      <c r="B52" s="309" t="s">
+      <c r="B52" s="304" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="130" t="s">
@@ -24091,153 +24077,153 @@
       <c r="D52" s="118">
         <v>248.5</v>
       </c>
-      <c r="E52" s="269">
+      <c r="E52" s="264">
         <f>SUM(D52:D60)</f>
         <v>1463.5</v>
       </c>
-      <c r="F52" s="269">
+      <c r="F52" s="264">
         <f>587</f>
         <v>587</v>
       </c>
-      <c r="G52" s="269">
+      <c r="G52" s="264">
         <f>E52-F52</f>
         <v>876.5</v>
       </c>
       <c r="H52" s="119"/>
     </row>
     <row r="53" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A53" s="322"/>
-      <c r="B53" s="309"/>
+      <c r="A53" s="317"/>
+      <c r="B53" s="304"/>
       <c r="C53" s="131" t="s">
         <v>141</v>
       </c>
       <c r="D53" s="118">
         <v>59</v>
       </c>
-      <c r="E53" s="269"/>
-      <c r="F53" s="269"/>
-      <c r="G53" s="269"/>
+      <c r="E53" s="264"/>
+      <c r="F53" s="264"/>
+      <c r="G53" s="264"/>
       <c r="H53" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A54" s="322"/>
-      <c r="B54" s="309"/>
+      <c r="A54" s="317"/>
+      <c r="B54" s="304"/>
       <c r="C54" s="131" t="s">
         <v>143</v>
       </c>
       <c r="D54" s="118">
         <v>59</v>
       </c>
-      <c r="E54" s="269"/>
-      <c r="F54" s="269"/>
-      <c r="G54" s="269"/>
+      <c r="E54" s="264"/>
+      <c r="F54" s="264"/>
+      <c r="G54" s="264"/>
       <c r="H54" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A55" s="322"/>
-      <c r="B55" s="309"/>
+      <c r="A55" s="317"/>
+      <c r="B55" s="304"/>
       <c r="C55" s="131" t="s">
         <v>144</v>
       </c>
       <c r="D55" s="118">
         <v>59</v>
       </c>
-      <c r="E55" s="269"/>
-      <c r="F55" s="269"/>
-      <c r="G55" s="269"/>
+      <c r="E55" s="264"/>
+      <c r="F55" s="264"/>
+      <c r="G55" s="264"/>
       <c r="H55" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A56" s="322"/>
-      <c r="B56" s="309"/>
+      <c r="A56" s="317"/>
+      <c r="B56" s="304"/>
       <c r="C56" s="131" t="s">
         <v>145</v>
       </c>
       <c r="D56" s="118">
         <v>29</v>
       </c>
-      <c r="E56" s="269"/>
-      <c r="F56" s="269"/>
-      <c r="G56" s="269"/>
+      <c r="E56" s="264"/>
+      <c r="F56" s="264"/>
+      <c r="G56" s="264"/>
       <c r="H56" s="119" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A57" s="322"/>
-      <c r="B57" s="309"/>
+      <c r="A57" s="317"/>
+      <c r="B57" s="304"/>
       <c r="C57" s="131" t="s">
         <v>146</v>
       </c>
       <c r="D57" s="118">
         <v>94</v>
       </c>
-      <c r="E57" s="269"/>
-      <c r="F57" s="269"/>
-      <c r="G57" s="269"/>
+      <c r="E57" s="264"/>
+      <c r="F57" s="264"/>
+      <c r="G57" s="264"/>
       <c r="H57" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A58" s="322"/>
-      <c r="B58" s="309"/>
+      <c r="A58" s="317"/>
+      <c r="B58" s="304"/>
       <c r="C58" s="131" t="s">
         <v>147</v>
       </c>
       <c r="D58" s="118">
         <v>117</v>
       </c>
-      <c r="E58" s="269"/>
-      <c r="F58" s="269"/>
-      <c r="G58" s="269"/>
+      <c r="E58" s="264"/>
+      <c r="F58" s="264"/>
+      <c r="G58" s="264"/>
       <c r="H58" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="25.5">
-      <c r="A59" s="322"/>
-      <c r="B59" s="309"/>
+      <c r="A59" s="317"/>
+      <c r="B59" s="304"/>
       <c r="C59" s="131" t="s">
         <v>148</v>
       </c>
       <c r="D59" s="118">
         <v>94</v>
       </c>
-      <c r="E59" s="269"/>
-      <c r="F59" s="269"/>
-      <c r="G59" s="269"/>
+      <c r="E59" s="264"/>
+      <c r="F59" s="264"/>
+      <c r="G59" s="264"/>
       <c r="H59" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="51">
-      <c r="A60" s="322"/>
-      <c r="B60" s="309"/>
+      <c r="A60" s="317"/>
+      <c r="B60" s="304"/>
       <c r="C60" s="132" t="s">
         <v>414</v>
       </c>
       <c r="D60" s="121">
         <v>704</v>
       </c>
-      <c r="E60" s="269"/>
-      <c r="F60" s="269"/>
-      <c r="G60" s="269"/>
+      <c r="E60" s="264"/>
+      <c r="F60" s="264"/>
+      <c r="G60" s="264"/>
       <c r="H60" s="119" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A61" s="314">
+      <c r="A61" s="309">
         <v>13</v>
       </c>
-      <c r="B61" s="300" t="s">
+      <c r="B61" s="295" t="s">
         <v>25</v>
       </c>
       <c r="C61" s="131" t="s">
@@ -24246,14 +24232,14 @@
       <c r="D61" s="133">
         <v>117.3</v>
       </c>
-      <c r="E61" s="303">
+      <c r="E61" s="298">
         <f>SUM(D61:D64)</f>
         <v>404.29999999999995</v>
       </c>
-      <c r="F61" s="306">
+      <c r="F61" s="301">
         <v>587</v>
       </c>
-      <c r="G61" s="297">
+      <c r="G61" s="292">
         <f>E61-F61</f>
         <v>-182.70000000000005</v>
       </c>
@@ -24262,71 +24248,71 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="38.25">
-      <c r="A62" s="315"/>
-      <c r="B62" s="301"/>
+      <c r="A62" s="310"/>
+      <c r="B62" s="296"/>
       <c r="C62" s="134" t="s">
         <v>416</v>
       </c>
       <c r="D62" s="135">
         <v>39.299999999999997</v>
       </c>
-      <c r="E62" s="304"/>
-      <c r="F62" s="307"/>
-      <c r="G62" s="298"/>
+      <c r="E62" s="299"/>
+      <c r="F62" s="302"/>
+      <c r="G62" s="293"/>
       <c r="H62" s="119" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="94.5" customHeight="1">
-      <c r="A63" s="315"/>
-      <c r="B63" s="301"/>
+      <c r="A63" s="310"/>
+      <c r="B63" s="296"/>
       <c r="C63" s="104" t="s">
         <v>391</v>
       </c>
       <c r="D63" s="136">
         <v>13.1</v>
       </c>
-      <c r="E63" s="304"/>
-      <c r="F63" s="307"/>
-      <c r="G63" s="298"/>
+      <c r="E63" s="299"/>
+      <c r="F63" s="302"/>
+      <c r="G63" s="293"/>
       <c r="H63" s="111" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="69.75" customHeight="1">
-      <c r="A64" s="316"/>
-      <c r="B64" s="302"/>
+      <c r="A64" s="311"/>
+      <c r="B64" s="297"/>
       <c r="C64" s="104" t="s">
         <v>402</v>
       </c>
       <c r="D64" s="136">
         <v>234.6</v>
       </c>
-      <c r="E64" s="305"/>
-      <c r="F64" s="308"/>
-      <c r="G64" s="299"/>
+      <c r="E64" s="300"/>
+      <c r="F64" s="303"/>
+      <c r="G64" s="294"/>
       <c r="H64" s="111" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="38.25">
-      <c r="A65" s="314">
+      <c r="A65" s="309">
         <v>14</v>
       </c>
-      <c r="B65" s="270" t="s">
+      <c r="B65" s="265" t="s">
         <v>111</v>
       </c>
       <c r="C65" s="104"/>
       <c r="D65" s="136"/>
-      <c r="E65" s="263">
+      <c r="E65" s="258">
         <f>SUM(D65:D68)</f>
         <v>300.7</v>
       </c>
-      <c r="F65" s="266">
+      <c r="F65" s="261">
         <f>587/12*5</f>
         <v>244.58333333333331</v>
       </c>
-      <c r="G65" s="263">
+      <c r="G65" s="258">
         <f>E65-F65</f>
         <v>56.116666666666674</v>
       </c>
@@ -24335,58 +24321,58 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="38.25">
-      <c r="A66" s="315"/>
-      <c r="B66" s="271"/>
+      <c r="A66" s="310"/>
+      <c r="B66" s="266"/>
       <c r="C66" s="131" t="s">
         <v>150</v>
       </c>
       <c r="D66" s="118">
         <v>59</v>
       </c>
-      <c r="E66" s="264"/>
-      <c r="F66" s="267"/>
-      <c r="G66" s="264"/>
+      <c r="E66" s="259"/>
+      <c r="F66" s="262"/>
+      <c r="G66" s="259"/>
       <c r="H66" s="119" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="51">
-      <c r="A67" s="315"/>
-      <c r="B67" s="271"/>
+      <c r="A67" s="310"/>
+      <c r="B67" s="266"/>
       <c r="C67" s="120" t="s">
         <v>152</v>
       </c>
       <c r="D67" s="121">
         <v>59</v>
       </c>
-      <c r="E67" s="264"/>
-      <c r="F67" s="267"/>
-      <c r="G67" s="264"/>
+      <c r="E67" s="259"/>
+      <c r="F67" s="262"/>
+      <c r="G67" s="259"/>
       <c r="H67" s="119" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A68" s="316"/>
-      <c r="B68" s="272"/>
+      <c r="A68" s="311"/>
+      <c r="B68" s="267"/>
       <c r="C68" s="115" t="s">
         <v>420</v>
       </c>
       <c r="D68" s="137">
         <v>182.7</v>
       </c>
-      <c r="E68" s="265"/>
-      <c r="F68" s="268"/>
-      <c r="G68" s="265"/>
+      <c r="E68" s="260"/>
+      <c r="F68" s="263"/>
+      <c r="G68" s="260"/>
       <c r="H68" s="138" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A69" s="322">
+      <c r="A69" s="317">
         <v>15</v>
       </c>
-      <c r="B69" s="282" t="s">
+      <c r="B69" s="277" t="s">
         <v>26</v>
       </c>
       <c r="C69" s="139" t="s">
@@ -24395,72 +24381,72 @@
       <c r="D69" s="140">
         <v>82.1</v>
       </c>
-      <c r="E69" s="310">
+      <c r="E69" s="305">
         <f>SUM(D69:D72)</f>
         <v>1588.4</v>
       </c>
-      <c r="F69" s="311">
+      <c r="F69" s="306">
         <v>587</v>
       </c>
-      <c r="G69" s="311">
+      <c r="G69" s="306">
         <f>E69-F69</f>
         <v>1001.4000000000001</v>
       </c>
       <c r="H69" s="139"/>
     </row>
     <row r="70" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A70" s="322"/>
-      <c r="B70" s="282"/>
+      <c r="A70" s="317"/>
+      <c r="B70" s="277"/>
       <c r="C70" s="127" t="s">
         <v>405</v>
       </c>
       <c r="D70" s="140">
         <v>548</v>
       </c>
-      <c r="E70" s="310"/>
-      <c r="F70" s="311"/>
-      <c r="G70" s="311"/>
+      <c r="E70" s="305"/>
+      <c r="F70" s="306"/>
+      <c r="G70" s="306"/>
       <c r="H70" s="139" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A71" s="322"/>
-      <c r="B71" s="282"/>
+      <c r="A71" s="317"/>
+      <c r="B71" s="277"/>
       <c r="C71" s="127" t="s">
         <v>423</v>
       </c>
       <c r="D71" s="140">
         <v>254.3</v>
       </c>
-      <c r="E71" s="310"/>
-      <c r="F71" s="311"/>
-      <c r="G71" s="311"/>
+      <c r="E71" s="305"/>
+      <c r="F71" s="306"/>
+      <c r="G71" s="306"/>
       <c r="H71" s="139" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A72" s="322"/>
-      <c r="B72" s="282"/>
+      <c r="A72" s="317"/>
+      <c r="B72" s="277"/>
       <c r="C72" s="127" t="s">
         <v>425</v>
       </c>
       <c r="D72" s="140">
         <v>704</v>
       </c>
-      <c r="E72" s="310"/>
-      <c r="F72" s="311"/>
-      <c r="G72" s="311"/>
+      <c r="E72" s="305"/>
+      <c r="F72" s="306"/>
+      <c r="G72" s="306"/>
       <c r="H72" s="139" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="38.25">
-      <c r="A73" s="322">
+      <c r="A73" s="317">
         <v>16</v>
       </c>
-      <c r="B73" s="309" t="s">
+      <c r="B73" s="304" t="s">
         <v>27</v>
       </c>
       <c r="C73" s="131" t="s">
@@ -24469,15 +24455,15 @@
       <c r="D73" s="116">
         <v>1018.83</v>
       </c>
-      <c r="E73" s="269">
+      <c r="E73" s="264">
         <f>SUM(D73:D77)</f>
         <v>2074.5299999999997</v>
       </c>
-      <c r="F73" s="290">
+      <c r="F73" s="285">
         <f>587/12*11.5*0.4+587/12*0.5*0.3</f>
         <v>232.35416666666666</v>
       </c>
-      <c r="G73" s="290">
+      <c r="G73" s="285">
         <f>E73-F73</f>
         <v>1842.175833333333</v>
       </c>
@@ -24486,72 +24472,72 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="76.5">
-      <c r="A74" s="322"/>
-      <c r="B74" s="309"/>
+      <c r="A74" s="317"/>
+      <c r="B74" s="304"/>
       <c r="C74" s="131" t="s">
         <v>157</v>
       </c>
       <c r="D74" s="118">
         <v>391</v>
       </c>
-      <c r="E74" s="269"/>
-      <c r="F74" s="290"/>
-      <c r="G74" s="290"/>
+      <c r="E74" s="264"/>
+      <c r="F74" s="285"/>
+      <c r="G74" s="285"/>
       <c r="H74" s="141"/>
     </row>
     <row r="75" spans="1:8" ht="63.75">
-      <c r="A75" s="322"/>
-      <c r="B75" s="309"/>
+      <c r="A75" s="317"/>
+      <c r="B75" s="304"/>
       <c r="C75" s="131" t="s">
         <v>426</v>
       </c>
       <c r="D75" s="118">
         <v>586</v>
       </c>
-      <c r="E75" s="269"/>
-      <c r="F75" s="290"/>
-      <c r="G75" s="290"/>
+      <c r="E75" s="264"/>
+      <c r="F75" s="285"/>
+      <c r="G75" s="285"/>
       <c r="H75" s="111" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A76" s="322"/>
-      <c r="B76" s="309"/>
+      <c r="A76" s="317"/>
+      <c r="B76" s="304"/>
       <c r="C76" s="131" t="s">
         <v>308</v>
       </c>
       <c r="D76" s="118">
         <v>19.7</v>
       </c>
-      <c r="E76" s="269"/>
-      <c r="F76" s="290"/>
-      <c r="G76" s="290"/>
+      <c r="E76" s="264"/>
+      <c r="F76" s="285"/>
+      <c r="G76" s="285"/>
       <c r="H76" s="111" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A77" s="322"/>
-      <c r="B77" s="309"/>
+      <c r="A77" s="317"/>
+      <c r="B77" s="304"/>
       <c r="C77" s="139" t="s">
         <v>310</v>
       </c>
       <c r="D77" s="118">
         <v>59</v>
       </c>
-      <c r="E77" s="269"/>
-      <c r="F77" s="290"/>
-      <c r="G77" s="290"/>
+      <c r="E77" s="264"/>
+      <c r="F77" s="285"/>
+      <c r="G77" s="285"/>
       <c r="H77" s="111" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A78" s="322">
+      <c r="A78" s="317">
         <v>17</v>
       </c>
-      <c r="B78" s="309" t="s">
+      <c r="B78" s="304" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="131" t="s">
@@ -24560,120 +24546,120 @@
       <c r="D78" s="118">
         <v>536.16666666666697</v>
       </c>
-      <c r="E78" s="269">
+      <c r="E78" s="264">
         <f>+D78+D79+D80+D81+D82+D83+D84</f>
         <v>1607.2666666666669</v>
       </c>
-      <c r="F78" s="321">
+      <c r="F78" s="316">
         <v>587</v>
       </c>
-      <c r="G78" s="269">
+      <c r="G78" s="264">
         <f>E78-F78</f>
         <v>1020.2666666666669</v>
       </c>
       <c r="H78" s="119"/>
     </row>
     <row r="79" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A79" s="322"/>
-      <c r="B79" s="309"/>
+      <c r="A79" s="317"/>
+      <c r="B79" s="304"/>
       <c r="C79" s="131" t="s">
         <v>158</v>
       </c>
       <c r="D79" s="118">
         <v>59</v>
       </c>
-      <c r="E79" s="269"/>
-      <c r="F79" s="321"/>
-      <c r="G79" s="269"/>
+      <c r="E79" s="264"/>
+      <c r="F79" s="316"/>
+      <c r="G79" s="264"/>
       <c r="H79" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="25.5">
-      <c r="A80" s="322"/>
-      <c r="B80" s="309"/>
+      <c r="A80" s="317"/>
+      <c r="B80" s="304"/>
       <c r="C80" s="131" t="s">
         <v>160</v>
       </c>
       <c r="D80" s="118">
         <v>59</v>
       </c>
-      <c r="E80" s="269"/>
-      <c r="F80" s="321"/>
-      <c r="G80" s="269"/>
+      <c r="E80" s="264"/>
+      <c r="F80" s="316"/>
+      <c r="G80" s="264"/>
       <c r="H80" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A81" s="322"/>
-      <c r="B81" s="309"/>
+      <c r="A81" s="317"/>
+      <c r="B81" s="304"/>
       <c r="C81" s="131" t="s">
         <v>161</v>
       </c>
       <c r="D81" s="118">
         <v>59</v>
       </c>
-      <c r="E81" s="269"/>
-      <c r="F81" s="321"/>
-      <c r="G81" s="269"/>
+      <c r="E81" s="264"/>
+      <c r="F81" s="316"/>
+      <c r="G81" s="264"/>
       <c r="H81" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A82" s="322"/>
-      <c r="B82" s="309"/>
+      <c r="A82" s="317"/>
+      <c r="B82" s="304"/>
       <c r="C82" s="131" t="s">
         <v>311</v>
       </c>
       <c r="D82" s="118">
         <v>59</v>
       </c>
-      <c r="E82" s="269"/>
-      <c r="F82" s="321"/>
-      <c r="G82" s="269"/>
+      <c r="E82" s="264"/>
+      <c r="F82" s="316"/>
+      <c r="G82" s="264"/>
       <c r="H82" s="119" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A83" s="322"/>
-      <c r="B83" s="309"/>
+      <c r="A83" s="317"/>
+      <c r="B83" s="304"/>
       <c r="C83" s="104" t="s">
         <v>392</v>
       </c>
       <c r="D83" s="118">
         <v>13.1</v>
       </c>
-      <c r="E83" s="269"/>
-      <c r="F83" s="321"/>
-      <c r="G83" s="269"/>
+      <c r="E83" s="264"/>
+      <c r="F83" s="316"/>
+      <c r="G83" s="264"/>
       <c r="H83" s="119" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A84" s="322"/>
-      <c r="B84" s="309"/>
+      <c r="A84" s="317"/>
+      <c r="B84" s="304"/>
       <c r="C84" s="120" t="s">
         <v>162</v>
       </c>
       <c r="D84" s="121">
         <v>822</v>
       </c>
-      <c r="E84" s="269"/>
-      <c r="F84" s="321"/>
-      <c r="G84" s="269"/>
+      <c r="E84" s="264"/>
+      <c r="F84" s="316"/>
+      <c r="G84" s="264"/>
       <c r="H84" s="119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A85" s="322">
+      <c r="A85" s="317">
         <v>18</v>
       </c>
-      <c r="B85" s="309" t="s">
+      <c r="B85" s="304" t="s">
         <v>32</v>
       </c>
       <c r="C85" s="130" t="s">
@@ -24682,121 +24668,121 @@
       <c r="D85" s="118">
         <v>806.83</v>
       </c>
-      <c r="E85" s="269">
+      <c r="E85" s="264">
         <f>SUM(D85:D91)</f>
         <v>1433.83</v>
       </c>
-      <c r="F85" s="269">
+      <c r="F85" s="264">
         <f>587</f>
         <v>587</v>
       </c>
-      <c r="G85" s="269">
+      <c r="G85" s="264">
         <f>E85-F85</f>
         <v>846.82999999999993</v>
       </c>
       <c r="H85" s="119"/>
     </row>
     <row r="86" spans="1:8" ht="25.5">
-      <c r="A86" s="322"/>
-      <c r="B86" s="309"/>
+      <c r="A86" s="317"/>
+      <c r="B86" s="304"/>
       <c r="C86" s="131" t="s">
         <v>313</v>
       </c>
       <c r="D86" s="118">
         <v>59</v>
       </c>
-      <c r="E86" s="269"/>
-      <c r="F86" s="269"/>
-      <c r="G86" s="269"/>
+      <c r="E86" s="264"/>
+      <c r="F86" s="264"/>
+      <c r="G86" s="264"/>
       <c r="H86" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="25.5">
-      <c r="A87" s="322"/>
-      <c r="B87" s="309"/>
+      <c r="A87" s="317"/>
+      <c r="B87" s="304"/>
       <c r="C87" s="131" t="s">
         <v>314</v>
       </c>
       <c r="D87" s="118">
         <v>59</v>
       </c>
-      <c r="E87" s="269"/>
-      <c r="F87" s="269"/>
-      <c r="G87" s="269"/>
+      <c r="E87" s="264"/>
+      <c r="F87" s="264"/>
+      <c r="G87" s="264"/>
       <c r="H87" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A88" s="322"/>
-      <c r="B88" s="309"/>
+      <c r="A88" s="317"/>
+      <c r="B88" s="304"/>
       <c r="C88" s="131" t="s">
         <v>315</v>
       </c>
       <c r="D88" s="118">
         <v>59</v>
       </c>
-      <c r="E88" s="269"/>
-      <c r="F88" s="269"/>
-      <c r="G88" s="269"/>
+      <c r="E88" s="264"/>
+      <c r="F88" s="264"/>
+      <c r="G88" s="264"/>
       <c r="H88" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="51">
-      <c r="A89" s="322"/>
-      <c r="B89" s="309"/>
+      <c r="A89" s="317"/>
+      <c r="B89" s="304"/>
       <c r="C89" s="131" t="s">
         <v>316</v>
       </c>
       <c r="D89" s="118">
         <v>195.5</v>
       </c>
-      <c r="E89" s="269"/>
-      <c r="F89" s="269"/>
-      <c r="G89" s="269"/>
+      <c r="E89" s="264"/>
+      <c r="F89" s="264"/>
+      <c r="G89" s="264"/>
       <c r="H89" s="119" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="63.75">
-      <c r="A90" s="322"/>
-      <c r="B90" s="309"/>
+      <c r="A90" s="317"/>
+      <c r="B90" s="304"/>
       <c r="C90" s="131" t="s">
         <v>318</v>
       </c>
       <c r="D90" s="118">
         <v>195.5</v>
       </c>
-      <c r="E90" s="269"/>
-      <c r="F90" s="269"/>
-      <c r="G90" s="269"/>
+      <c r="E90" s="264"/>
+      <c r="F90" s="264"/>
+      <c r="G90" s="264"/>
       <c r="H90" s="119" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="38.25">
-      <c r="A91" s="322"/>
-      <c r="B91" s="309"/>
+      <c r="A91" s="317"/>
+      <c r="B91" s="304"/>
       <c r="C91" s="131" t="s">
         <v>165</v>
       </c>
       <c r="D91" s="118">
         <v>59</v>
       </c>
-      <c r="E91" s="269"/>
-      <c r="F91" s="269"/>
-      <c r="G91" s="269"/>
+      <c r="E91" s="264"/>
+      <c r="F91" s="264"/>
+      <c r="G91" s="264"/>
       <c r="H91" s="119" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A92" s="314">
+      <c r="A92" s="309">
         <v>19</v>
       </c>
-      <c r="B92" s="270" t="s">
+      <c r="B92" s="265" t="s">
         <v>34</v>
       </c>
       <c r="C92" s="104" t="s">
@@ -24805,326 +24791,326 @@
       <c r="D92" s="112">
         <v>675.15</v>
       </c>
-      <c r="E92" s="273">
+      <c r="E92" s="268">
         <f>SUM(D92:D111)</f>
         <v>3881.8900000000003</v>
       </c>
-      <c r="F92" s="319">
+      <c r="F92" s="314">
         <v>587</v>
       </c>
-      <c r="G92" s="273">
+      <c r="G92" s="268">
         <f>E92-F92</f>
         <v>3294.8900000000003</v>
       </c>
       <c r="H92" s="111"/>
     </row>
     <row r="93" spans="1:8" ht="63.75">
-      <c r="A93" s="315"/>
-      <c r="B93" s="271"/>
+      <c r="A93" s="310"/>
+      <c r="B93" s="266"/>
       <c r="C93" s="104" t="s">
         <v>166</v>
       </c>
       <c r="D93" s="112">
         <v>254.3</v>
       </c>
-      <c r="E93" s="274"/>
-      <c r="F93" s="320"/>
-      <c r="G93" s="274"/>
+      <c r="E93" s="269"/>
+      <c r="F93" s="315"/>
+      <c r="G93" s="269"/>
       <c r="H93" s="111" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="76.5">
-      <c r="A94" s="315"/>
-      <c r="B94" s="271"/>
+      <c r="A94" s="310"/>
+      <c r="B94" s="266"/>
       <c r="C94" s="104" t="s">
         <v>167</v>
       </c>
       <c r="D94" s="112">
         <v>411</v>
       </c>
-      <c r="E94" s="274"/>
-      <c r="F94" s="320"/>
-      <c r="G94" s="274"/>
+      <c r="E94" s="269"/>
+      <c r="F94" s="315"/>
+      <c r="G94" s="269"/>
       <c r="H94" s="111" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="89.25">
-      <c r="A95" s="315"/>
-      <c r="B95" s="271"/>
+      <c r="A95" s="310"/>
+      <c r="B95" s="266"/>
       <c r="C95" s="104" t="s">
         <v>168</v>
       </c>
       <c r="D95" s="112">
         <v>456.67</v>
       </c>
-      <c r="E95" s="274"/>
-      <c r="F95" s="320"/>
-      <c r="G95" s="274"/>
+      <c r="E95" s="269"/>
+      <c r="F95" s="315"/>
+      <c r="G95" s="269"/>
       <c r="H95" s="111" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="102">
-      <c r="A96" s="315"/>
-      <c r="B96" s="271"/>
+      <c r="A96" s="310"/>
+      <c r="B96" s="266"/>
       <c r="C96" s="104" t="s">
         <v>169</v>
       </c>
       <c r="D96" s="112">
         <v>127.17</v>
       </c>
-      <c r="E96" s="274"/>
-      <c r="F96" s="320"/>
-      <c r="G96" s="274"/>
+      <c r="E96" s="269"/>
+      <c r="F96" s="315"/>
+      <c r="G96" s="269"/>
       <c r="H96" s="111" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="126" customHeight="1">
-      <c r="A97" s="315"/>
-      <c r="B97" s="271"/>
+      <c r="A97" s="310"/>
+      <c r="B97" s="266"/>
       <c r="C97" s="104" t="s">
         <v>170</v>
       </c>
       <c r="D97" s="112">
         <v>339.11</v>
       </c>
-      <c r="E97" s="274"/>
-      <c r="F97" s="320"/>
-      <c r="G97" s="274"/>
+      <c r="E97" s="269"/>
+      <c r="F97" s="315"/>
+      <c r="G97" s="269"/>
       <c r="H97" s="111" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="76.5">
-      <c r="A98" s="315"/>
-      <c r="B98" s="271"/>
+      <c r="A98" s="310"/>
+      <c r="B98" s="266"/>
       <c r="C98" s="104" t="s">
         <v>171</v>
       </c>
       <c r="D98" s="112">
         <v>130.44</v>
       </c>
-      <c r="E98" s="274"/>
-      <c r="F98" s="320"/>
-      <c r="G98" s="274"/>
+      <c r="E98" s="269"/>
+      <c r="F98" s="315"/>
+      <c r="G98" s="269"/>
       <c r="H98" s="111" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="89.25">
-      <c r="A99" s="315"/>
-      <c r="B99" s="271"/>
+      <c r="A99" s="310"/>
+      <c r="B99" s="266"/>
       <c r="C99" s="104" t="s">
         <v>172</v>
       </c>
       <c r="D99" s="112">
         <v>111.81</v>
       </c>
-      <c r="E99" s="274"/>
-      <c r="F99" s="320"/>
-      <c r="G99" s="274"/>
+      <c r="E99" s="269"/>
+      <c r="F99" s="315"/>
+      <c r="G99" s="269"/>
       <c r="H99" s="111" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="51">
-      <c r="A100" s="315"/>
-      <c r="B100" s="271"/>
+      <c r="A100" s="310"/>
+      <c r="B100" s="266"/>
       <c r="C100" s="104" t="s">
         <v>173</v>
       </c>
       <c r="D100" s="112">
         <v>19.670000000000002</v>
       </c>
-      <c r="E100" s="274"/>
-      <c r="F100" s="320"/>
-      <c r="G100" s="274"/>
+      <c r="E100" s="269"/>
+      <c r="F100" s="315"/>
+      <c r="G100" s="269"/>
       <c r="H100" s="111"/>
     </row>
     <row r="101" spans="1:8" ht="76.5">
-      <c r="A101" s="315"/>
-      <c r="B101" s="271"/>
+      <c r="A101" s="310"/>
+      <c r="B101" s="266"/>
       <c r="C101" s="104" t="s">
         <v>174</v>
       </c>
       <c r="D101" s="112">
         <v>195.67</v>
       </c>
-      <c r="E101" s="274"/>
-      <c r="F101" s="320"/>
-      <c r="G101" s="274"/>
+      <c r="E101" s="269"/>
+      <c r="F101" s="315"/>
+      <c r="G101" s="269"/>
       <c r="H101" s="111" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A102" s="315"/>
-      <c r="B102" s="271"/>
+      <c r="A102" s="310"/>
+      <c r="B102" s="266"/>
       <c r="C102" s="104" t="s">
         <v>175</v>
       </c>
       <c r="D102" s="142">
         <v>70</v>
       </c>
-      <c r="E102" s="274"/>
-      <c r="F102" s="320"/>
-      <c r="G102" s="274"/>
+      <c r="E102" s="269"/>
+      <c r="F102" s="315"/>
+      <c r="G102" s="269"/>
       <c r="H102" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A103" s="315"/>
-      <c r="B103" s="271"/>
+      <c r="A103" s="310"/>
+      <c r="B103" s="266"/>
       <c r="C103" s="104" t="s">
         <v>176</v>
       </c>
       <c r="D103" s="142">
         <v>70</v>
       </c>
-      <c r="E103" s="274"/>
-      <c r="F103" s="320"/>
-      <c r="G103" s="274"/>
+      <c r="E103" s="269"/>
+      <c r="F103" s="315"/>
+      <c r="G103" s="269"/>
       <c r="H103" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="38.25">
-      <c r="A104" s="315"/>
-      <c r="B104" s="271"/>
+      <c r="A104" s="310"/>
+      <c r="B104" s="266"/>
       <c r="C104" s="104" t="s">
         <v>177</v>
       </c>
       <c r="D104" s="142">
         <v>70</v>
       </c>
-      <c r="E104" s="274"/>
-      <c r="F104" s="320"/>
-      <c r="G104" s="274"/>
+      <c r="E104" s="269"/>
+      <c r="F104" s="315"/>
+      <c r="G104" s="269"/>
       <c r="H104" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="38.25">
-      <c r="A105" s="315"/>
-      <c r="B105" s="271"/>
+      <c r="A105" s="310"/>
+      <c r="B105" s="266"/>
       <c r="C105" s="104" t="s">
         <v>178</v>
       </c>
       <c r="D105" s="142">
         <v>70</v>
       </c>
-      <c r="E105" s="274"/>
-      <c r="F105" s="320"/>
-      <c r="G105" s="274"/>
+      <c r="E105" s="269"/>
+      <c r="F105" s="315"/>
+      <c r="G105" s="269"/>
       <c r="H105" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A106" s="315"/>
-      <c r="B106" s="271"/>
+      <c r="A106" s="310"/>
+      <c r="B106" s="266"/>
       <c r="C106" s="104" t="s">
         <v>179</v>
       </c>
       <c r="D106" s="142">
         <v>59</v>
       </c>
-      <c r="E106" s="274"/>
-      <c r="F106" s="320"/>
-      <c r="G106" s="274"/>
+      <c r="E106" s="269"/>
+      <c r="F106" s="315"/>
+      <c r="G106" s="269"/>
       <c r="H106" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A107" s="315"/>
-      <c r="B107" s="271"/>
+      <c r="A107" s="310"/>
+      <c r="B107" s="266"/>
       <c r="C107" s="104" t="s">
         <v>180</v>
       </c>
       <c r="D107" s="142">
         <v>59</v>
       </c>
-      <c r="E107" s="274"/>
-      <c r="F107" s="320"/>
-      <c r="G107" s="274"/>
+      <c r="E107" s="269"/>
+      <c r="F107" s="315"/>
+      <c r="G107" s="269"/>
       <c r="H107" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A108" s="315"/>
-      <c r="B108" s="271"/>
+      <c r="A108" s="310"/>
+      <c r="B108" s="266"/>
       <c r="C108" s="104" t="s">
         <v>181</v>
       </c>
       <c r="D108" s="142">
         <v>29</v>
       </c>
-      <c r="E108" s="274"/>
-      <c r="F108" s="320"/>
-      <c r="G108" s="274"/>
+      <c r="E108" s="269"/>
+      <c r="F108" s="315"/>
+      <c r="G108" s="269"/>
       <c r="H108" s="143" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A109" s="315"/>
-      <c r="B109" s="271"/>
+      <c r="A109" s="310"/>
+      <c r="B109" s="266"/>
       <c r="C109" s="104" t="s">
         <v>429</v>
       </c>
       <c r="D109" s="105">
         <v>411.1</v>
       </c>
-      <c r="E109" s="274"/>
-      <c r="F109" s="320"/>
-      <c r="G109" s="274"/>
+      <c r="E109" s="269"/>
+      <c r="F109" s="315"/>
+      <c r="G109" s="269"/>
       <c r="H109" s="143" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A110" s="315"/>
-      <c r="B110" s="271"/>
+      <c r="A110" s="310"/>
+      <c r="B110" s="266"/>
       <c r="C110" s="104" t="s">
         <v>430</v>
       </c>
       <c r="D110" s="105">
         <v>146.80000000000001</v>
       </c>
-      <c r="E110" s="274"/>
-      <c r="F110" s="320"/>
-      <c r="G110" s="274"/>
+      <c r="E110" s="269"/>
+      <c r="F110" s="315"/>
+      <c r="G110" s="269"/>
       <c r="H110" s="144" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A111" s="315"/>
-      <c r="B111" s="271"/>
+      <c r="A111" s="310"/>
+      <c r="B111" s="266"/>
       <c r="C111" s="104" t="s">
         <v>431</v>
       </c>
       <c r="D111" s="142">
         <v>176</v>
       </c>
-      <c r="E111" s="274"/>
-      <c r="F111" s="320"/>
-      <c r="G111" s="274"/>
+      <c r="E111" s="269"/>
+      <c r="F111" s="315"/>
+      <c r="G111" s="269"/>
       <c r="H111" s="143" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A112" s="322">
+      <c r="A112" s="317">
         <v>20</v>
       </c>
-      <c r="B112" s="309" t="s">
+      <c r="B112" s="304" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="104" t="s">
@@ -25133,15 +25119,15 @@
       <c r="D112" s="142">
         <v>1655.9</v>
       </c>
-      <c r="E112" s="269">
+      <c r="E112" s="264">
         <f>D112+D113+D114+D115+D116+D117</f>
         <v>1909.6000000000001</v>
       </c>
-      <c r="F112" s="321">
+      <c r="F112" s="316">
         <f>587/12*0.5*0.4+587/12*11.5</f>
         <v>572.32499999999993</v>
       </c>
-      <c r="G112" s="285">
+      <c r="G112" s="280">
         <f>E112-F112</f>
         <v>1337.2750000000001</v>
       </c>
@@ -25150,90 +25136,90 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A113" s="322"/>
-      <c r="B113" s="309"/>
+      <c r="A113" s="317"/>
+      <c r="B113" s="304"/>
       <c r="C113" s="104" t="s">
         <v>170</v>
       </c>
       <c r="D113" s="118">
         <v>78</v>
       </c>
-      <c r="E113" s="269"/>
-      <c r="F113" s="321"/>
-      <c r="G113" s="285"/>
+      <c r="E113" s="264"/>
+      <c r="F113" s="316"/>
+      <c r="G113" s="280"/>
       <c r="H113" s="119" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A114" s="322"/>
-      <c r="B114" s="309"/>
+      <c r="A114" s="317"/>
+      <c r="B114" s="304"/>
       <c r="C114" s="120" t="s">
         <v>131</v>
       </c>
       <c r="D114" s="121">
         <v>58.7</v>
       </c>
-      <c r="E114" s="269"/>
-      <c r="F114" s="321"/>
-      <c r="G114" s="285"/>
+      <c r="E114" s="264"/>
+      <c r="F114" s="316"/>
+      <c r="G114" s="280"/>
       <c r="H114" s="119" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A115" s="322"/>
-      <c r="B115" s="309"/>
+      <c r="A115" s="317"/>
+      <c r="B115" s="304"/>
       <c r="C115" s="122" t="s">
         <v>183</v>
       </c>
       <c r="D115" s="123">
         <v>29</v>
       </c>
-      <c r="E115" s="269"/>
-      <c r="F115" s="321"/>
-      <c r="G115" s="285"/>
+      <c r="E115" s="264"/>
+      <c r="F115" s="316"/>
+      <c r="G115" s="280"/>
       <c r="H115" s="124" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A116" s="322"/>
-      <c r="B116" s="309"/>
+      <c r="A116" s="317"/>
+      <c r="B116" s="304"/>
       <c r="C116" s="122" t="s">
         <v>432</v>
       </c>
       <c r="D116" s="123">
         <v>29</v>
       </c>
-      <c r="E116" s="269"/>
-      <c r="F116" s="321"/>
-      <c r="G116" s="285"/>
+      <c r="E116" s="264"/>
+      <c r="F116" s="316"/>
+      <c r="G116" s="280"/>
       <c r="H116" s="124" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A117" s="322"/>
-      <c r="B117" s="309"/>
+      <c r="A117" s="317"/>
+      <c r="B117" s="304"/>
       <c r="C117" s="115" t="s">
         <v>329</v>
       </c>
       <c r="D117" s="123">
         <v>59</v>
       </c>
-      <c r="E117" s="269"/>
-      <c r="F117" s="321"/>
-      <c r="G117" s="285"/>
+      <c r="E117" s="264"/>
+      <c r="F117" s="316"/>
+      <c r="G117" s="280"/>
       <c r="H117" s="125" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A118" s="314">
+      <c r="A118" s="309">
         <v>21</v>
       </c>
-      <c r="B118" s="270" t="s">
+      <c r="B118" s="265" t="s">
         <v>29</v>
       </c>
       <c r="C118" s="130" t="s">
@@ -25242,88 +25228,88 @@
       <c r="D118" s="118">
         <v>407</v>
       </c>
-      <c r="E118" s="263">
+      <c r="E118" s="258">
         <f>SUM(D118:D122)</f>
         <v>720.8</v>
       </c>
-      <c r="F118" s="263">
+      <c r="F118" s="258">
         <v>587</v>
       </c>
-      <c r="G118" s="263">
+      <c r="G118" s="258">
         <f>E118-F118</f>
         <v>133.79999999999995</v>
       </c>
       <c r="H118" s="119"/>
     </row>
     <row r="119" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A119" s="315"/>
-      <c r="B119" s="271"/>
+      <c r="A119" s="310"/>
+      <c r="B119" s="266"/>
       <c r="C119" s="120" t="s">
         <v>184</v>
       </c>
       <c r="D119" s="118">
         <v>59</v>
       </c>
-      <c r="E119" s="264"/>
-      <c r="F119" s="264"/>
-      <c r="G119" s="264"/>
+      <c r="E119" s="259"/>
+      <c r="F119" s="259"/>
+      <c r="G119" s="259"/>
       <c r="H119" s="119" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A120" s="315"/>
-      <c r="B120" s="271"/>
+      <c r="A120" s="310"/>
+      <c r="B120" s="266"/>
       <c r="C120" s="120" t="s">
         <v>185</v>
       </c>
       <c r="D120" s="118">
         <v>59</v>
       </c>
-      <c r="E120" s="264"/>
-      <c r="F120" s="264"/>
-      <c r="G120" s="264"/>
+      <c r="E120" s="259"/>
+      <c r="F120" s="259"/>
+      <c r="G120" s="259"/>
       <c r="H120" s="119" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="76.5">
-      <c r="A121" s="315"/>
-      <c r="B121" s="271"/>
+      <c r="A121" s="310"/>
+      <c r="B121" s="266"/>
       <c r="C121" s="104" t="s">
         <v>391</v>
       </c>
       <c r="D121" s="121">
         <v>13.1</v>
       </c>
-      <c r="E121" s="264"/>
-      <c r="F121" s="264"/>
-      <c r="G121" s="264"/>
+      <c r="E121" s="259"/>
+      <c r="F121" s="259"/>
+      <c r="G121" s="259"/>
       <c r="H121" s="119" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="90">
-      <c r="A122" s="316"/>
-      <c r="B122" s="272"/>
+      <c r="A122" s="311"/>
+      <c r="B122" s="267"/>
       <c r="C122" s="146" t="s">
         <v>441</v>
       </c>
       <c r="D122" s="137">
         <v>182.7</v>
       </c>
-      <c r="E122" s="265"/>
-      <c r="F122" s="265"/>
-      <c r="G122" s="265"/>
+      <c r="E122" s="260"/>
+      <c r="F122" s="260"/>
+      <c r="G122" s="260"/>
       <c r="H122" s="119" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A123" s="322">
+      <c r="A123" s="317">
         <v>22</v>
       </c>
-      <c r="B123" s="309" t="s">
+      <c r="B123" s="304" t="s">
         <v>33</v>
       </c>
       <c r="C123" s="115" t="s">
@@ -25332,15 +25318,15 @@
       <c r="D123" s="147">
         <v>976.9</v>
       </c>
-      <c r="E123" s="290">
+      <c r="E123" s="285">
         <f>SUM(D123:D131)</f>
         <v>4244.9000000000005</v>
       </c>
-      <c r="F123" s="317">
+      <c r="F123" s="312">
         <f>587*0.8</f>
         <v>469.6</v>
       </c>
-      <c r="G123" s="318">
+      <c r="G123" s="313">
         <f>E123-F123</f>
         <v>3775.3000000000006</v>
       </c>
@@ -25349,136 +25335,136 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A124" s="322"/>
-      <c r="B124" s="309"/>
+      <c r="A124" s="317"/>
+      <c r="B124" s="304"/>
       <c r="C124" s="131" t="s">
         <v>435</v>
       </c>
       <c r="D124" s="133">
         <v>1174</v>
       </c>
-      <c r="E124" s="290"/>
-      <c r="F124" s="317"/>
-      <c r="G124" s="318"/>
+      <c r="E124" s="285"/>
+      <c r="F124" s="312"/>
+      <c r="G124" s="313"/>
       <c r="H124" s="119"/>
     </row>
     <row r="125" spans="1:8" ht="51">
-      <c r="A125" s="322"/>
-      <c r="B125" s="309"/>
+      <c r="A125" s="317"/>
+      <c r="B125" s="304"/>
       <c r="C125" s="131" t="s">
         <v>332</v>
       </c>
       <c r="D125" s="133">
         <v>195.6</v>
       </c>
-      <c r="E125" s="290"/>
-      <c r="F125" s="317"/>
-      <c r="G125" s="318"/>
+      <c r="E125" s="285"/>
+      <c r="F125" s="312"/>
+      <c r="G125" s="313"/>
       <c r="H125" s="119" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="63.75">
-      <c r="A126" s="322"/>
-      <c r="B126" s="309"/>
+      <c r="A126" s="317"/>
+      <c r="B126" s="304"/>
       <c r="C126" s="131" t="s">
         <v>333</v>
       </c>
       <c r="D126" s="133">
         <v>469.3</v>
       </c>
-      <c r="E126" s="290"/>
-      <c r="F126" s="317"/>
-      <c r="G126" s="318"/>
+      <c r="E126" s="285"/>
+      <c r="F126" s="312"/>
+      <c r="G126" s="313"/>
       <c r="H126" s="119" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="76.5">
-      <c r="A127" s="322"/>
-      <c r="B127" s="309"/>
+      <c r="A127" s="317"/>
+      <c r="B127" s="304"/>
       <c r="C127" s="120" t="s">
         <v>436</v>
       </c>
       <c r="D127" s="135">
         <v>97.8</v>
       </c>
-      <c r="E127" s="290"/>
-      <c r="F127" s="317"/>
-      <c r="G127" s="318"/>
+      <c r="E127" s="285"/>
+      <c r="F127" s="312"/>
+      <c r="G127" s="313"/>
       <c r="H127" s="119" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="25.5">
-      <c r="A128" s="322"/>
-      <c r="B128" s="309"/>
+      <c r="A128" s="317"/>
+      <c r="B128" s="304"/>
       <c r="C128" s="120" t="s">
         <v>334</v>
       </c>
       <c r="D128" s="135">
         <v>1174</v>
       </c>
-      <c r="E128" s="290"/>
-      <c r="F128" s="317"/>
-      <c r="G128" s="318"/>
+      <c r="E128" s="285"/>
+      <c r="F128" s="312"/>
+      <c r="G128" s="313"/>
       <c r="H128" s="119" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="38.25">
-      <c r="A129" s="322"/>
-      <c r="B129" s="309"/>
+      <c r="A129" s="317"/>
+      <c r="B129" s="304"/>
       <c r="C129" s="120" t="s">
         <v>336</v>
       </c>
       <c r="D129" s="135">
         <v>39.299999999999997</v>
       </c>
-      <c r="E129" s="290"/>
-      <c r="F129" s="317"/>
-      <c r="G129" s="318"/>
+      <c r="E129" s="285"/>
+      <c r="F129" s="312"/>
+      <c r="G129" s="313"/>
       <c r="H129" s="119" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="51">
-      <c r="A130" s="322"/>
-      <c r="B130" s="309"/>
+      <c r="A130" s="317"/>
+      <c r="B130" s="304"/>
       <c r="C130" s="129" t="s">
         <v>438</v>
       </c>
       <c r="D130" s="135">
         <v>59</v>
       </c>
-      <c r="E130" s="290"/>
-      <c r="F130" s="317"/>
-      <c r="G130" s="318"/>
+      <c r="E130" s="285"/>
+      <c r="F130" s="312"/>
+      <c r="G130" s="313"/>
       <c r="H130" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="38.25">
-      <c r="A131" s="322"/>
-      <c r="B131" s="309"/>
+      <c r="A131" s="317"/>
+      <c r="B131" s="304"/>
       <c r="C131" s="129" t="s">
         <v>439</v>
       </c>
       <c r="D131" s="135">
         <v>59</v>
       </c>
-      <c r="E131" s="290"/>
-      <c r="F131" s="317"/>
-      <c r="G131" s="318"/>
+      <c r="E131" s="285"/>
+      <c r="F131" s="312"/>
+      <c r="G131" s="313"/>
       <c r="H131" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A132" s="322">
+      <c r="A132" s="317">
         <v>23</v>
       </c>
-      <c r="B132" s="309" t="s">
+      <c r="B132" s="304" t="s">
         <v>30</v>
       </c>
       <c r="C132" s="127" t="s">
@@ -25487,31 +25473,31 @@
       <c r="D132" s="148">
         <v>293.5</v>
       </c>
-      <c r="E132" s="312">
+      <c r="E132" s="307">
         <f>D132+D133</f>
         <v>606.5</v>
       </c>
-      <c r="F132" s="312">
+      <c r="F132" s="307">
         <v>587</v>
       </c>
-      <c r="G132" s="312">
+      <c r="G132" s="307">
         <f>E132-F132</f>
         <v>19.5</v>
       </c>
       <c r="H132" s="117"/>
     </row>
     <row r="133" spans="1:8" ht="76.5">
-      <c r="A133" s="322"/>
-      <c r="B133" s="309"/>
+      <c r="A133" s="317"/>
+      <c r="B133" s="304"/>
       <c r="C133" s="115" t="s">
         <v>186</v>
       </c>
       <c r="D133" s="118">
         <v>313</v>
       </c>
-      <c r="E133" s="312"/>
-      <c r="F133" s="312"/>
-      <c r="G133" s="312"/>
+      <c r="E133" s="307"/>
+      <c r="F133" s="307"/>
+      <c r="G133" s="307"/>
       <c r="H133" s="117"/>
     </row>
     <row r="134" spans="1:8">
@@ -25535,14 +25521,14 @@
       <c r="H135" s="155"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="323" t="s">
+      <c r="A136" s="318" t="s">
         <v>440</v>
       </c>
-      <c r="B136" s="323"/>
-      <c r="C136" s="323" t="s">
+      <c r="B136" s="318"/>
+      <c r="C136" s="318" t="s">
         <v>187</v>
       </c>
-      <c r="D136" s="323"/>
+      <c r="D136" s="318"/>
       <c r="E136" s="156"/>
       <c r="F136" s="156"/>
       <c r="G136" s="156"/>
@@ -25699,34 +25685,34 @@
       <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="324" t="s">
+      <c r="A2" s="319" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="325" t="s">
+      <c r="A3" s="320" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="325"/>
-      <c r="C3" s="325"/>
-      <c r="D3" s="325"/>
-      <c r="E3" s="325"/>
-      <c r="F3" s="325"/>
-      <c r="G3" s="325"/>
+      <c r="B3" s="320"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="320"/>
+      <c r="G3" s="320"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="326" t="s">
+      <c r="A4" s="321" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="326"/>
-      <c r="C4" s="326"/>
-      <c r="D4" s="326"/>
-      <c r="E4" s="326"/>
-      <c r="F4" s="326"/>
-      <c r="G4" s="326"/>
+      <c r="B4" s="321"/>
+      <c r="C4" s="321"/>
+      <c r="D4" s="321"/>
+      <c r="E4" s="321"/>
+      <c r="F4" s="321"/>
+      <c r="G4" s="321"/>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="79"/>
@@ -26386,16 +26372,16 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25">
-      <c r="A39" s="325" t="s">
+      <c r="A39" s="320" t="s">
         <v>346</v>
       </c>
-      <c r="B39" s="325"/>
-      <c r="C39" s="325" t="s">
+      <c r="B39" s="320"/>
+      <c r="C39" s="320" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="325"/>
-      <c r="E39" s="325"/>
-      <c r="F39" s="325"/>
+      <c r="D39" s="320"/>
+      <c r="E39" s="320"/>
+      <c r="F39" s="320"/>
       <c r="G39" s="100" t="s">
         <v>188</v>
       </c>

--- a/src/helpers/excel/template_export.xlsx
+++ b/src/helpers/excel/template_export.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhatr\Documents\GitHub\mission-timer-be\src\helpers\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThanhNha\Github\mission-timer-be\src\helpers\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D62F79E-2740-44CF-9907-73D9AED7CEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A025E61A-D4E1-457F-869A-A36FCD7F82BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7155" windowWidth="16380" windowHeight="7110" tabRatio="438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="32" r:id="rId1"/>
@@ -38,9 +38,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -1509,7 +1507,8 @@
     <t>Bộ phận: Công nghệ thông tin</t>
   </si>
   <si>
-    <t>Ngô Dương Hà</t>
+    <t>name</t>
+    <phoneticPr fontId="58"/>
   </si>
 </sst>
 </file>
@@ -1517,24 +1516,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="16">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(\ #,##0.00\ \);_(* &quot;-&quot;??_);_(\ @_ \)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="\$#,##0\ ;\(\$#,##0\)"/>
-    <numFmt numFmtId="170" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;&quot;\&quot;\-#,##0"/>
-    <numFmt numFmtId="171" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;\-#,##0.00"/>
-    <numFmt numFmtId="172" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;\-#,##0.00"/>
-    <numFmt numFmtId="173" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;\-#,##0"/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0.0_);_(* \(\ #,##0.0\ \);_(* &quot;-&quot;??_);_(\ @_ \)"/>
-    <numFmt numFmtId="175" formatCode="_(* #,##0_);_(* \(\ #,##0\ \);_(* &quot;-&quot;??_);_(\ @_ \)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.0\ _₫_-;\-* #,##0.0\ _₫_-;_-* &quot;-&quot;?\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(\ #,##0.00\ \);_(* &quot;-&quot;??_);_(\ @_ \)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="181" formatCode="\$#,##0\ ;\(\$#,##0\)"/>
+    <numFmt numFmtId="182" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;&quot;\&quot;\-#,##0"/>
+    <numFmt numFmtId="183" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;\-#,##0.00"/>
+    <numFmt numFmtId="184" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;\-#,##0.00"/>
+    <numFmt numFmtId="185" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;\-#,##0"/>
+    <numFmt numFmtId="186" formatCode="_(* #,##0.0_);_(* \(\ #,##0.0\ \);_(* &quot;-&quot;??_);_(\ @_ \)"/>
+    <numFmt numFmtId="187" formatCode="_(* #,##0_);_(* \(\ #,##0\ \);_(* &quot;-&quot;??_);_(\ @_ \)"/>
+    <numFmt numFmtId="188" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="189" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
+    <numFmt numFmtId="190" formatCode="_-* #,##0.0\ _₫_-;\-* #,##0.0\ _₫_-;_-* &quot;-&quot;?\ _₫_-;_-@_-"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="59">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
@@ -1888,6 +1887,12 @@
       <color theme="4"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="28">
@@ -2575,22 +2580,22 @@
     <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2631,10 +2636,10 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="327">
@@ -2683,7 +2688,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="33" fillId="24" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="33" fillId="24" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2698,7 +2703,7 @@
     <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="34" fillId="24" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="34" fillId="24" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2707,7 +2712,7 @@
     <xf numFmtId="0" fontId="34" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="34" fillId="25" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="34" fillId="25" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2740,7 +2745,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="94" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="45" fillId="0" borderId="0" xfId="94" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="45" fillId="0" borderId="0" xfId="94" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="94" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2755,7 +2760,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="94" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="45" fillId="0" borderId="0" xfId="94" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="45" fillId="0" borderId="0" xfId="94" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="94" applyFont="1" applyAlignment="1">
@@ -2821,7 +2826,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="24" borderId="18" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="45" fillId="24" borderId="18" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="45" fillId="24" borderId="18" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2833,7 +2838,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="88" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="24" borderId="20" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="45" fillId="24" borderId="20" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="24" borderId="21" xfId="88" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2866,7 +2871,7 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="47" fillId="0" borderId="0" xfId="57" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2875,7 +2880,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="48" fillId="0" borderId="24" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="48" fillId="0" borderId="24" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2887,16 +2892,16 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="47" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="47" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="45" fillId="0" borderId="12" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="45" fillId="0" borderId="12" xfId="57" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2917,7 +2922,7 @@
     <xf numFmtId="2" fontId="34" fillId="25" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="46" fillId="0" borderId="0" xfId="92" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="46" fillId="0" borderId="0" xfId="92" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="24" borderId="25" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2929,7 +2934,7 @@
     <xf numFmtId="0" fontId="46" fillId="24" borderId="27" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="45" fillId="0" borderId="0" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="45" fillId="0" borderId="0" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2938,7 +2943,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="34" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="34" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2947,7 +2952,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="24" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2956,7 +2961,7 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="49" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="49" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2968,7 +2973,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="24" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2980,13 +2985,13 @@
     <xf numFmtId="0" fontId="51" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="51" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="51" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="51" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="51" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2995,13 +3000,13 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="51" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="51" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="82" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="51" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="51" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3016,7 +3021,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="51" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="51" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3058,7 +3063,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="24" fillId="24" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="24" fillId="24" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3076,7 +3081,7 @@
     <xf numFmtId="0" fontId="51" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="52" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="52" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3091,7 +3096,7 @@
     <xf numFmtId="0" fontId="51" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="52" fillId="24" borderId="0" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3112,22 +3117,22 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="94" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="46" fillId="24" borderId="12" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="46" fillId="24" borderId="12" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="46" fillId="24" borderId="12" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="46" fillId="24" borderId="12" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="46" fillId="24" borderId="25" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="46" fillId="24" borderId="25" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="46" fillId="24" borderId="22" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="46" fillId="24" borderId="22" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="46" fillId="24" borderId="28" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="46" fillId="24" borderId="28" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="46" fillId="24" borderId="26" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="46" fillId="24" borderId="26" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="88" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3151,13 +3156,13 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="12" xfId="94" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="45" fillId="24" borderId="12" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="45" fillId="24" borderId="12" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="45" fillId="24" borderId="12" xfId="88" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="45" fillId="24" borderId="12" xfId="88" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="12" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3166,22 +3171,22 @@
     <xf numFmtId="0" fontId="46" fillId="24" borderId="12" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="45" fillId="24" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="45" fillId="24" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="45" fillId="24" borderId="12" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="45" fillId="24" borderId="12" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="45" fillId="24" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="45" fillId="24" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="33" fillId="24" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="33" fillId="24" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="33" fillId="24" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="33" fillId="24" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="45" fillId="24" borderId="12" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="45" fillId="24" borderId="12" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="94" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3190,7 +3195,7 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="45" fillId="24" borderId="12" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="45" fillId="24" borderId="12" xfId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="24" borderId="11" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3223,7 +3228,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="28" xfId="94" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="45" fillId="24" borderId="28" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="45" fillId="24" borderId="28" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="24" borderId="28" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3253,7 +3258,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="175" fontId="33" fillId="24" borderId="28" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="33" fillId="24" borderId="28" xfId="88" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="28" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3271,7 +3276,7 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="92" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="46" fillId="0" borderId="0" xfId="92" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="46" fillId="0" borderId="0" xfId="92" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3295,7 +3300,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="45" fillId="0" borderId="0" xfId="88" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="188" fontId="45" fillId="0" borderId="0" xfId="88" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
@@ -3331,280 +3336,280 @@
     <xf numFmtId="0" fontId="46" fillId="26" borderId="14" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="30" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="26" borderId="14" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="33" xfId="88" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="34" xfId="88" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="35" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="36" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="37" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="38" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="28" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="37" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="38" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="37" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="38" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="28" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="24" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="37" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="38" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="30" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="14" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="33" xfId="88" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="34" xfId="88" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="35" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="36" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="24" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="37" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="38" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="37" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="38" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="28" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="37" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="38" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="28" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="37" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="38" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="28" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="24" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="116">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3982,254 +3987,247 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="53061" name="Group 8">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0859C3C-8930-5FC9-4C43-ACBAEF5BF2E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8931A04-3763-E0F0-36BD-719D52899527}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="20500" y="33616"/>
           <a:ext cx="4495470" cy="571502"/>
-          <a:chOff x="262402" y="39628"/>
-          <a:chExt cx="3064842" cy="673702"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="TextBox 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8931A04-3763-E0F0-36BD-719D52899527}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="262402" y="39628"/>
-            <a:ext cx="3064842" cy="673702"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
           <a:solidFill>
             <a:srgbClr val="FFFFFF"/>
           </a:solidFill>
-          <a:ln w="9525">
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:miter lim="800000"/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:lnSpc>
-                <a:spcPts val="600"/>
-              </a:lnSpc>
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:latin typeface="Times New Roman"/>
+            <a:cs typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="600"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
               <a:cs typeface="Times New Roman"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:lnSpc>
-                <a:spcPts val="600"/>
-              </a:lnSpc>
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="vi-VN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>BỘ CÔNG THƯƠNG</a:t>
-            </a:r>
-            <a:endParaRPr lang="vi-VN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:lnSpc>
-                <a:spcPts val="900"/>
-              </a:lnSpc>
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="vi-VN" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>TRƯỜNG ĐẠI HỌC CÔNG NGHIỆP </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            </a:rPr>
+            <a:t>BỘ CÔNG THƯƠNG</a:t>
+          </a:r>
+          <a:endParaRPr lang="vi-VN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="900"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
               <a:cs typeface="Times New Roman"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="vi-VN" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>THỰC PHẨM T</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>HÀNH PHỐ HỒ CHÍ MINH</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="vi-VN" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            </a:rPr>
+            <a:t>TRƯỜNG ĐẠI HỌC CÔNG NGHIỆP </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+            <a:cs typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
               <a:cs typeface="Times New Roman"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:endParaRPr lang="vi-VN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            </a:rPr>
+            <a:t>THỰC PHẨM T</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="53064" name="Picture 7" descr="Logo_CNTP_100.jpg">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D092BAE2-76A2-F339-74CF-7DFEBF879253}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="313364" y="65943"/>
-            <a:ext cx="355425" cy="521893"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>HÀNH PHỐ HỒ CHÍ MINH</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="vi-VN" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+            <a:cs typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="vi-VN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>55939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11465</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53064" name="Picture 7" descr="Logo_CNTP_100.jpg">
           <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D092BAE2-76A2-F339-74CF-7DFEBF879253}"/>
             </a:ext>
           </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="95250" y="55939"/>
+          <a:ext cx="521333" cy="442722"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>788671</xdr:colOff>
+      <xdr:colOff>598171</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190098</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2106768</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44422</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4246,8 +4244,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5505451" y="0"/>
-          <a:ext cx="6315075" cy="390123"/>
+          <a:off x="5293436" y="56030"/>
+          <a:ext cx="4478156" cy="391804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7214,20 +7212,20 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="322"/>
-    <col min="2" max="2" width="12" style="322" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="322" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="322" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="322" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="322" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="322" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="322"/>
+    <col min="1" max="1" width="9.140625" style="233"/>
+    <col min="2" max="2" width="12" style="233" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="233" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="233" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="233" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="233" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="233" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="233"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
@@ -7255,24 +7253,24 @@
       <c r="F3" s="211"/>
     </row>
     <row r="4" spans="1:6" ht="18.75">
-      <c r="A4" s="233" t="s">
+      <c r="A4" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
     </row>
     <row r="5" spans="1:6" ht="18.75">
-      <c r="A5" s="233" t="s">
+      <c r="A5" s="237" t="s">
         <v>444</v>
       </c>
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1">
       <c r="A6" s="3" t="s">
@@ -7288,10 +7286,10 @@
       <c r="A7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="234" t="s">
+      <c r="B7" s="238" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="323"/>
+      <c r="C7" s="239"/>
       <c r="D7" s="232" t="s">
         <v>191</v>
       </c>
@@ -7361,12 +7359,12 @@
       <c r="A13" s="218"/>
       <c r="B13" s="219"/>
       <c r="C13" s="220"/>
-      <c r="D13" s="235" t="str">
+      <c r="D13" s="240" t="str">
         <f ca="1">"TP. Hồ Chí Minh, ngày "&amp;TEXT(DAY(TODAY()),"00")&amp;" tháng "&amp;TEXT(MONTH(TODAY()),"00")&amp;" năm "&amp;YEAR(TODAY())</f>
-        <v>TP. Hồ Chí Minh, ngày 30 tháng 05 năm 2022</v>
-      </c>
-      <c r="E13" s="235"/>
-      <c r="F13" s="235"/>
+        <v>TP. Hồ Chí Minh, ngày 31 tháng 05 năm 2022</v>
+      </c>
+      <c r="E13" s="240"/>
+      <c r="F13" s="240"/>
     </row>
     <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="218"/>
@@ -7379,16 +7377,16 @@
       <c r="F14" s="223"/>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="324"/>
+      <c r="C17" s="234"/>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="324"/>
+      <c r="C18" s="234"/>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="325"/>
+      <c r="C19" s="235"/>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="326"/>
+      <c r="C20" s="236"/>
     </row>
     <row r="22" spans="3:6" ht="15.75">
       <c r="F22" s="231" t="s">
@@ -7402,6 +7400,7 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D13:F13"/>
   </mergeCells>
+  <phoneticPr fontId="58"/>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7461,25 +7460,25 @@
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A4" s="233" t="s">
+      <c r="A4" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="233"/>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
       <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="233" t="s">
+      <c r="A5" s="237" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
       <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
@@ -7497,10 +7496,10 @@
       <c r="A7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="237" t="s">
+      <c r="B7" s="242" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="238"/>
+      <c r="C7" s="243"/>
       <c r="D7" s="44" t="s">
         <v>191</v>
       </c>
@@ -7523,7 +7522,7 @@
       <c r="E8" s="59"/>
       <c r="F8" s="188"/>
     </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" ht="31.5">
+    <row r="9" spans="1:7" s="9" customFormat="1" ht="15.75">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -8282,7 +8281,7 @@
       </c>
       <c r="F59" s="73"/>
     </row>
-    <row r="60" spans="1:6" s="9" customFormat="1" ht="126">
+    <row r="60" spans="1:6" s="9" customFormat="1" ht="110.25">
       <c r="A60" s="11">
         <v>11</v>
       </c>
@@ -8318,7 +8317,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="9" customFormat="1" ht="126">
+    <row r="62" spans="1:6" s="9" customFormat="1" ht="110.25">
       <c r="A62" s="11">
         <v>13</v>
       </c>
@@ -8734,7 +8733,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="10" customFormat="1" ht="47.25">
+    <row r="89" spans="1:6" s="10" customFormat="1" ht="31.5">
       <c r="A89" s="11">
         <v>11</v>
       </c>
@@ -9300,7 +9299,7 @@
       </c>
       <c r="F128" s="73"/>
     </row>
-    <row r="129" spans="1:6" s="10" customFormat="1" ht="47.25">
+    <row r="129" spans="1:6" s="10" customFormat="1" ht="31.5">
       <c r="A129" s="11">
         <v>2</v>
       </c>
@@ -9550,7 +9549,7 @@
       </c>
       <c r="F143" s="73"/>
     </row>
-    <row r="144" spans="1:6" s="10" customFormat="1" ht="47.25">
+    <row r="144" spans="1:6" s="10" customFormat="1" ht="31.5">
       <c r="A144" s="11">
         <v>17</v>
       </c>
@@ -9888,7 +9887,7 @@
       </c>
       <c r="F166" s="73"/>
     </row>
-    <row r="167" spans="1:6" s="10" customFormat="1" ht="126">
+    <row r="167" spans="1:6" s="10" customFormat="1" ht="110.25">
       <c r="A167" s="11">
         <v>7</v>
       </c>
@@ -11418,7 +11417,7 @@
       </c>
       <c r="F272" s="188"/>
     </row>
-    <row r="273" spans="1:7" s="10" customFormat="1" ht="47.25">
+    <row r="273" spans="1:7" s="10" customFormat="1" ht="31.5">
       <c r="A273" s="11">
         <v>3</v>
       </c>
@@ -11980,7 +11979,7 @@
       </c>
       <c r="F311" s="188"/>
     </row>
-    <row r="312" spans="1:7" s="10" customFormat="1" ht="47.25">
+    <row r="312" spans="1:7" s="10" customFormat="1" ht="31.5">
       <c r="A312" s="11">
         <v>10</v>
       </c>
@@ -13129,7 +13128,7 @@
       </c>
       <c r="F388" s="188"/>
     </row>
-    <row r="389" spans="1:7" s="10" customFormat="1" ht="47.25">
+    <row r="389" spans="1:7" s="10" customFormat="1" ht="31.5">
       <c r="A389" s="11">
         <v>8</v>
       </c>
@@ -13496,7 +13495,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="413" spans="1:7" s="10" customFormat="1" ht="47.25">
+    <row r="413" spans="1:7" s="10" customFormat="1" ht="31.5">
       <c r="A413" s="11">
         <v>11</v>
       </c>
@@ -14112,7 +14111,7 @@
       </c>
       <c r="F454" s="188"/>
     </row>
-    <row r="455" spans="1:7" s="10" customFormat="1" ht="47.25">
+    <row r="455" spans="1:7" s="10" customFormat="1" ht="31.5">
       <c r="A455" s="11">
         <v>8</v>
       </c>
@@ -14493,7 +14492,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="480" spans="1:6" s="10" customFormat="1" ht="47.25">
+    <row r="480" spans="1:6" s="10" customFormat="1" ht="31.5">
       <c r="A480" s="11">
         <v>11</v>
       </c>
@@ -15762,11 +15761,11 @@
       <c r="F567" s="65"/>
     </row>
     <row r="568" spans="1:6" s="10" customFormat="1" ht="20.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A568" s="239">
+      <c r="A568" s="244">
         <v>2</v>
       </c>
       <c r="B568" s="46"/>
-      <c r="C568" s="241" t="s">
+      <c r="C568" s="246" t="s">
         <v>234</v>
       </c>
       <c r="D568" s="98" t="s">
@@ -15776,9 +15775,9 @@
       <c r="F568" s="67"/>
     </row>
     <row r="569" spans="1:6" s="10" customFormat="1" ht="20.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A569" s="239"/>
+      <c r="A569" s="244"/>
       <c r="B569" s="46"/>
-      <c r="C569" s="241"/>
+      <c r="C569" s="246"/>
       <c r="D569" s="96" t="s">
         <v>4</v>
       </c>
@@ -15786,9 +15785,9 @@
       <c r="F569" s="64"/>
     </row>
     <row r="570" spans="1:6" s="15" customFormat="1" ht="20.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A570" s="239"/>
+      <c r="A570" s="244"/>
       <c r="B570" s="47"/>
-      <c r="C570" s="241"/>
+      <c r="C570" s="246"/>
       <c r="D570" s="96" t="s">
         <v>232</v>
       </c>
@@ -15796,9 +15795,9 @@
       <c r="F570" s="64"/>
     </row>
     <row r="571" spans="1:6" s="15" customFormat="1" ht="35.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A571" s="240"/>
+      <c r="A571" s="245"/>
       <c r="B571" s="48"/>
-      <c r="C571" s="242"/>
+      <c r="C571" s="247"/>
       <c r="D571" s="97" t="s">
         <v>233</v>
       </c>
@@ -15809,12 +15808,12 @@
       <c r="A572" s="49"/>
       <c r="B572" s="50"/>
       <c r="C572" s="51"/>
-      <c r="D572" s="236" t="str">
+      <c r="D572" s="241" t="str">
         <f ca="1">"TP. Hồ Chí Minh, ngày "&amp;TEXT(DAY(TODAY()),"00")&amp;" tháng "&amp;TEXT(MONTH(TODAY()),"00")&amp;" năm "&amp;YEAR(TODAY())</f>
-        <v>TP. Hồ Chí Minh, ngày 30 tháng 05 năm 2022</v>
-      </c>
-      <c r="E572" s="236"/>
-      <c r="F572" s="236"/>
+        <v>TP. Hồ Chí Minh, ngày 31 tháng 05 năm 2022</v>
+      </c>
+      <c r="E572" s="241"/>
+      <c r="F572" s="241"/>
     </row>
     <row r="573" spans="1:6" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A573" s="3" t="s">
@@ -23086,6 +23085,7 @@
     <mergeCell ref="A568:A571"/>
     <mergeCell ref="C568:C571"/>
   </mergeCells>
+  <phoneticPr fontId="58"/>
   <conditionalFormatting sqref="C359">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
@@ -23144,11 +23144,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="243" t="s">
+      <c r="A1" s="309" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -23156,30 +23156,30 @@
       <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="42" customHeight="1">
-      <c r="A2" s="244" t="s">
+      <c r="A2" s="310" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="244"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
+      <c r="B2" s="310"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="310"/>
+      <c r="G2" s="310"/>
+      <c r="H2" s="310"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="14.25">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="311" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="245"/>
-      <c r="E3" s="245"/>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
+      <c r="B3" s="311"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="311"/>
+      <c r="G3" s="311"/>
+      <c r="H3" s="311"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="19"/>
@@ -23191,7 +23191,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:10" ht="47.25">
+    <row r="5" spans="1:10" ht="31.5">
       <c r="A5" s="93" t="s">
         <v>116</v>
       </c>
@@ -23218,23 +23218,23 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A6" s="248">
+      <c r="A6" s="314">
         <v>1</v>
       </c>
-      <c r="B6" s="252" t="s">
+      <c r="B6" s="318" t="s">
         <v>107</v>
       </c>
       <c r="C6" s="101"/>
       <c r="D6" s="102"/>
-      <c r="E6" s="254">
+      <c r="E6" s="320">
         <f>D7</f>
         <v>29</v>
       </c>
-      <c r="F6" s="256">
+      <c r="F6" s="322">
         <f>587/12*9.5</f>
         <v>464.70833333333331</v>
       </c>
-      <c r="G6" s="254">
+      <c r="G6" s="320">
         <f>E6-F6</f>
         <v>-435.70833333333331</v>
       </c>
@@ -23243,26 +23243,26 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A7" s="249"/>
-      <c r="B7" s="253"/>
+      <c r="A7" s="315"/>
+      <c r="B7" s="319"/>
       <c r="C7" s="104" t="s">
         <v>388</v>
       </c>
       <c r="D7" s="105">
         <v>29</v>
       </c>
-      <c r="E7" s="255"/>
-      <c r="F7" s="257"/>
-      <c r="G7" s="255"/>
+      <c r="E7" s="321"/>
+      <c r="F7" s="323"/>
+      <c r="G7" s="321"/>
       <c r="H7" s="106" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A8" s="246">
+      <c r="A8" s="312">
         <v>2</v>
       </c>
-      <c r="B8" s="247" t="s">
+      <c r="B8" s="313" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="107" t="s">
@@ -23271,56 +23271,56 @@
       <c r="D8" s="108">
         <v>569.98</v>
       </c>
-      <c r="E8" s="250">
+      <c r="E8" s="316">
         <f>D8+D9+D10</f>
         <v>1098.28</v>
       </c>
-      <c r="F8" s="251">
+      <c r="F8" s="317">
         <v>587</v>
       </c>
-      <c r="G8" s="250">
+      <c r="G8" s="316">
         <f>E8-F8</f>
         <v>511.28</v>
       </c>
       <c r="H8" s="103"/>
     </row>
     <row r="9" spans="1:10" ht="110.25" customHeight="1">
-      <c r="A9" s="246"/>
-      <c r="B9" s="247"/>
+      <c r="A9" s="312"/>
+      <c r="B9" s="313"/>
       <c r="C9" s="107" t="s">
         <v>124</v>
       </c>
       <c r="D9" s="108">
         <v>469.3</v>
       </c>
-      <c r="E9" s="250"/>
-      <c r="F9" s="251"/>
-      <c r="G9" s="250"/>
+      <c r="E9" s="316"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="316"/>
       <c r="H9" s="103" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A10" s="246"/>
-      <c r="B10" s="247"/>
+      <c r="A10" s="312"/>
+      <c r="B10" s="313"/>
       <c r="C10" s="109" t="s">
         <v>125</v>
       </c>
       <c r="D10" s="108">
         <v>59</v>
       </c>
-      <c r="E10" s="250"/>
-      <c r="F10" s="251"/>
-      <c r="G10" s="250"/>
+      <c r="E10" s="316"/>
+      <c r="F10" s="317"/>
+      <c r="G10" s="316"/>
       <c r="H10" s="103" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A11" s="308">
+      <c r="A11" s="257">
         <v>3</v>
       </c>
-      <c r="B11" s="277" t="s">
+      <c r="B11" s="272" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="104" t="s">
@@ -23329,104 +23329,104 @@
       <c r="D11" s="105">
         <v>977.5</v>
       </c>
-      <c r="E11" s="278">
+      <c r="E11" s="303">
         <f>D11+D12+D13+D14+D15+D16</f>
         <v>1170.2</v>
       </c>
-      <c r="F11" s="279">
+      <c r="F11" s="304">
         <v>587</v>
       </c>
-      <c r="G11" s="279">
+      <c r="G11" s="304">
         <f>E11-F11</f>
         <v>583.20000000000005</v>
       </c>
       <c r="H11" s="111"/>
     </row>
     <row r="12" spans="1:10" ht="76.5">
-      <c r="A12" s="308"/>
-      <c r="B12" s="277"/>
+      <c r="A12" s="257"/>
+      <c r="B12" s="272"/>
       <c r="C12" s="104" t="s">
         <v>391</v>
       </c>
       <c r="D12" s="105">
         <v>32.700000000000003</v>
       </c>
-      <c r="E12" s="278"/>
-      <c r="F12" s="279"/>
-      <c r="G12" s="279"/>
+      <c r="E12" s="303"/>
+      <c r="F12" s="304"/>
+      <c r="G12" s="304"/>
       <c r="H12" s="111" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="76.5">
-      <c r="A13" s="308"/>
-      <c r="B13" s="277"/>
+      <c r="A13" s="257"/>
+      <c r="B13" s="272"/>
       <c r="C13" s="104" t="s">
         <v>392</v>
       </c>
       <c r="D13" s="105">
         <v>32.700000000000003</v>
       </c>
-      <c r="E13" s="278"/>
-      <c r="F13" s="279"/>
-      <c r="G13" s="279"/>
+      <c r="E13" s="303"/>
+      <c r="F13" s="304"/>
+      <c r="G13" s="304"/>
       <c r="H13" s="111" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A14" s="308"/>
-      <c r="B14" s="277"/>
+      <c r="A14" s="257"/>
+      <c r="B14" s="272"/>
       <c r="C14" s="104" t="s">
         <v>290</v>
       </c>
       <c r="D14" s="105">
         <v>59</v>
       </c>
-      <c r="E14" s="278"/>
-      <c r="F14" s="279"/>
-      <c r="G14" s="279"/>
+      <c r="E14" s="303"/>
+      <c r="F14" s="304"/>
+      <c r="G14" s="304"/>
       <c r="H14" s="111" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5">
-      <c r="A15" s="308"/>
-      <c r="B15" s="277"/>
+      <c r="A15" s="257"/>
+      <c r="B15" s="272"/>
       <c r="C15" s="104" t="s">
         <v>388</v>
       </c>
       <c r="D15" s="105">
         <v>29</v>
       </c>
-      <c r="E15" s="278"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="279"/>
+      <c r="E15" s="303"/>
+      <c r="F15" s="304"/>
+      <c r="G15" s="304"/>
       <c r="H15" s="111" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="63.75">
-      <c r="A16" s="308"/>
-      <c r="B16" s="277"/>
+      <c r="A16" s="257"/>
+      <c r="B16" s="272"/>
       <c r="C16" s="104" t="s">
         <v>394</v>
       </c>
       <c r="D16" s="105">
         <v>39.299999999999997</v>
       </c>
-      <c r="E16" s="278"/>
-      <c r="F16" s="279"/>
-      <c r="G16" s="279"/>
+      <c r="E16" s="303"/>
+      <c r="F16" s="304"/>
+      <c r="G16" s="304"/>
       <c r="H16" s="111" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A17" s="308">
+      <c r="A17" s="257">
         <v>4</v>
       </c>
-      <c r="B17" s="277" t="s">
+      <c r="B17" s="272" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="104" t="s">
@@ -23435,14 +23435,14 @@
       <c r="D17" s="112">
         <v>841</v>
       </c>
-      <c r="E17" s="280">
+      <c r="E17" s="271">
         <f>D17+D18+D19</f>
         <v>1591.9</v>
       </c>
-      <c r="F17" s="281">
+      <c r="F17" s="305">
         <v>0</v>
       </c>
-      <c r="G17" s="282">
+      <c r="G17" s="306">
         <f>E17-F17</f>
         <v>1591.9</v>
       </c>
@@ -23451,42 +23451,42 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="76.5">
-      <c r="A18" s="308"/>
-      <c r="B18" s="277"/>
+      <c r="A18" s="257"/>
+      <c r="B18" s="272"/>
       <c r="C18" s="104" t="s">
         <v>127</v>
       </c>
       <c r="D18" s="112">
         <v>469.3</v>
       </c>
-      <c r="E18" s="280"/>
-      <c r="F18" s="281"/>
-      <c r="G18" s="282"/>
+      <c r="E18" s="271"/>
+      <c r="F18" s="305"/>
+      <c r="G18" s="306"/>
       <c r="H18" s="111" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="51">
-      <c r="A19" s="308"/>
-      <c r="B19" s="277"/>
+      <c r="A19" s="257"/>
+      <c r="B19" s="272"/>
       <c r="C19" s="104" t="s">
         <v>128</v>
       </c>
       <c r="D19" s="112">
         <v>281.60000000000002</v>
       </c>
-      <c r="E19" s="280"/>
-      <c r="F19" s="281"/>
-      <c r="G19" s="282"/>
+      <c r="E19" s="271"/>
+      <c r="F19" s="305"/>
+      <c r="G19" s="306"/>
       <c r="H19" s="111" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A20" s="308">
+      <c r="A20" s="257">
         <v>5</v>
       </c>
-      <c r="B20" s="277" t="s">
+      <c r="B20" s="272" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="104" t="s">
@@ -23495,104 +23495,104 @@
       <c r="D20" s="112">
         <v>9.65</v>
       </c>
-      <c r="E20" s="280">
+      <c r="E20" s="271">
         <f>D20+D21+D22+D23+D24+D25</f>
         <v>1021.75</v>
       </c>
-      <c r="F20" s="283">
+      <c r="F20" s="307">
         <v>587</v>
       </c>
-      <c r="G20" s="280">
+      <c r="G20" s="271">
         <f>E20-F20</f>
         <v>434.75</v>
       </c>
       <c r="H20" s="111"/>
     </row>
     <row r="21" spans="1:8" ht="76.5">
-      <c r="A21" s="308"/>
-      <c r="B21" s="277"/>
+      <c r="A21" s="257"/>
+      <c r="B21" s="272"/>
       <c r="C21" s="104" t="s">
         <v>392</v>
       </c>
       <c r="D21" s="112">
         <v>13.1</v>
       </c>
-      <c r="E21" s="280"/>
-      <c r="F21" s="283"/>
-      <c r="G21" s="280"/>
+      <c r="E21" s="271"/>
+      <c r="F21" s="307"/>
+      <c r="G21" s="271"/>
       <c r="H21" s="111" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="51">
-      <c r="A22" s="308"/>
-      <c r="B22" s="277"/>
+      <c r="A22" s="257"/>
+      <c r="B22" s="272"/>
       <c r="C22" s="104" t="s">
         <v>395</v>
       </c>
       <c r="D22" s="112">
         <v>59</v>
       </c>
-      <c r="E22" s="280"/>
-      <c r="F22" s="283"/>
-      <c r="G22" s="280"/>
+      <c r="E22" s="271"/>
+      <c r="F22" s="307"/>
+      <c r="G22" s="271"/>
       <c r="H22" s="111" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="38.25">
-      <c r="A23" s="308"/>
-      <c r="B23" s="277"/>
+      <c r="A23" s="257"/>
+      <c r="B23" s="272"/>
       <c r="C23" s="104" t="s">
         <v>397</v>
       </c>
       <c r="D23" s="112">
         <v>59</v>
       </c>
-      <c r="E23" s="280"/>
-      <c r="F23" s="283"/>
-      <c r="G23" s="280"/>
+      <c r="E23" s="271"/>
+      <c r="F23" s="307"/>
+      <c r="G23" s="271"/>
       <c r="H23" s="111" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="69.75" customHeight="1">
-      <c r="A24" s="308"/>
-      <c r="B24" s="277"/>
+      <c r="A24" s="257"/>
+      <c r="B24" s="272"/>
       <c r="C24" s="104" t="s">
         <v>399</v>
       </c>
       <c r="D24" s="112">
         <v>822</v>
       </c>
-      <c r="E24" s="280"/>
-      <c r="F24" s="283"/>
-      <c r="G24" s="280"/>
+      <c r="E24" s="271"/>
+      <c r="F24" s="307"/>
+      <c r="G24" s="271"/>
       <c r="H24" s="111" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="76.5" customHeight="1">
-      <c r="A25" s="308"/>
-      <c r="B25" s="277"/>
+      <c r="A25" s="257"/>
+      <c r="B25" s="272"/>
       <c r="C25" s="104" t="s">
         <v>310</v>
       </c>
       <c r="D25" s="112">
         <v>59</v>
       </c>
-      <c r="E25" s="280"/>
-      <c r="F25" s="283"/>
-      <c r="G25" s="280"/>
+      <c r="E25" s="271"/>
+      <c r="F25" s="307"/>
+      <c r="G25" s="271"/>
       <c r="H25" s="111" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A26" s="308">
+      <c r="A26" s="257">
         <v>6</v>
       </c>
-      <c r="B26" s="284" t="s">
+      <c r="B26" s="308" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="115" t="s">
@@ -23601,95 +23601,95 @@
       <c r="D26" s="116">
         <v>31</v>
       </c>
-      <c r="E26" s="264">
+      <c r="E26" s="256">
         <f>SUM(D26:D31)</f>
         <v>1015.9</v>
       </c>
-      <c r="F26" s="285">
+      <c r="F26" s="264">
         <v>587</v>
       </c>
-      <c r="G26" s="264">
+      <c r="G26" s="256">
         <f>E26-F26</f>
         <v>428.9</v>
       </c>
       <c r="H26" s="117"/>
     </row>
     <row r="27" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A27" s="308"/>
-      <c r="B27" s="284"/>
+      <c r="A27" s="257"/>
+      <c r="B27" s="308"/>
       <c r="C27" s="104" t="s">
         <v>170</v>
       </c>
       <c r="D27" s="118">
         <v>78</v>
       </c>
-      <c r="E27" s="264"/>
-      <c r="F27" s="285"/>
-      <c r="G27" s="264"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="264"/>
+      <c r="G27" s="256"/>
       <c r="H27" s="119" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25.5">
-      <c r="A28" s="308"/>
-      <c r="B28" s="284"/>
+      <c r="A28" s="257"/>
+      <c r="B28" s="308"/>
       <c r="C28" s="120" t="s">
         <v>131</v>
       </c>
       <c r="D28" s="121">
         <v>58.7</v>
       </c>
-      <c r="E28" s="264"/>
-      <c r="F28" s="285"/>
-      <c r="G28" s="264"/>
+      <c r="E28" s="256"/>
+      <c r="F28" s="264"/>
+      <c r="G28" s="256"/>
       <c r="H28" s="119" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="110.25" customHeight="1">
-      <c r="A29" s="308"/>
-      <c r="B29" s="284"/>
+      <c r="A29" s="257"/>
+      <c r="B29" s="308"/>
       <c r="C29" s="122" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="123">
         <v>104.8</v>
       </c>
-      <c r="E29" s="264"/>
-      <c r="F29" s="285"/>
-      <c r="G29" s="264"/>
+      <c r="E29" s="256"/>
+      <c r="F29" s="264"/>
+      <c r="G29" s="256"/>
       <c r="H29" s="124" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A30" s="308"/>
-      <c r="B30" s="284"/>
+      <c r="A30" s="257"/>
+      <c r="B30" s="308"/>
       <c r="C30" s="122" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="123">
         <v>234.7</v>
       </c>
-      <c r="E30" s="264"/>
-      <c r="F30" s="285"/>
-      <c r="G30" s="264"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="264"/>
+      <c r="G30" s="256"/>
       <c r="H30" s="115" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A31" s="308"/>
-      <c r="B31" s="284"/>
+      <c r="A31" s="257"/>
+      <c r="B31" s="308"/>
       <c r="C31" s="115" t="s">
         <v>133</v>
       </c>
       <c r="D31" s="123">
         <v>508.7</v>
       </c>
-      <c r="E31" s="264"/>
-      <c r="F31" s="285"/>
-      <c r="G31" s="264"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="264"/>
+      <c r="G31" s="256"/>
       <c r="H31" s="125" t="s">
         <v>134</v>
       </c>
@@ -23719,10 +23719,10 @@
       <c r="H32" s="111"/>
     </row>
     <row r="33" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A33" s="309">
+      <c r="A33" s="250">
         <v>8</v>
       </c>
-      <c r="B33" s="265" t="s">
+      <c r="B33" s="258" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="126" t="s">
@@ -23731,14 +23731,14 @@
       <c r="D33" s="118">
         <v>352</v>
       </c>
-      <c r="E33" s="258">
+      <c r="E33" s="261">
         <f>SUM(D33:D35)</f>
         <v>834.40000000000009</v>
       </c>
-      <c r="F33" s="261">
+      <c r="F33" s="275">
         <v>587</v>
       </c>
-      <c r="G33" s="258">
+      <c r="G33" s="261">
         <f>E33-F33</f>
         <v>247.40000000000009</v>
       </c>
@@ -23747,40 +23747,40 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A34" s="310"/>
-      <c r="B34" s="266"/>
+      <c r="A34" s="251"/>
+      <c r="B34" s="259"/>
       <c r="C34" s="104" t="s">
         <v>376</v>
       </c>
       <c r="D34" s="121">
         <v>13.1</v>
       </c>
-      <c r="E34" s="259"/>
-      <c r="F34" s="262"/>
-      <c r="G34" s="259"/>
+      <c r="E34" s="262"/>
+      <c r="F34" s="276"/>
+      <c r="G34" s="262"/>
       <c r="H34" s="117"/>
     </row>
     <row r="35" spans="1:8" ht="38.25">
-      <c r="A35" s="311"/>
-      <c r="B35" s="267"/>
+      <c r="A35" s="252"/>
+      <c r="B35" s="260"/>
       <c r="C35" s="104" t="s">
         <v>402</v>
       </c>
       <c r="D35" s="121">
         <v>469.3</v>
       </c>
-      <c r="E35" s="260"/>
-      <c r="F35" s="263"/>
-      <c r="G35" s="260"/>
+      <c r="E35" s="263"/>
+      <c r="F35" s="277"/>
+      <c r="G35" s="263"/>
       <c r="H35" s="115" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A36" s="309">
+      <c r="A36" s="250">
         <v>9</v>
       </c>
-      <c r="B36" s="265" t="s">
+      <c r="B36" s="258" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="104" t="s">
@@ -23789,14 +23789,14 @@
       <c r="D36" s="112">
         <v>19.7</v>
       </c>
-      <c r="E36" s="268">
+      <c r="E36" s="267">
         <f>SUM(D36:D42)</f>
         <v>415.4</v>
       </c>
-      <c r="F36" s="271">
+      <c r="F36" s="297">
         <v>587</v>
       </c>
-      <c r="G36" s="274">
+      <c r="G36" s="300">
         <f>E36-F36</f>
         <v>-171.60000000000002</v>
       </c>
@@ -23805,104 +23805,104 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A37" s="310"/>
-      <c r="B37" s="266"/>
+      <c r="A37" s="251"/>
+      <c r="B37" s="259"/>
       <c r="C37" s="104" t="s">
         <v>298</v>
       </c>
       <c r="D37" s="112">
         <v>59</v>
       </c>
-      <c r="E37" s="269"/>
-      <c r="F37" s="272"/>
-      <c r="G37" s="275"/>
+      <c r="E37" s="268"/>
+      <c r="F37" s="298"/>
+      <c r="G37" s="301"/>
       <c r="H37" s="111" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A38" s="310"/>
-      <c r="B38" s="266"/>
+      <c r="A38" s="251"/>
+      <c r="B38" s="259"/>
       <c r="C38" s="104" t="s">
         <v>300</v>
       </c>
       <c r="D38" s="112">
         <v>59</v>
       </c>
-      <c r="E38" s="269"/>
-      <c r="F38" s="272"/>
-      <c r="G38" s="275"/>
+      <c r="E38" s="268"/>
+      <c r="F38" s="298"/>
+      <c r="G38" s="301"/>
       <c r="H38" s="111" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="63.75">
-      <c r="A39" s="310"/>
-      <c r="B39" s="266"/>
+      <c r="A39" s="251"/>
+      <c r="B39" s="259"/>
       <c r="C39" s="104" t="s">
         <v>136</v>
       </c>
       <c r="D39" s="112">
         <v>23.5</v>
       </c>
-      <c r="E39" s="269"/>
-      <c r="F39" s="272"/>
-      <c r="G39" s="275"/>
+      <c r="E39" s="268"/>
+      <c r="F39" s="298"/>
+      <c r="G39" s="301"/>
       <c r="H39" s="111" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="63.75">
-      <c r="A40" s="310"/>
-      <c r="B40" s="266"/>
+      <c r="A40" s="251"/>
+      <c r="B40" s="259"/>
       <c r="C40" s="104" t="s">
         <v>137</v>
       </c>
       <c r="D40" s="112">
         <v>39.1</v>
       </c>
-      <c r="E40" s="269"/>
-      <c r="F40" s="272"/>
-      <c r="G40" s="275"/>
+      <c r="E40" s="268"/>
+      <c r="F40" s="298"/>
+      <c r="G40" s="301"/>
       <c r="H40" s="111" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A41" s="310"/>
-      <c r="B41" s="266"/>
+      <c r="A41" s="251"/>
+      <c r="B41" s="259"/>
       <c r="C41" s="104" t="s">
         <v>138</v>
       </c>
       <c r="D41" s="112">
         <v>58.7</v>
       </c>
-      <c r="E41" s="269"/>
-      <c r="F41" s="272"/>
-      <c r="G41" s="275"/>
+      <c r="E41" s="268"/>
+      <c r="F41" s="298"/>
+      <c r="G41" s="301"/>
       <c r="H41" s="111" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A42" s="311"/>
-      <c r="B42" s="267"/>
+      <c r="A42" s="252"/>
+      <c r="B42" s="260"/>
       <c r="C42" s="107" t="s">
         <v>404</v>
       </c>
       <c r="D42" s="112">
         <v>156.4</v>
       </c>
-      <c r="E42" s="270"/>
-      <c r="F42" s="273"/>
-      <c r="G42" s="276"/>
+      <c r="E42" s="296"/>
+      <c r="F42" s="299"/>
+      <c r="G42" s="302"/>
       <c r="H42" s="111"/>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A43" s="317">
+      <c r="A43" s="249">
         <v>10</v>
       </c>
-      <c r="B43" s="277" t="s">
+      <c r="B43" s="272" t="s">
         <v>258</v>
       </c>
       <c r="C43" s="104" t="s">
@@ -23911,88 +23911,88 @@
       <c r="D43" s="112">
         <v>109.5</v>
       </c>
-      <c r="E43" s="280">
+      <c r="E43" s="271">
         <f>D43+D44+D45+D46+D47</f>
         <v>650.90000000000009</v>
       </c>
-      <c r="F43" s="286">
+      <c r="F43" s="278">
         <v>587</v>
       </c>
-      <c r="G43" s="287">
+      <c r="G43" s="279">
         <f>E43-F43</f>
         <v>63.900000000000091</v>
       </c>
       <c r="H43" s="111"/>
     </row>
-    <row r="44" spans="1:8" ht="76.5">
-      <c r="A44" s="317"/>
-      <c r="B44" s="277"/>
+    <row r="44" spans="1:8" ht="63.75">
+      <c r="A44" s="249"/>
+      <c r="B44" s="272"/>
       <c r="C44" s="104" t="s">
         <v>139</v>
       </c>
       <c r="D44" s="112">
         <v>117.3</v>
       </c>
-      <c r="E44" s="280"/>
-      <c r="F44" s="286"/>
-      <c r="G44" s="288"/>
+      <c r="E44" s="271"/>
+      <c r="F44" s="278"/>
+      <c r="G44" s="280"/>
       <c r="H44" s="111" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="76.5">
-      <c r="A45" s="317"/>
-      <c r="B45" s="277"/>
+    <row r="45" spans="1:8" ht="63.75">
+      <c r="A45" s="249"/>
+      <c r="B45" s="272"/>
       <c r="C45" s="104" t="s">
         <v>140</v>
       </c>
       <c r="D45" s="112">
         <v>117.3</v>
       </c>
-      <c r="E45" s="280"/>
-      <c r="F45" s="286"/>
-      <c r="G45" s="288"/>
+      <c r="E45" s="271"/>
+      <c r="F45" s="278"/>
+      <c r="G45" s="280"/>
       <c r="H45" s="111" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A46" s="317"/>
-      <c r="B46" s="277"/>
+      <c r="A46" s="249"/>
+      <c r="B46" s="272"/>
       <c r="C46" s="104" t="s">
         <v>376</v>
       </c>
       <c r="D46" s="112">
         <v>32.799999999999997</v>
       </c>
-      <c r="E46" s="280"/>
-      <c r="F46" s="286"/>
-      <c r="G46" s="288"/>
+      <c r="E46" s="271"/>
+      <c r="F46" s="278"/>
+      <c r="G46" s="280"/>
       <c r="H46" s="111" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A47" s="317"/>
-      <c r="B47" s="277"/>
+      <c r="A47" s="249"/>
+      <c r="B47" s="272"/>
       <c r="C47" s="127" t="s">
         <v>405</v>
       </c>
       <c r="D47" s="112">
         <v>274</v>
       </c>
-      <c r="E47" s="280"/>
-      <c r="F47" s="286"/>
-      <c r="G47" s="288"/>
+      <c r="E47" s="271"/>
+      <c r="F47" s="278"/>
+      <c r="G47" s="280"/>
       <c r="H47" s="111" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A48" s="309">
+      <c r="A48" s="250">
         <v>11</v>
       </c>
-      <c r="B48" s="265" t="s">
+      <c r="B48" s="258" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="120" t="s">
@@ -24001,14 +24001,14 @@
       <c r="D48" s="128">
         <v>59</v>
       </c>
-      <c r="E48" s="261">
+      <c r="E48" s="275">
         <f>SUM(D48:D51)</f>
         <v>881</v>
       </c>
-      <c r="F48" s="289">
+      <c r="F48" s="281">
         <v>587</v>
       </c>
-      <c r="G48" s="289">
+      <c r="G48" s="281">
         <f>E48-F48</f>
         <v>294</v>
       </c>
@@ -24017,58 +24017,58 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="51">
-      <c r="A49" s="310"/>
-      <c r="B49" s="266"/>
+      <c r="A49" s="251"/>
+      <c r="B49" s="259"/>
       <c r="C49" s="120" t="s">
         <v>408</v>
       </c>
       <c r="D49" s="128">
         <v>59</v>
       </c>
-      <c r="E49" s="262"/>
-      <c r="F49" s="290"/>
-      <c r="G49" s="290"/>
+      <c r="E49" s="276"/>
+      <c r="F49" s="282"/>
+      <c r="G49" s="282"/>
       <c r="H49" s="129" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A50" s="310"/>
-      <c r="B50" s="266"/>
+      <c r="A50" s="251"/>
+      <c r="B50" s="259"/>
       <c r="C50" s="120" t="s">
         <v>410</v>
       </c>
       <c r="D50" s="128">
         <v>59</v>
       </c>
-      <c r="E50" s="262"/>
-      <c r="F50" s="290"/>
-      <c r="G50" s="290"/>
+      <c r="E50" s="276"/>
+      <c r="F50" s="282"/>
+      <c r="G50" s="282"/>
       <c r="H50" s="129" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A51" s="311"/>
-      <c r="B51" s="267"/>
+      <c r="A51" s="252"/>
+      <c r="B51" s="260"/>
       <c r="C51" s="120" t="s">
         <v>412</v>
       </c>
       <c r="D51" s="128">
         <v>704</v>
       </c>
-      <c r="E51" s="263"/>
-      <c r="F51" s="291"/>
-      <c r="G51" s="291"/>
+      <c r="E51" s="277"/>
+      <c r="F51" s="283"/>
+      <c r="G51" s="283"/>
       <c r="H51" s="129" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A52" s="317">
+      <c r="A52" s="249">
         <v>12</v>
       </c>
-      <c r="B52" s="304" t="s">
+      <c r="B52" s="253" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="130" t="s">
@@ -24077,153 +24077,153 @@
       <c r="D52" s="118">
         <v>248.5</v>
       </c>
-      <c r="E52" s="264">
+      <c r="E52" s="256">
         <f>SUM(D52:D60)</f>
         <v>1463.5</v>
       </c>
-      <c r="F52" s="264">
+      <c r="F52" s="256">
         <f>587</f>
         <v>587</v>
       </c>
-      <c r="G52" s="264">
+      <c r="G52" s="256">
         <f>E52-F52</f>
         <v>876.5</v>
       </c>
       <c r="H52" s="119"/>
     </row>
     <row r="53" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A53" s="317"/>
-      <c r="B53" s="304"/>
+      <c r="A53" s="249"/>
+      <c r="B53" s="253"/>
       <c r="C53" s="131" t="s">
         <v>141</v>
       </c>
       <c r="D53" s="118">
         <v>59</v>
       </c>
-      <c r="E53" s="264"/>
-      <c r="F53" s="264"/>
-      <c r="G53" s="264"/>
+      <c r="E53" s="256"/>
+      <c r="F53" s="256"/>
+      <c r="G53" s="256"/>
       <c r="H53" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A54" s="317"/>
-      <c r="B54" s="304"/>
+      <c r="A54" s="249"/>
+      <c r="B54" s="253"/>
       <c r="C54" s="131" t="s">
         <v>143</v>
       </c>
       <c r="D54" s="118">
         <v>59</v>
       </c>
-      <c r="E54" s="264"/>
-      <c r="F54" s="264"/>
-      <c r="G54" s="264"/>
+      <c r="E54" s="256"/>
+      <c r="F54" s="256"/>
+      <c r="G54" s="256"/>
       <c r="H54" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A55" s="317"/>
-      <c r="B55" s="304"/>
+      <c r="A55" s="249"/>
+      <c r="B55" s="253"/>
       <c r="C55" s="131" t="s">
         <v>144</v>
       </c>
       <c r="D55" s="118">
         <v>59</v>
       </c>
-      <c r="E55" s="264"/>
-      <c r="F55" s="264"/>
-      <c r="G55" s="264"/>
+      <c r="E55" s="256"/>
+      <c r="F55" s="256"/>
+      <c r="G55" s="256"/>
       <c r="H55" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A56" s="317"/>
-      <c r="B56" s="304"/>
+      <c r="A56" s="249"/>
+      <c r="B56" s="253"/>
       <c r="C56" s="131" t="s">
         <v>145</v>
       </c>
       <c r="D56" s="118">
         <v>29</v>
       </c>
-      <c r="E56" s="264"/>
-      <c r="F56" s="264"/>
-      <c r="G56" s="264"/>
+      <c r="E56" s="256"/>
+      <c r="F56" s="256"/>
+      <c r="G56" s="256"/>
       <c r="H56" s="119" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A57" s="317"/>
-      <c r="B57" s="304"/>
+      <c r="A57" s="249"/>
+      <c r="B57" s="253"/>
       <c r="C57" s="131" t="s">
         <v>146</v>
       </c>
       <c r="D57" s="118">
         <v>94</v>
       </c>
-      <c r="E57" s="264"/>
-      <c r="F57" s="264"/>
-      <c r="G57" s="264"/>
+      <c r="E57" s="256"/>
+      <c r="F57" s="256"/>
+      <c r="G57" s="256"/>
       <c r="H57" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A58" s="317"/>
-      <c r="B58" s="304"/>
+      <c r="A58" s="249"/>
+      <c r="B58" s="253"/>
       <c r="C58" s="131" t="s">
         <v>147</v>
       </c>
       <c r="D58" s="118">
         <v>117</v>
       </c>
-      <c r="E58" s="264"/>
-      <c r="F58" s="264"/>
-      <c r="G58" s="264"/>
+      <c r="E58" s="256"/>
+      <c r="F58" s="256"/>
+      <c r="G58" s="256"/>
       <c r="H58" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="25.5">
-      <c r="A59" s="317"/>
-      <c r="B59" s="304"/>
+      <c r="A59" s="249"/>
+      <c r="B59" s="253"/>
       <c r="C59" s="131" t="s">
         <v>148</v>
       </c>
       <c r="D59" s="118">
         <v>94</v>
       </c>
-      <c r="E59" s="264"/>
-      <c r="F59" s="264"/>
-      <c r="G59" s="264"/>
+      <c r="E59" s="256"/>
+      <c r="F59" s="256"/>
+      <c r="G59" s="256"/>
       <c r="H59" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="51">
-      <c r="A60" s="317"/>
-      <c r="B60" s="304"/>
+      <c r="A60" s="249"/>
+      <c r="B60" s="253"/>
       <c r="C60" s="132" t="s">
         <v>414</v>
       </c>
       <c r="D60" s="121">
         <v>704</v>
       </c>
-      <c r="E60" s="264"/>
-      <c r="F60" s="264"/>
-      <c r="G60" s="264"/>
+      <c r="E60" s="256"/>
+      <c r="F60" s="256"/>
+      <c r="G60" s="256"/>
       <c r="H60" s="119" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A61" s="309">
+      <c r="A61" s="250">
         <v>13</v>
       </c>
-      <c r="B61" s="295" t="s">
+      <c r="B61" s="287" t="s">
         <v>25</v>
       </c>
       <c r="C61" s="131" t="s">
@@ -24232,14 +24232,14 @@
       <c r="D61" s="133">
         <v>117.3</v>
       </c>
-      <c r="E61" s="298">
+      <c r="E61" s="290">
         <f>SUM(D61:D64)</f>
         <v>404.29999999999995</v>
       </c>
-      <c r="F61" s="301">
+      <c r="F61" s="293">
         <v>587</v>
       </c>
-      <c r="G61" s="292">
+      <c r="G61" s="284">
         <f>E61-F61</f>
         <v>-182.70000000000005</v>
       </c>
@@ -24248,71 +24248,71 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="38.25">
-      <c r="A62" s="310"/>
-      <c r="B62" s="296"/>
+      <c r="A62" s="251"/>
+      <c r="B62" s="288"/>
       <c r="C62" s="134" t="s">
         <v>416</v>
       </c>
       <c r="D62" s="135">
         <v>39.299999999999997</v>
       </c>
-      <c r="E62" s="299"/>
-      <c r="F62" s="302"/>
-      <c r="G62" s="293"/>
+      <c r="E62" s="291"/>
+      <c r="F62" s="294"/>
+      <c r="G62" s="285"/>
       <c r="H62" s="119" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="94.5" customHeight="1">
-      <c r="A63" s="310"/>
-      <c r="B63" s="296"/>
+      <c r="A63" s="251"/>
+      <c r="B63" s="288"/>
       <c r="C63" s="104" t="s">
         <v>391</v>
       </c>
       <c r="D63" s="136">
         <v>13.1</v>
       </c>
-      <c r="E63" s="299"/>
-      <c r="F63" s="302"/>
-      <c r="G63" s="293"/>
+      <c r="E63" s="291"/>
+      <c r="F63" s="294"/>
+      <c r="G63" s="285"/>
       <c r="H63" s="111" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="69.75" customHeight="1">
-      <c r="A64" s="311"/>
-      <c r="B64" s="297"/>
+      <c r="A64" s="252"/>
+      <c r="B64" s="289"/>
       <c r="C64" s="104" t="s">
         <v>402</v>
       </c>
       <c r="D64" s="136">
         <v>234.6</v>
       </c>
-      <c r="E64" s="300"/>
-      <c r="F64" s="303"/>
-      <c r="G64" s="294"/>
+      <c r="E64" s="292"/>
+      <c r="F64" s="295"/>
+      <c r="G64" s="286"/>
       <c r="H64" s="111" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="38.25">
-      <c r="A65" s="309">
+      <c r="A65" s="250">
         <v>14</v>
       </c>
-      <c r="B65" s="265" t="s">
+      <c r="B65" s="258" t="s">
         <v>111</v>
       </c>
       <c r="C65" s="104"/>
       <c r="D65" s="136"/>
-      <c r="E65" s="258">
+      <c r="E65" s="261">
         <f>SUM(D65:D68)</f>
         <v>300.7</v>
       </c>
-      <c r="F65" s="261">
+      <c r="F65" s="275">
         <f>587/12*5</f>
         <v>244.58333333333331</v>
       </c>
-      <c r="G65" s="258">
+      <c r="G65" s="261">
         <f>E65-F65</f>
         <v>56.116666666666674</v>
       </c>
@@ -24321,58 +24321,58 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="38.25">
-      <c r="A66" s="310"/>
-      <c r="B66" s="266"/>
+      <c r="A66" s="251"/>
+      <c r="B66" s="259"/>
       <c r="C66" s="131" t="s">
         <v>150</v>
       </c>
       <c r="D66" s="118">
         <v>59</v>
       </c>
-      <c r="E66" s="259"/>
-      <c r="F66" s="262"/>
-      <c r="G66" s="259"/>
+      <c r="E66" s="262"/>
+      <c r="F66" s="276"/>
+      <c r="G66" s="262"/>
       <c r="H66" s="119" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="51">
-      <c r="A67" s="310"/>
-      <c r="B67" s="266"/>
+      <c r="A67" s="251"/>
+      <c r="B67" s="259"/>
       <c r="C67" s="120" t="s">
         <v>152</v>
       </c>
       <c r="D67" s="121">
         <v>59</v>
       </c>
-      <c r="E67" s="259"/>
-      <c r="F67" s="262"/>
-      <c r="G67" s="259"/>
+      <c r="E67" s="262"/>
+      <c r="F67" s="276"/>
+      <c r="G67" s="262"/>
       <c r="H67" s="119" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A68" s="311"/>
-      <c r="B68" s="267"/>
+      <c r="A68" s="252"/>
+      <c r="B68" s="260"/>
       <c r="C68" s="115" t="s">
         <v>420</v>
       </c>
       <c r="D68" s="137">
         <v>182.7</v>
       </c>
-      <c r="E68" s="260"/>
-      <c r="F68" s="263"/>
-      <c r="G68" s="260"/>
+      <c r="E68" s="263"/>
+      <c r="F68" s="277"/>
+      <c r="G68" s="263"/>
       <c r="H68" s="138" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A69" s="317">
+      <c r="A69" s="249">
         <v>15</v>
       </c>
-      <c r="B69" s="277" t="s">
+      <c r="B69" s="272" t="s">
         <v>26</v>
       </c>
       <c r="C69" s="139" t="s">
@@ -24381,72 +24381,72 @@
       <c r="D69" s="140">
         <v>82.1</v>
       </c>
-      <c r="E69" s="305">
+      <c r="E69" s="273">
         <f>SUM(D69:D72)</f>
         <v>1588.4</v>
       </c>
-      <c r="F69" s="306">
+      <c r="F69" s="274">
         <v>587</v>
       </c>
-      <c r="G69" s="306">
+      <c r="G69" s="274">
         <f>E69-F69</f>
         <v>1001.4000000000001</v>
       </c>
       <c r="H69" s="139"/>
     </row>
     <row r="70" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A70" s="317"/>
-      <c r="B70" s="277"/>
+      <c r="A70" s="249"/>
+      <c r="B70" s="272"/>
       <c r="C70" s="127" t="s">
         <v>405</v>
       </c>
       <c r="D70" s="140">
         <v>548</v>
       </c>
-      <c r="E70" s="305"/>
-      <c r="F70" s="306"/>
-      <c r="G70" s="306"/>
+      <c r="E70" s="273"/>
+      <c r="F70" s="274"/>
+      <c r="G70" s="274"/>
       <c r="H70" s="139" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A71" s="317"/>
-      <c r="B71" s="277"/>
+      <c r="A71" s="249"/>
+      <c r="B71" s="272"/>
       <c r="C71" s="127" t="s">
         <v>423</v>
       </c>
       <c r="D71" s="140">
         <v>254.3</v>
       </c>
-      <c r="E71" s="305"/>
-      <c r="F71" s="306"/>
-      <c r="G71" s="306"/>
+      <c r="E71" s="273"/>
+      <c r="F71" s="274"/>
+      <c r="G71" s="274"/>
       <c r="H71" s="139" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A72" s="317"/>
-      <c r="B72" s="277"/>
+      <c r="A72" s="249"/>
+      <c r="B72" s="272"/>
       <c r="C72" s="127" t="s">
         <v>425</v>
       </c>
       <c r="D72" s="140">
         <v>704</v>
       </c>
-      <c r="E72" s="305"/>
-      <c r="F72" s="306"/>
-      <c r="G72" s="306"/>
+      <c r="E72" s="273"/>
+      <c r="F72" s="274"/>
+      <c r="G72" s="274"/>
       <c r="H72" s="139" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="38.25">
-      <c r="A73" s="317">
+      <c r="A73" s="249">
         <v>16</v>
       </c>
-      <c r="B73" s="304" t="s">
+      <c r="B73" s="253" t="s">
         <v>27</v>
       </c>
       <c r="C73" s="131" t="s">
@@ -24455,15 +24455,15 @@
       <c r="D73" s="116">
         <v>1018.83</v>
       </c>
-      <c r="E73" s="264">
+      <c r="E73" s="256">
         <f>SUM(D73:D77)</f>
         <v>2074.5299999999997</v>
       </c>
-      <c r="F73" s="285">
+      <c r="F73" s="264">
         <f>587/12*11.5*0.4+587/12*0.5*0.3</f>
         <v>232.35416666666666</v>
       </c>
-      <c r="G73" s="285">
+      <c r="G73" s="264">
         <f>E73-F73</f>
         <v>1842.175833333333</v>
       </c>
@@ -24471,73 +24471,73 @@
         <v>156</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="76.5">
-      <c r="A74" s="317"/>
-      <c r="B74" s="304"/>
+    <row r="74" spans="1:8" ht="63.75">
+      <c r="A74" s="249"/>
+      <c r="B74" s="253"/>
       <c r="C74" s="131" t="s">
         <v>157</v>
       </c>
       <c r="D74" s="118">
         <v>391</v>
       </c>
-      <c r="E74" s="264"/>
-      <c r="F74" s="285"/>
-      <c r="G74" s="285"/>
+      <c r="E74" s="256"/>
+      <c r="F74" s="264"/>
+      <c r="G74" s="264"/>
       <c r="H74" s="141"/>
     </row>
-    <row r="75" spans="1:8" ht="63.75">
-      <c r="A75" s="317"/>
-      <c r="B75" s="304"/>
+    <row r="75" spans="1:8" ht="51">
+      <c r="A75" s="249"/>
+      <c r="B75" s="253"/>
       <c r="C75" s="131" t="s">
         <v>426</v>
       </c>
       <c r="D75" s="118">
         <v>586</v>
       </c>
-      <c r="E75" s="264"/>
-      <c r="F75" s="285"/>
-      <c r="G75" s="285"/>
+      <c r="E75" s="256"/>
+      <c r="F75" s="264"/>
+      <c r="G75" s="264"/>
       <c r="H75" s="111" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A76" s="317"/>
-      <c r="B76" s="304"/>
+      <c r="A76" s="249"/>
+      <c r="B76" s="253"/>
       <c r="C76" s="131" t="s">
         <v>308</v>
       </c>
       <c r="D76" s="118">
         <v>19.7</v>
       </c>
-      <c r="E76" s="264"/>
-      <c r="F76" s="285"/>
-      <c r="G76" s="285"/>
+      <c r="E76" s="256"/>
+      <c r="F76" s="264"/>
+      <c r="G76" s="264"/>
       <c r="H76" s="111" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A77" s="317"/>
-      <c r="B77" s="304"/>
+      <c r="A77" s="249"/>
+      <c r="B77" s="253"/>
       <c r="C77" s="139" t="s">
         <v>310</v>
       </c>
       <c r="D77" s="118">
         <v>59</v>
       </c>
-      <c r="E77" s="264"/>
-      <c r="F77" s="285"/>
-      <c r="G77" s="285"/>
+      <c r="E77" s="256"/>
+      <c r="F77" s="264"/>
+      <c r="G77" s="264"/>
       <c r="H77" s="111" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A78" s="317">
+      <c r="A78" s="249">
         <v>17</v>
       </c>
-      <c r="B78" s="304" t="s">
+      <c r="B78" s="253" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="131" t="s">
@@ -24546,120 +24546,120 @@
       <c r="D78" s="118">
         <v>536.16666666666697</v>
       </c>
-      <c r="E78" s="264">
+      <c r="E78" s="256">
         <f>+D78+D79+D80+D81+D82+D83+D84</f>
         <v>1607.2666666666669</v>
       </c>
-      <c r="F78" s="316">
+      <c r="F78" s="255">
         <v>587</v>
       </c>
-      <c r="G78" s="264">
+      <c r="G78" s="256">
         <f>E78-F78</f>
         <v>1020.2666666666669</v>
       </c>
       <c r="H78" s="119"/>
     </row>
     <row r="79" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A79" s="317"/>
-      <c r="B79" s="304"/>
+      <c r="A79" s="249"/>
+      <c r="B79" s="253"/>
       <c r="C79" s="131" t="s">
         <v>158</v>
       </c>
       <c r="D79" s="118">
         <v>59</v>
       </c>
-      <c r="E79" s="264"/>
-      <c r="F79" s="316"/>
-      <c r="G79" s="264"/>
+      <c r="E79" s="256"/>
+      <c r="F79" s="255"/>
+      <c r="G79" s="256"/>
       <c r="H79" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="25.5">
-      <c r="A80" s="317"/>
-      <c r="B80" s="304"/>
+      <c r="A80" s="249"/>
+      <c r="B80" s="253"/>
       <c r="C80" s="131" t="s">
         <v>160</v>
       </c>
       <c r="D80" s="118">
         <v>59</v>
       </c>
-      <c r="E80" s="264"/>
-      <c r="F80" s="316"/>
-      <c r="G80" s="264"/>
+      <c r="E80" s="256"/>
+      <c r="F80" s="255"/>
+      <c r="G80" s="256"/>
       <c r="H80" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A81" s="317"/>
-      <c r="B81" s="304"/>
+      <c r="A81" s="249"/>
+      <c r="B81" s="253"/>
       <c r="C81" s="131" t="s">
         <v>161</v>
       </c>
       <c r="D81" s="118">
         <v>59</v>
       </c>
-      <c r="E81" s="264"/>
-      <c r="F81" s="316"/>
-      <c r="G81" s="264"/>
+      <c r="E81" s="256"/>
+      <c r="F81" s="255"/>
+      <c r="G81" s="256"/>
       <c r="H81" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A82" s="317"/>
-      <c r="B82" s="304"/>
+      <c r="A82" s="249"/>
+      <c r="B82" s="253"/>
       <c r="C82" s="131" t="s">
         <v>311</v>
       </c>
       <c r="D82" s="118">
         <v>59</v>
       </c>
-      <c r="E82" s="264"/>
-      <c r="F82" s="316"/>
-      <c r="G82" s="264"/>
+      <c r="E82" s="256"/>
+      <c r="F82" s="255"/>
+      <c r="G82" s="256"/>
       <c r="H82" s="119" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A83" s="317"/>
-      <c r="B83" s="304"/>
+      <c r="A83" s="249"/>
+      <c r="B83" s="253"/>
       <c r="C83" s="104" t="s">
         <v>392</v>
       </c>
       <c r="D83" s="118">
         <v>13.1</v>
       </c>
-      <c r="E83" s="264"/>
-      <c r="F83" s="316"/>
-      <c r="G83" s="264"/>
+      <c r="E83" s="256"/>
+      <c r="F83" s="255"/>
+      <c r="G83" s="256"/>
       <c r="H83" s="119" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A84" s="317"/>
-      <c r="B84" s="304"/>
+      <c r="A84" s="249"/>
+      <c r="B84" s="253"/>
       <c r="C84" s="120" t="s">
         <v>162</v>
       </c>
       <c r="D84" s="121">
         <v>822</v>
       </c>
-      <c r="E84" s="264"/>
-      <c r="F84" s="316"/>
-      <c r="G84" s="264"/>
+      <c r="E84" s="256"/>
+      <c r="F84" s="255"/>
+      <c r="G84" s="256"/>
       <c r="H84" s="119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A85" s="317">
+      <c r="A85" s="249">
         <v>18</v>
       </c>
-      <c r="B85" s="304" t="s">
+      <c r="B85" s="253" t="s">
         <v>32</v>
       </c>
       <c r="C85" s="130" t="s">
@@ -24668,121 +24668,121 @@
       <c r="D85" s="118">
         <v>806.83</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="256">
         <f>SUM(D85:D91)</f>
         <v>1433.83</v>
       </c>
-      <c r="F85" s="264">
+      <c r="F85" s="256">
         <f>587</f>
         <v>587</v>
       </c>
-      <c r="G85" s="264">
+      <c r="G85" s="256">
         <f>E85-F85</f>
         <v>846.82999999999993</v>
       </c>
       <c r="H85" s="119"/>
     </row>
     <row r="86" spans="1:8" ht="25.5">
-      <c r="A86" s="317"/>
-      <c r="B86" s="304"/>
+      <c r="A86" s="249"/>
+      <c r="B86" s="253"/>
       <c r="C86" s="131" t="s">
         <v>313</v>
       </c>
       <c r="D86" s="118">
         <v>59</v>
       </c>
-      <c r="E86" s="264"/>
-      <c r="F86" s="264"/>
-      <c r="G86" s="264"/>
+      <c r="E86" s="256"/>
+      <c r="F86" s="256"/>
+      <c r="G86" s="256"/>
       <c r="H86" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="25.5">
-      <c r="A87" s="317"/>
-      <c r="B87" s="304"/>
+      <c r="A87" s="249"/>
+      <c r="B87" s="253"/>
       <c r="C87" s="131" t="s">
         <v>314</v>
       </c>
       <c r="D87" s="118">
         <v>59</v>
       </c>
-      <c r="E87" s="264"/>
-      <c r="F87" s="264"/>
-      <c r="G87" s="264"/>
+      <c r="E87" s="256"/>
+      <c r="F87" s="256"/>
+      <c r="G87" s="256"/>
       <c r="H87" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A88" s="317"/>
-      <c r="B88" s="304"/>
+      <c r="A88" s="249"/>
+      <c r="B88" s="253"/>
       <c r="C88" s="131" t="s">
         <v>315</v>
       </c>
       <c r="D88" s="118">
         <v>59</v>
       </c>
-      <c r="E88" s="264"/>
-      <c r="F88" s="264"/>
-      <c r="G88" s="264"/>
+      <c r="E88" s="256"/>
+      <c r="F88" s="256"/>
+      <c r="G88" s="256"/>
       <c r="H88" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="51">
-      <c r="A89" s="317"/>
-      <c r="B89" s="304"/>
+      <c r="A89" s="249"/>
+      <c r="B89" s="253"/>
       <c r="C89" s="131" t="s">
         <v>316</v>
       </c>
       <c r="D89" s="118">
         <v>195.5</v>
       </c>
-      <c r="E89" s="264"/>
-      <c r="F89" s="264"/>
-      <c r="G89" s="264"/>
+      <c r="E89" s="256"/>
+      <c r="F89" s="256"/>
+      <c r="G89" s="256"/>
       <c r="H89" s="119" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="63.75">
-      <c r="A90" s="317"/>
-      <c r="B90" s="304"/>
+    <row r="90" spans="1:8" ht="51">
+      <c r="A90" s="249"/>
+      <c r="B90" s="253"/>
       <c r="C90" s="131" t="s">
         <v>318</v>
       </c>
       <c r="D90" s="118">
         <v>195.5</v>
       </c>
-      <c r="E90" s="264"/>
-      <c r="F90" s="264"/>
-      <c r="G90" s="264"/>
+      <c r="E90" s="256"/>
+      <c r="F90" s="256"/>
+      <c r="G90" s="256"/>
       <c r="H90" s="119" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="38.25">
-      <c r="A91" s="317"/>
-      <c r="B91" s="304"/>
+      <c r="A91" s="249"/>
+      <c r="B91" s="253"/>
       <c r="C91" s="131" t="s">
         <v>165</v>
       </c>
       <c r="D91" s="118">
         <v>59</v>
       </c>
-      <c r="E91" s="264"/>
-      <c r="F91" s="264"/>
-      <c r="G91" s="264"/>
+      <c r="E91" s="256"/>
+      <c r="F91" s="256"/>
+      <c r="G91" s="256"/>
       <c r="H91" s="119" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A92" s="309">
+      <c r="A92" s="250">
         <v>19</v>
       </c>
-      <c r="B92" s="265" t="s">
+      <c r="B92" s="258" t="s">
         <v>34</v>
       </c>
       <c r="C92" s="104" t="s">
@@ -24791,326 +24791,326 @@
       <c r="D92" s="112">
         <v>675.15</v>
       </c>
-      <c r="E92" s="268">
+      <c r="E92" s="267">
         <f>SUM(D92:D111)</f>
         <v>3881.8900000000003</v>
       </c>
-      <c r="F92" s="314">
+      <c r="F92" s="269">
         <v>587</v>
       </c>
-      <c r="G92" s="268">
+      <c r="G92" s="267">
         <f>E92-F92</f>
         <v>3294.8900000000003</v>
       </c>
       <c r="H92" s="111"/>
     </row>
     <row r="93" spans="1:8" ht="63.75">
-      <c r="A93" s="310"/>
-      <c r="B93" s="266"/>
+      <c r="A93" s="251"/>
+      <c r="B93" s="259"/>
       <c r="C93" s="104" t="s">
         <v>166</v>
       </c>
       <c r="D93" s="112">
         <v>254.3</v>
       </c>
-      <c r="E93" s="269"/>
-      <c r="F93" s="315"/>
-      <c r="G93" s="269"/>
+      <c r="E93" s="268"/>
+      <c r="F93" s="270"/>
+      <c r="G93" s="268"/>
       <c r="H93" s="111" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="76.5">
-      <c r="A94" s="310"/>
-      <c r="B94" s="266"/>
+    <row r="94" spans="1:8" ht="63.75">
+      <c r="A94" s="251"/>
+      <c r="B94" s="259"/>
       <c r="C94" s="104" t="s">
         <v>167</v>
       </c>
       <c r="D94" s="112">
         <v>411</v>
       </c>
-      <c r="E94" s="269"/>
-      <c r="F94" s="315"/>
-      <c r="G94" s="269"/>
+      <c r="E94" s="268"/>
+      <c r="F94" s="270"/>
+      <c r="G94" s="268"/>
       <c r="H94" s="111" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="89.25">
-      <c r="A95" s="310"/>
-      <c r="B95" s="266"/>
+      <c r="A95" s="251"/>
+      <c r="B95" s="259"/>
       <c r="C95" s="104" t="s">
         <v>168</v>
       </c>
       <c r="D95" s="112">
         <v>456.67</v>
       </c>
-      <c r="E95" s="269"/>
-      <c r="F95" s="315"/>
-      <c r="G95" s="269"/>
+      <c r="E95" s="268"/>
+      <c r="F95" s="270"/>
+      <c r="G95" s="268"/>
       <c r="H95" s="111" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="102">
-      <c r="A96" s="310"/>
-      <c r="B96" s="266"/>
+      <c r="A96" s="251"/>
+      <c r="B96" s="259"/>
       <c r="C96" s="104" t="s">
         <v>169</v>
       </c>
       <c r="D96" s="112">
         <v>127.17</v>
       </c>
-      <c r="E96" s="269"/>
-      <c r="F96" s="315"/>
-      <c r="G96" s="269"/>
+      <c r="E96" s="268"/>
+      <c r="F96" s="270"/>
+      <c r="G96" s="268"/>
       <c r="H96" s="111" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="126" customHeight="1">
-      <c r="A97" s="310"/>
-      <c r="B97" s="266"/>
+      <c r="A97" s="251"/>
+      <c r="B97" s="259"/>
       <c r="C97" s="104" t="s">
         <v>170</v>
       </c>
       <c r="D97" s="112">
         <v>339.11</v>
       </c>
-      <c r="E97" s="269"/>
-      <c r="F97" s="315"/>
-      <c r="G97" s="269"/>
+      <c r="E97" s="268"/>
+      <c r="F97" s="270"/>
+      <c r="G97" s="268"/>
       <c r="H97" s="111" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="76.5">
-      <c r="A98" s="310"/>
-      <c r="B98" s="266"/>
+      <c r="A98" s="251"/>
+      <c r="B98" s="259"/>
       <c r="C98" s="104" t="s">
         <v>171</v>
       </c>
       <c r="D98" s="112">
         <v>130.44</v>
       </c>
-      <c r="E98" s="269"/>
-      <c r="F98" s="315"/>
-      <c r="G98" s="269"/>
+      <c r="E98" s="268"/>
+      <c r="F98" s="270"/>
+      <c r="G98" s="268"/>
       <c r="H98" s="111" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="89.25">
-      <c r="A99" s="310"/>
-      <c r="B99" s="266"/>
+    <row r="99" spans="1:8" ht="76.5">
+      <c r="A99" s="251"/>
+      <c r="B99" s="259"/>
       <c r="C99" s="104" t="s">
         <v>172</v>
       </c>
       <c r="D99" s="112">
         <v>111.81</v>
       </c>
-      <c r="E99" s="269"/>
-      <c r="F99" s="315"/>
-      <c r="G99" s="269"/>
+      <c r="E99" s="268"/>
+      <c r="F99" s="270"/>
+      <c r="G99" s="268"/>
       <c r="H99" s="111" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="51">
-      <c r="A100" s="310"/>
-      <c r="B100" s="266"/>
+    <row r="100" spans="1:8" ht="38.25">
+      <c r="A100" s="251"/>
+      <c r="B100" s="259"/>
       <c r="C100" s="104" t="s">
         <v>173</v>
       </c>
       <c r="D100" s="112">
         <v>19.670000000000002</v>
       </c>
-      <c r="E100" s="269"/>
-      <c r="F100" s="315"/>
-      <c r="G100" s="269"/>
+      <c r="E100" s="268"/>
+      <c r="F100" s="270"/>
+      <c r="G100" s="268"/>
       <c r="H100" s="111"/>
     </row>
-    <row r="101" spans="1:8" ht="76.5">
-      <c r="A101" s="310"/>
-      <c r="B101" s="266"/>
+    <row r="101" spans="1:8" ht="63.75">
+      <c r="A101" s="251"/>
+      <c r="B101" s="259"/>
       <c r="C101" s="104" t="s">
         <v>174</v>
       </c>
       <c r="D101" s="112">
         <v>195.67</v>
       </c>
-      <c r="E101" s="269"/>
-      <c r="F101" s="315"/>
-      <c r="G101" s="269"/>
+      <c r="E101" s="268"/>
+      <c r="F101" s="270"/>
+      <c r="G101" s="268"/>
       <c r="H101" s="111" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A102" s="310"/>
-      <c r="B102" s="266"/>
+      <c r="A102" s="251"/>
+      <c r="B102" s="259"/>
       <c r="C102" s="104" t="s">
         <v>175</v>
       </c>
       <c r="D102" s="142">
         <v>70</v>
       </c>
-      <c r="E102" s="269"/>
-      <c r="F102" s="315"/>
-      <c r="G102" s="269"/>
+      <c r="E102" s="268"/>
+      <c r="F102" s="270"/>
+      <c r="G102" s="268"/>
       <c r="H102" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A103" s="310"/>
-      <c r="B103" s="266"/>
+      <c r="A103" s="251"/>
+      <c r="B103" s="259"/>
       <c r="C103" s="104" t="s">
         <v>176</v>
       </c>
       <c r="D103" s="142">
         <v>70</v>
       </c>
-      <c r="E103" s="269"/>
-      <c r="F103" s="315"/>
-      <c r="G103" s="269"/>
+      <c r="E103" s="268"/>
+      <c r="F103" s="270"/>
+      <c r="G103" s="268"/>
       <c r="H103" s="143" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="38.25">
-      <c r="A104" s="310"/>
-      <c r="B104" s="266"/>
+    <row r="104" spans="1:8" ht="25.5">
+      <c r="A104" s="251"/>
+      <c r="B104" s="259"/>
       <c r="C104" s="104" t="s">
         <v>177</v>
       </c>
       <c r="D104" s="142">
         <v>70</v>
       </c>
-      <c r="E104" s="269"/>
-      <c r="F104" s="315"/>
-      <c r="G104" s="269"/>
+      <c r="E104" s="268"/>
+      <c r="F104" s="270"/>
+      <c r="G104" s="268"/>
       <c r="H104" s="143" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="38.25">
-      <c r="A105" s="310"/>
-      <c r="B105" s="266"/>
+    <row r="105" spans="1:8" ht="25.5">
+      <c r="A105" s="251"/>
+      <c r="B105" s="259"/>
       <c r="C105" s="104" t="s">
         <v>178</v>
       </c>
       <c r="D105" s="142">
         <v>70</v>
       </c>
-      <c r="E105" s="269"/>
-      <c r="F105" s="315"/>
-      <c r="G105" s="269"/>
+      <c r="E105" s="268"/>
+      <c r="F105" s="270"/>
+      <c r="G105" s="268"/>
       <c r="H105" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A106" s="310"/>
-      <c r="B106" s="266"/>
+      <c r="A106" s="251"/>
+      <c r="B106" s="259"/>
       <c r="C106" s="104" t="s">
         <v>179</v>
       </c>
       <c r="D106" s="142">
         <v>59</v>
       </c>
-      <c r="E106" s="269"/>
-      <c r="F106" s="315"/>
-      <c r="G106" s="269"/>
+      <c r="E106" s="268"/>
+      <c r="F106" s="270"/>
+      <c r="G106" s="268"/>
       <c r="H106" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A107" s="310"/>
-      <c r="B107" s="266"/>
+      <c r="A107" s="251"/>
+      <c r="B107" s="259"/>
       <c r="C107" s="104" t="s">
         <v>180</v>
       </c>
       <c r="D107" s="142">
         <v>59</v>
       </c>
-      <c r="E107" s="269"/>
-      <c r="F107" s="315"/>
-      <c r="G107" s="269"/>
+      <c r="E107" s="268"/>
+      <c r="F107" s="270"/>
+      <c r="G107" s="268"/>
       <c r="H107" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A108" s="310"/>
-      <c r="B108" s="266"/>
+      <c r="A108" s="251"/>
+      <c r="B108" s="259"/>
       <c r="C108" s="104" t="s">
         <v>181</v>
       </c>
       <c r="D108" s="142">
         <v>29</v>
       </c>
-      <c r="E108" s="269"/>
-      <c r="F108" s="315"/>
-      <c r="G108" s="269"/>
+      <c r="E108" s="268"/>
+      <c r="F108" s="270"/>
+      <c r="G108" s="268"/>
       <c r="H108" s="143" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A109" s="310"/>
-      <c r="B109" s="266"/>
+      <c r="A109" s="251"/>
+      <c r="B109" s="259"/>
       <c r="C109" s="104" t="s">
         <v>429</v>
       </c>
       <c r="D109" s="105">
         <v>411.1</v>
       </c>
-      <c r="E109" s="269"/>
-      <c r="F109" s="315"/>
-      <c r="G109" s="269"/>
+      <c r="E109" s="268"/>
+      <c r="F109" s="270"/>
+      <c r="G109" s="268"/>
       <c r="H109" s="143" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A110" s="310"/>
-      <c r="B110" s="266"/>
+      <c r="A110" s="251"/>
+      <c r="B110" s="259"/>
       <c r="C110" s="104" t="s">
         <v>430</v>
       </c>
       <c r="D110" s="105">
         <v>146.80000000000001</v>
       </c>
-      <c r="E110" s="269"/>
-      <c r="F110" s="315"/>
-      <c r="G110" s="269"/>
+      <c r="E110" s="268"/>
+      <c r="F110" s="270"/>
+      <c r="G110" s="268"/>
       <c r="H110" s="144" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A111" s="310"/>
-      <c r="B111" s="266"/>
+      <c r="A111" s="251"/>
+      <c r="B111" s="259"/>
       <c r="C111" s="104" t="s">
         <v>431</v>
       </c>
       <c r="D111" s="142">
         <v>176</v>
       </c>
-      <c r="E111" s="269"/>
-      <c r="F111" s="315"/>
-      <c r="G111" s="269"/>
+      <c r="E111" s="268"/>
+      <c r="F111" s="270"/>
+      <c r="G111" s="268"/>
       <c r="H111" s="143" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A112" s="317">
+      <c r="A112" s="249">
         <v>20</v>
       </c>
-      <c r="B112" s="304" t="s">
+      <c r="B112" s="253" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="104" t="s">
@@ -25119,15 +25119,15 @@
       <c r="D112" s="142">
         <v>1655.9</v>
       </c>
-      <c r="E112" s="264">
+      <c r="E112" s="256">
         <f>D112+D113+D114+D115+D116+D117</f>
         <v>1909.6000000000001</v>
       </c>
-      <c r="F112" s="316">
+      <c r="F112" s="255">
         <f>587/12*0.5*0.4+587/12*11.5</f>
         <v>572.32499999999993</v>
       </c>
-      <c r="G112" s="280">
+      <c r="G112" s="271">
         <f>E112-F112</f>
         <v>1337.2750000000001</v>
       </c>
@@ -25136,90 +25136,90 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A113" s="317"/>
-      <c r="B113" s="304"/>
+      <c r="A113" s="249"/>
+      <c r="B113" s="253"/>
       <c r="C113" s="104" t="s">
         <v>170</v>
       </c>
       <c r="D113" s="118">
         <v>78</v>
       </c>
-      <c r="E113" s="264"/>
-      <c r="F113" s="316"/>
-      <c r="G113" s="280"/>
+      <c r="E113" s="256"/>
+      <c r="F113" s="255"/>
+      <c r="G113" s="271"/>
       <c r="H113" s="119" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A114" s="317"/>
-      <c r="B114" s="304"/>
+      <c r="A114" s="249"/>
+      <c r="B114" s="253"/>
       <c r="C114" s="120" t="s">
         <v>131</v>
       </c>
       <c r="D114" s="121">
         <v>58.7</v>
       </c>
-      <c r="E114" s="264"/>
-      <c r="F114" s="316"/>
-      <c r="G114" s="280"/>
+      <c r="E114" s="256"/>
+      <c r="F114" s="255"/>
+      <c r="G114" s="271"/>
       <c r="H114" s="119" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A115" s="317"/>
-      <c r="B115" s="304"/>
+      <c r="A115" s="249"/>
+      <c r="B115" s="253"/>
       <c r="C115" s="122" t="s">
         <v>183</v>
       </c>
       <c r="D115" s="123">
         <v>29</v>
       </c>
-      <c r="E115" s="264"/>
-      <c r="F115" s="316"/>
-      <c r="G115" s="280"/>
+      <c r="E115" s="256"/>
+      <c r="F115" s="255"/>
+      <c r="G115" s="271"/>
       <c r="H115" s="124" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A116" s="317"/>
-      <c r="B116" s="304"/>
+      <c r="A116" s="249"/>
+      <c r="B116" s="253"/>
       <c r="C116" s="122" t="s">
         <v>432</v>
       </c>
       <c r="D116" s="123">
         <v>29</v>
       </c>
-      <c r="E116" s="264"/>
-      <c r="F116" s="316"/>
-      <c r="G116" s="280"/>
+      <c r="E116" s="256"/>
+      <c r="F116" s="255"/>
+      <c r="G116" s="271"/>
       <c r="H116" s="124" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A117" s="317"/>
-      <c r="B117" s="304"/>
+      <c r="A117" s="249"/>
+      <c r="B117" s="253"/>
       <c r="C117" s="115" t="s">
         <v>329</v>
       </c>
       <c r="D117" s="123">
         <v>59</v>
       </c>
-      <c r="E117" s="264"/>
-      <c r="F117" s="316"/>
-      <c r="G117" s="280"/>
+      <c r="E117" s="256"/>
+      <c r="F117" s="255"/>
+      <c r="G117" s="271"/>
       <c r="H117" s="125" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A118" s="309">
+      <c r="A118" s="250">
         <v>21</v>
       </c>
-      <c r="B118" s="265" t="s">
+      <c r="B118" s="258" t="s">
         <v>29</v>
       </c>
       <c r="C118" s="130" t="s">
@@ -25228,88 +25228,88 @@
       <c r="D118" s="118">
         <v>407</v>
       </c>
-      <c r="E118" s="258">
+      <c r="E118" s="261">
         <f>SUM(D118:D122)</f>
         <v>720.8</v>
       </c>
-      <c r="F118" s="258">
+      <c r="F118" s="261">
         <v>587</v>
       </c>
-      <c r="G118" s="258">
+      <c r="G118" s="261">
         <f>E118-F118</f>
         <v>133.79999999999995</v>
       </c>
       <c r="H118" s="119"/>
     </row>
     <row r="119" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A119" s="310"/>
-      <c r="B119" s="266"/>
+      <c r="A119" s="251"/>
+      <c r="B119" s="259"/>
       <c r="C119" s="120" t="s">
         <v>184</v>
       </c>
       <c r="D119" s="118">
         <v>59</v>
       </c>
-      <c r="E119" s="259"/>
-      <c r="F119" s="259"/>
-      <c r="G119" s="259"/>
+      <c r="E119" s="262"/>
+      <c r="F119" s="262"/>
+      <c r="G119" s="262"/>
       <c r="H119" s="119" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A120" s="310"/>
-      <c r="B120" s="266"/>
+      <c r="A120" s="251"/>
+      <c r="B120" s="259"/>
       <c r="C120" s="120" t="s">
         <v>185</v>
       </c>
       <c r="D120" s="118">
         <v>59</v>
       </c>
-      <c r="E120" s="259"/>
-      <c r="F120" s="259"/>
-      <c r="G120" s="259"/>
+      <c r="E120" s="262"/>
+      <c r="F120" s="262"/>
+      <c r="G120" s="262"/>
       <c r="H120" s="119" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="76.5">
-      <c r="A121" s="310"/>
-      <c r="B121" s="266"/>
+      <c r="A121" s="251"/>
+      <c r="B121" s="259"/>
       <c r="C121" s="104" t="s">
         <v>391</v>
       </c>
       <c r="D121" s="121">
         <v>13.1</v>
       </c>
-      <c r="E121" s="259"/>
-      <c r="F121" s="259"/>
-      <c r="G121" s="259"/>
+      <c r="E121" s="262"/>
+      <c r="F121" s="262"/>
+      <c r="G121" s="262"/>
       <c r="H121" s="119" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="90">
-      <c r="A122" s="311"/>
-      <c r="B122" s="267"/>
+      <c r="A122" s="252"/>
+      <c r="B122" s="260"/>
       <c r="C122" s="146" t="s">
         <v>441</v>
       </c>
       <c r="D122" s="137">
         <v>182.7</v>
       </c>
-      <c r="E122" s="260"/>
-      <c r="F122" s="260"/>
-      <c r="G122" s="260"/>
+      <c r="E122" s="263"/>
+      <c r="F122" s="263"/>
+      <c r="G122" s="263"/>
       <c r="H122" s="119" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A123" s="317">
+      <c r="A123" s="249">
         <v>22</v>
       </c>
-      <c r="B123" s="304" t="s">
+      <c r="B123" s="253" t="s">
         <v>33</v>
       </c>
       <c r="C123" s="115" t="s">
@@ -25318,15 +25318,15 @@
       <c r="D123" s="147">
         <v>976.9</v>
       </c>
-      <c r="E123" s="285">
+      <c r="E123" s="264">
         <f>SUM(D123:D131)</f>
         <v>4244.9000000000005</v>
       </c>
-      <c r="F123" s="312">
+      <c r="F123" s="265">
         <f>587*0.8</f>
         <v>469.6</v>
       </c>
-      <c r="G123" s="313">
+      <c r="G123" s="266">
         <f>E123-F123</f>
         <v>3775.3000000000006</v>
       </c>
@@ -25335,136 +25335,136 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A124" s="317"/>
-      <c r="B124" s="304"/>
+      <c r="A124" s="249"/>
+      <c r="B124" s="253"/>
       <c r="C124" s="131" t="s">
         <v>435</v>
       </c>
       <c r="D124" s="133">
         <v>1174</v>
       </c>
-      <c r="E124" s="285"/>
-      <c r="F124" s="312"/>
-      <c r="G124" s="313"/>
+      <c r="E124" s="264"/>
+      <c r="F124" s="265"/>
+      <c r="G124" s="266"/>
       <c r="H124" s="119"/>
     </row>
-    <row r="125" spans="1:8" ht="51">
-      <c r="A125" s="317"/>
-      <c r="B125" s="304"/>
+    <row r="125" spans="1:8" ht="38.25">
+      <c r="A125" s="249"/>
+      <c r="B125" s="253"/>
       <c r="C125" s="131" t="s">
         <v>332</v>
       </c>
       <c r="D125" s="133">
         <v>195.6</v>
       </c>
-      <c r="E125" s="285"/>
-      <c r="F125" s="312"/>
-      <c r="G125" s="313"/>
+      <c r="E125" s="264"/>
+      <c r="F125" s="265"/>
+      <c r="G125" s="266"/>
       <c r="H125" s="119" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="63.75">
-      <c r="A126" s="317"/>
-      <c r="B126" s="304"/>
+    <row r="126" spans="1:8" ht="51">
+      <c r="A126" s="249"/>
+      <c r="B126" s="253"/>
       <c r="C126" s="131" t="s">
         <v>333</v>
       </c>
       <c r="D126" s="133">
         <v>469.3</v>
       </c>
-      <c r="E126" s="285"/>
-      <c r="F126" s="312"/>
-      <c r="G126" s="313"/>
+      <c r="E126" s="264"/>
+      <c r="F126" s="265"/>
+      <c r="G126" s="266"/>
       <c r="H126" s="119" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="76.5">
-      <c r="A127" s="317"/>
-      <c r="B127" s="304"/>
+      <c r="A127" s="249"/>
+      <c r="B127" s="253"/>
       <c r="C127" s="120" t="s">
         <v>436</v>
       </c>
       <c r="D127" s="135">
         <v>97.8</v>
       </c>
-      <c r="E127" s="285"/>
-      <c r="F127" s="312"/>
-      <c r="G127" s="313"/>
+      <c r="E127" s="264"/>
+      <c r="F127" s="265"/>
+      <c r="G127" s="266"/>
       <c r="H127" s="119" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="25.5">
-      <c r="A128" s="317"/>
-      <c r="B128" s="304"/>
+      <c r="A128" s="249"/>
+      <c r="B128" s="253"/>
       <c r="C128" s="120" t="s">
         <v>334</v>
       </c>
       <c r="D128" s="135">
         <v>1174</v>
       </c>
-      <c r="E128" s="285"/>
-      <c r="F128" s="312"/>
-      <c r="G128" s="313"/>
+      <c r="E128" s="264"/>
+      <c r="F128" s="265"/>
+      <c r="G128" s="266"/>
       <c r="H128" s="119" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="38.25">
-      <c r="A129" s="317"/>
-      <c r="B129" s="304"/>
+      <c r="A129" s="249"/>
+      <c r="B129" s="253"/>
       <c r="C129" s="120" t="s">
         <v>336</v>
       </c>
       <c r="D129" s="135">
         <v>39.299999999999997</v>
       </c>
-      <c r="E129" s="285"/>
-      <c r="F129" s="312"/>
-      <c r="G129" s="313"/>
+      <c r="E129" s="264"/>
+      <c r="F129" s="265"/>
+      <c r="G129" s="266"/>
       <c r="H129" s="119" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="51">
-      <c r="A130" s="317"/>
-      <c r="B130" s="304"/>
+      <c r="A130" s="249"/>
+      <c r="B130" s="253"/>
       <c r="C130" s="129" t="s">
         <v>438</v>
       </c>
       <c r="D130" s="135">
         <v>59</v>
       </c>
-      <c r="E130" s="285"/>
-      <c r="F130" s="312"/>
-      <c r="G130" s="313"/>
+      <c r="E130" s="264"/>
+      <c r="F130" s="265"/>
+      <c r="G130" s="266"/>
       <c r="H130" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="38.25">
-      <c r="A131" s="317"/>
-      <c r="B131" s="304"/>
+      <c r="A131" s="249"/>
+      <c r="B131" s="253"/>
       <c r="C131" s="129" t="s">
         <v>439</v>
       </c>
       <c r="D131" s="135">
         <v>59</v>
       </c>
-      <c r="E131" s="285"/>
-      <c r="F131" s="312"/>
-      <c r="G131" s="313"/>
+      <c r="E131" s="264"/>
+      <c r="F131" s="265"/>
+      <c r="G131" s="266"/>
       <c r="H131" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A132" s="317">
+      <c r="A132" s="249">
         <v>23</v>
       </c>
-      <c r="B132" s="304" t="s">
+      <c r="B132" s="253" t="s">
         <v>30</v>
       </c>
       <c r="C132" s="127" t="s">
@@ -25473,31 +25473,31 @@
       <c r="D132" s="148">
         <v>293.5</v>
       </c>
-      <c r="E132" s="307">
+      <c r="E132" s="254">
         <f>D132+D133</f>
         <v>606.5</v>
       </c>
-      <c r="F132" s="307">
+      <c r="F132" s="254">
         <v>587</v>
       </c>
-      <c r="G132" s="307">
+      <c r="G132" s="254">
         <f>E132-F132</f>
         <v>19.5</v>
       </c>
       <c r="H132" s="117"/>
     </row>
     <row r="133" spans="1:8" ht="76.5">
-      <c r="A133" s="317"/>
-      <c r="B133" s="304"/>
+      <c r="A133" s="249"/>
+      <c r="B133" s="253"/>
       <c r="C133" s="115" t="s">
         <v>186</v>
       </c>
       <c r="D133" s="118">
         <v>313</v>
       </c>
-      <c r="E133" s="307"/>
-      <c r="F133" s="307"/>
-      <c r="G133" s="307"/>
+      <c r="E133" s="254"/>
+      <c r="F133" s="254"/>
+      <c r="G133" s="254"/>
       <c r="H133" s="117"/>
     </row>
     <row r="134" spans="1:8">
@@ -25521,14 +25521,14 @@
       <c r="H135" s="155"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="318" t="s">
+      <c r="A136" s="248" t="s">
         <v>440</v>
       </c>
-      <c r="B136" s="318"/>
-      <c r="C136" s="318" t="s">
+      <c r="B136" s="248"/>
+      <c r="C136" s="248" t="s">
         <v>187</v>
       </c>
-      <c r="D136" s="318"/>
+      <c r="D136" s="248"/>
       <c r="E136" s="156"/>
       <c r="F136" s="156"/>
       <c r="G136" s="156"/>
@@ -25538,30 +25538,73 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="A92:A111"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A123:A131"/>
-    <mergeCell ref="B123:B131"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F78:F84"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="E52:E60"/>
-    <mergeCell ref="F52:F60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="G52:G60"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="G78:G84"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="E85:E91"/>
+    <mergeCell ref="F85:F91"/>
+    <mergeCell ref="G85:G91"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="G69:G72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="F73:F77"/>
+    <mergeCell ref="G73:G77"/>
     <mergeCell ref="G132:G133"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="A17:A19"/>
@@ -25586,74 +25629,32 @@
     <mergeCell ref="G112:G117"/>
     <mergeCell ref="B78:B84"/>
     <mergeCell ref="E78:E84"/>
-    <mergeCell ref="G78:G84"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="E85:E91"/>
-    <mergeCell ref="F85:F91"/>
-    <mergeCell ref="G85:G91"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="G69:G72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="F73:F77"/>
-    <mergeCell ref="G73:G77"/>
-    <mergeCell ref="G52:G60"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="E20:E25"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="G26:G31"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F78:F84"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="E52:E60"/>
+    <mergeCell ref="F52:F60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="A92:A111"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A123:A131"/>
+    <mergeCell ref="B123:B131"/>
   </mergeCells>
+  <phoneticPr fontId="58"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -25685,34 +25686,34 @@
       <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="319" t="s">
+      <c r="A2" s="324" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="320" t="s">
+      <c r="A3" s="325" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="320"/>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
-      <c r="F3" s="320"/>
-      <c r="G3" s="320"/>
+      <c r="B3" s="325"/>
+      <c r="C3" s="325"/>
+      <c r="D3" s="325"/>
+      <c r="E3" s="325"/>
+      <c r="F3" s="325"/>
+      <c r="G3" s="325"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="321" t="s">
+      <c r="A4" s="326" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="321"/>
-      <c r="C4" s="321"/>
-      <c r="D4" s="321"/>
-      <c r="E4" s="321"/>
-      <c r="F4" s="321"/>
-      <c r="G4" s="321"/>
+      <c r="B4" s="326"/>
+      <c r="C4" s="326"/>
+      <c r="D4" s="326"/>
+      <c r="E4" s="326"/>
+      <c r="F4" s="326"/>
+      <c r="G4" s="326"/>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="79"/>
@@ -26372,16 +26373,16 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25">
-      <c r="A39" s="320" t="s">
+      <c r="A39" s="325" t="s">
         <v>346</v>
       </c>
-      <c r="B39" s="320"/>
-      <c r="C39" s="320" t="s">
+      <c r="B39" s="325"/>
+      <c r="C39" s="325" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="320"/>
-      <c r="E39" s="320"/>
-      <c r="F39" s="320"/>
+      <c r="D39" s="325"/>
+      <c r="E39" s="325"/>
+      <c r="F39" s="325"/>
       <c r="G39" s="100" t="s">
         <v>188</v>
       </c>
@@ -26394,6 +26395,7 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C39:F39"/>
   </mergeCells>
+  <phoneticPr fontId="58"/>
   <pageMargins left="1.1023622047244095" right="0.11811023622047245" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/src/helpers/excel/template_export.xlsx
+++ b/src/helpers/excel/template_export.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThanhNha\Github\mission-timer-be\src\helpers\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A025E61A-D4E1-457F-869A-A36FCD7F82BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65803228-E748-4274-83AD-01B5951590C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7155" windowWidth="16380" windowHeight="7110" tabRatio="438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="name" sheetId="32" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="452">
   <si>
     <t>Tổng cộng</t>
   </si>
@@ -1510,6 +1510,26 @@
     <t>name</t>
     <phoneticPr fontId="58"/>
   </si>
+  <si>
+    <t>BỘ CÔNG THƯƠNG</t>
+    <phoneticPr fontId="58"/>
+  </si>
+  <si>
+    <t>TRƯỜNG ĐẠI HỌC CÔNG NGHIỆP</t>
+    <phoneticPr fontId="58"/>
+  </si>
+  <si>
+    <t>THỰC PHẨM THÀNH PHỐ HỒ CHÍ MINH</t>
+    <phoneticPr fontId="58"/>
+  </si>
+  <si>
+    <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
+    <phoneticPr fontId="58"/>
+  </si>
+  <si>
+    <t>Độc lập - Tự do - Hạnh phúc</t>
+    <phoneticPr fontId="58"/>
+  </si>
 </sst>
 </file>
 
@@ -1533,7 +1553,7 @@
     <numFmt numFmtId="189" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
     <numFmt numFmtId="190" formatCode="_-* #,##0.0\ _₫_-;\-* #,##0.0\ _₫_-;_-* &quot;-&quot;?\ _₫_-;_-@_-"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="61">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
@@ -1894,6 +1914,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u val="singleAccounting"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="28">
     <fill>
@@ -2037,7 +2071,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -2521,6 +2555,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2642,7 +2691,7 @@
     <xf numFmtId="185" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="88" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3266,12 +3315,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="94" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="89" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="92" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3373,234 +3416,234 @@
     <xf numFmtId="0" fontId="46" fillId="24" borderId="36" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="37" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="38" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="28" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="37" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="38" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="28" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="37" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="38" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="28" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="24" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="24" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="37" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="38" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="24" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="37" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="38" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="37" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="38" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="28" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="37" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="38" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="28" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="37" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="38" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="28" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="24" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3609,6 +3652,27 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="39" xfId="94" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="48" fillId="0" borderId="39" xfId="94" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="39" xfId="94" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="60" fillId="0" borderId="39" xfId="94" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="45" fillId="0" borderId="39" xfId="94" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="94" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="116">
@@ -3977,174 +4041,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>20500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>33616</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3115235</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8931A04-3763-E0F0-36BD-719D52899527}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="20500" y="33616"/>
-          <a:ext cx="4495470" cy="571502"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="600"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman"/>
-            <a:cs typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="600"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="vi-VN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>BỘ CÔNG THƯƠNG</a:t>
-          </a:r>
-          <a:endParaRPr lang="vi-VN" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="900"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="vi-VN" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>TRƯỜNG ĐẠI HỌC CÔNG NGHIỆP </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman"/>
-            <a:cs typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="vi-VN" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>THỰC PHẨM T</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>HÀNH PHỐ HỒ CHÍ MINH</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="vi-VN" sz="1100" b="1" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Times New Roman"/>
-            <a:cs typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="vi-VN" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>55939</xdr:rowOff>
@@ -4214,89 +4110,6 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>598171</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2106768</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>44422</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E59B2B4-FE0C-3EC8-0863-B73965332C41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5293436" y="56030"/>
-          <a:ext cx="4478156" cy="391804"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1050" b="1" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1050" b="1" i="0" u="sng" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>Độc lập - Tự do - Hạnh phúc</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7212,88 +7025,98 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="233"/>
-    <col min="2" max="2" width="12" style="233" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="233" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="233" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="233" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" style="233" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="233" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="233"/>
+    <col min="1" max="1" width="9.140625" style="231"/>
+    <col min="2" max="2" width="12" style="231" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="231" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="231" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="231" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="231" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="231" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="231"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="38"/>
       <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="210"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75">
+      <c r="C1" s="325" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1" s="326" t="s">
+        <v>450</v>
+      </c>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="210"/>
+      <c r="C2" s="327" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2" s="328" t="s">
+        <v>451</v>
+      </c>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="38"/>
       <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="211"/>
+      <c r="C3" s="327" t="s">
+        <v>449</v>
+      </c>
+      <c r="D3" s="329"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="331"/>
     </row>
     <row r="4" spans="1:6" ht="18.75">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="235" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="237"/>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="235"/>
     </row>
     <row r="5" spans="1:6" ht="18.75">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="235" t="s">
         <v>444</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
+      <c r="B5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="212"/>
-      <c r="F6" s="214"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="210"/>
+      <c r="F6" s="212"/>
     </row>
     <row r="7" spans="1:6" ht="47.25">
       <c r="A7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="238" t="s">
+      <c r="B7" s="236" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="239"/>
-      <c r="D7" s="232" t="s">
+      <c r="C7" s="237"/>
+      <c r="D7" s="230" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="232" t="s">
+      <c r="E7" s="230" t="s">
         <v>192</v>
       </c>
       <c r="F7" s="72" t="s">
@@ -7302,103 +7125,105 @@
     </row>
     <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="45"/>
-      <c r="B8" s="216"/>
+      <c r="B8" s="214"/>
       <c r="C8" s="55"/>
-      <c r="D8" s="217" t="s">
+      <c r="D8" s="215" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="215">
+      <c r="E8" s="213">
         <v>0</v>
       </c>
-      <c r="F8" s="230"/>
+      <c r="F8" s="228"/>
     </row>
     <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="45"/>
-      <c r="B9" s="216"/>
+      <c r="B9" s="214"/>
       <c r="C9" s="55"/>
       <c r="D9" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="215">
+      <c r="E9" s="213">
         <v>0</v>
       </c>
-      <c r="F9" s="230"/>
+      <c r="F9" s="228"/>
     </row>
     <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="45"/>
-      <c r="B10" s="216"/>
+      <c r="B10" s="214"/>
       <c r="C10" s="55"/>
       <c r="D10" s="96" t="s">
         <v>232</v>
       </c>
-      <c r="E10" s="215">
+      <c r="E10" s="213">
         <f>E8-E9</f>
         <v>0</v>
       </c>
-      <c r="F10" s="230"/>
+      <c r="F10" s="228"/>
     </row>
     <row r="11" spans="1:6" ht="31.5">
       <c r="A11" s="45"/>
-      <c r="B11" s="216"/>
+      <c r="B11" s="214"/>
       <c r="C11" s="55"/>
       <c r="D11" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="E11" s="215"/>
-      <c r="F11" s="230"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="228"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A12" s="224"/>
-      <c r="B12" s="225"/>
-      <c r="C12" s="226"/>
-      <c r="D12" s="227"/>
-      <c r="E12" s="228"/>
-      <c r="F12" s="229"/>
+      <c r="A12" s="222"/>
+      <c r="B12" s="223"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="225"/>
+      <c r="E12" s="226"/>
+      <c r="F12" s="227"/>
     </row>
     <row r="13" spans="1:6" ht="15.75">
-      <c r="A13" s="218"/>
-      <c r="B13" s="219"/>
-      <c r="C13" s="220"/>
-      <c r="D13" s="240" t="str">
+      <c r="A13" s="216"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="238" t="str">
         <f ca="1">"TP. Hồ Chí Minh, ngày "&amp;TEXT(DAY(TODAY()),"00")&amp;" tháng "&amp;TEXT(MONTH(TODAY()),"00")&amp;" năm "&amp;YEAR(TODAY())</f>
         <v>TP. Hồ Chí Minh, ngày 31 tháng 05 năm 2022</v>
       </c>
-      <c r="E13" s="240"/>
-      <c r="F13" s="240"/>
+      <c r="E13" s="238"/>
+      <c r="F13" s="238"/>
     </row>
     <row r="14" spans="1:6" ht="15.75">
-      <c r="A14" s="218"/>
+      <c r="A14" s="216"/>
       <c r="B14" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C14" s="220"/>
-      <c r="D14" s="221"/>
-      <c r="E14" s="222"/>
-      <c r="F14" s="223"/>
+      <c r="C14" s="218"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="220"/>
+      <c r="F14" s="221"/>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="234"/>
+      <c r="C17" s="232"/>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="234"/>
+      <c r="C18" s="232"/>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="235"/>
+      <c r="C19" s="233"/>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="236"/>
+      <c r="C20" s="234"/>
     </row>
     <row r="22" spans="3:6" ht="15.75">
-      <c r="F22" s="231" t="s">
+      <c r="F22" s="229" t="s">
         <v>446</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <phoneticPr fontId="58"/>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.35433070866141736" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7460,25 +7285,25 @@
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="235" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="237"/>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="235"/>
+      <c r="D4" s="235"/>
+      <c r="E4" s="235"/>
+      <c r="F4" s="235"/>
       <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="235" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="237"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
+      <c r="B5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
       <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
@@ -7496,10 +7321,10 @@
       <c r="A7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="242" t="s">
+      <c r="B7" s="240" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="243"/>
+      <c r="C7" s="241"/>
       <c r="D7" s="44" t="s">
         <v>191</v>
       </c>
@@ -15761,11 +15586,11 @@
       <c r="F567" s="65"/>
     </row>
     <row r="568" spans="1:6" s="10" customFormat="1" ht="20.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A568" s="244">
+      <c r="A568" s="242">
         <v>2</v>
       </c>
       <c r="B568" s="46"/>
-      <c r="C568" s="246" t="s">
+      <c r="C568" s="244" t="s">
         <v>234</v>
       </c>
       <c r="D568" s="98" t="s">
@@ -15775,9 +15600,9 @@
       <c r="F568" s="67"/>
     </row>
     <row r="569" spans="1:6" s="10" customFormat="1" ht="20.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A569" s="244"/>
+      <c r="A569" s="242"/>
       <c r="B569" s="46"/>
-      <c r="C569" s="246"/>
+      <c r="C569" s="244"/>
       <c r="D569" s="96" t="s">
         <v>4</v>
       </c>
@@ -15785,9 +15610,9 @@
       <c r="F569" s="64"/>
     </row>
     <row r="570" spans="1:6" s="15" customFormat="1" ht="20.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A570" s="244"/>
+      <c r="A570" s="242"/>
       <c r="B570" s="47"/>
-      <c r="C570" s="246"/>
+      <c r="C570" s="244"/>
       <c r="D570" s="96" t="s">
         <v>232</v>
       </c>
@@ -15795,9 +15620,9 @@
       <c r="F570" s="64"/>
     </row>
     <row r="571" spans="1:6" s="15" customFormat="1" ht="35.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A571" s="245"/>
+      <c r="A571" s="243"/>
       <c r="B571" s="48"/>
-      <c r="C571" s="247"/>
+      <c r="C571" s="245"/>
       <c r="D571" s="97" t="s">
         <v>233</v>
       </c>
@@ -15808,12 +15633,12 @@
       <c r="A572" s="49"/>
       <c r="B572" s="50"/>
       <c r="C572" s="51"/>
-      <c r="D572" s="241" t="str">
+      <c r="D572" s="239" t="str">
         <f ca="1">"TP. Hồ Chí Minh, ngày "&amp;TEXT(DAY(TODAY()),"00")&amp;" tháng "&amp;TEXT(MONTH(TODAY()),"00")&amp;" năm "&amp;YEAR(TODAY())</f>
         <v>TP. Hồ Chí Minh, ngày 31 tháng 05 năm 2022</v>
       </c>
-      <c r="E572" s="241"/>
-      <c r="F572" s="241"/>
+      <c r="E572" s="239"/>
+      <c r="F572" s="239"/>
     </row>
     <row r="573" spans="1:6" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A573" s="3" t="s">
@@ -23144,11 +22969,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="246" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -23156,30 +22981,30 @@
       <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="42" customHeight="1">
-      <c r="A2" s="310" t="s">
+      <c r="A2" s="247" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="310"/>
-      <c r="G2" s="310"/>
-      <c r="H2" s="310"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="14.25">
-      <c r="A3" s="311" t="s">
+      <c r="A3" s="248" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311"/>
-      <c r="F3" s="311"/>
-      <c r="G3" s="311"/>
-      <c r="H3" s="311"/>
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="248"/>
+      <c r="F3" s="248"/>
+      <c r="G3" s="248"/>
+      <c r="H3" s="248"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="19"/>
@@ -23218,23 +23043,23 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A6" s="314">
+      <c r="A6" s="251">
         <v>1</v>
       </c>
-      <c r="B6" s="318" t="s">
+      <c r="B6" s="255" t="s">
         <v>107</v>
       </c>
       <c r="C6" s="101"/>
       <c r="D6" s="102"/>
-      <c r="E6" s="320">
+      <c r="E6" s="257">
         <f>D7</f>
         <v>29</v>
       </c>
-      <c r="F6" s="322">
+      <c r="F6" s="259">
         <f>587/12*9.5</f>
         <v>464.70833333333331</v>
       </c>
-      <c r="G6" s="320">
+      <c r="G6" s="257">
         <f>E6-F6</f>
         <v>-435.70833333333331</v>
       </c>
@@ -23243,26 +23068,26 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A7" s="315"/>
-      <c r="B7" s="319"/>
+      <c r="A7" s="252"/>
+      <c r="B7" s="256"/>
       <c r="C7" s="104" t="s">
         <v>388</v>
       </c>
       <c r="D7" s="105">
         <v>29</v>
       </c>
-      <c r="E7" s="321"/>
-      <c r="F7" s="323"/>
-      <c r="G7" s="321"/>
+      <c r="E7" s="258"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="258"/>
       <c r="H7" s="106" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A8" s="312">
+      <c r="A8" s="249">
         <v>2</v>
       </c>
-      <c r="B8" s="313" t="s">
+      <c r="B8" s="250" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="107" t="s">
@@ -23271,56 +23096,56 @@
       <c r="D8" s="108">
         <v>569.98</v>
       </c>
-      <c r="E8" s="316">
+      <c r="E8" s="253">
         <f>D8+D9+D10</f>
         <v>1098.28</v>
       </c>
-      <c r="F8" s="317">
+      <c r="F8" s="254">
         <v>587</v>
       </c>
-      <c r="G8" s="316">
+      <c r="G8" s="253">
         <f>E8-F8</f>
         <v>511.28</v>
       </c>
       <c r="H8" s="103"/>
     </row>
     <row r="9" spans="1:10" ht="110.25" customHeight="1">
-      <c r="A9" s="312"/>
-      <c r="B9" s="313"/>
+      <c r="A9" s="249"/>
+      <c r="B9" s="250"/>
       <c r="C9" s="107" t="s">
         <v>124</v>
       </c>
       <c r="D9" s="108">
         <v>469.3</v>
       </c>
-      <c r="E9" s="316"/>
-      <c r="F9" s="317"/>
-      <c r="G9" s="316"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="253"/>
       <c r="H9" s="103" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A10" s="312"/>
-      <c r="B10" s="313"/>
+      <c r="A10" s="249"/>
+      <c r="B10" s="250"/>
       <c r="C10" s="109" t="s">
         <v>125</v>
       </c>
       <c r="D10" s="108">
         <v>59</v>
       </c>
-      <c r="E10" s="316"/>
-      <c r="F10" s="317"/>
-      <c r="G10" s="316"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="253"/>
       <c r="H10" s="103" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A11" s="257">
+      <c r="A11" s="311">
         <v>3</v>
       </c>
-      <c r="B11" s="272" t="s">
+      <c r="B11" s="280" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="104" t="s">
@@ -23329,104 +23154,104 @@
       <c r="D11" s="105">
         <v>977.5</v>
       </c>
-      <c r="E11" s="303">
+      <c r="E11" s="281">
         <f>D11+D12+D13+D14+D15+D16</f>
         <v>1170.2</v>
       </c>
-      <c r="F11" s="304">
+      <c r="F11" s="282">
         <v>587</v>
       </c>
-      <c r="G11" s="304">
+      <c r="G11" s="282">
         <f>E11-F11</f>
         <v>583.20000000000005</v>
       </c>
       <c r="H11" s="111"/>
     </row>
     <row r="12" spans="1:10" ht="76.5">
-      <c r="A12" s="257"/>
-      <c r="B12" s="272"/>
+      <c r="A12" s="311"/>
+      <c r="B12" s="280"/>
       <c r="C12" s="104" t="s">
         <v>391</v>
       </c>
       <c r="D12" s="105">
         <v>32.700000000000003</v>
       </c>
-      <c r="E12" s="303"/>
-      <c r="F12" s="304"/>
-      <c r="G12" s="304"/>
+      <c r="E12" s="281"/>
+      <c r="F12" s="282"/>
+      <c r="G12" s="282"/>
       <c r="H12" s="111" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="76.5">
-      <c r="A13" s="257"/>
-      <c r="B13" s="272"/>
+      <c r="A13" s="311"/>
+      <c r="B13" s="280"/>
       <c r="C13" s="104" t="s">
         <v>392</v>
       </c>
       <c r="D13" s="105">
         <v>32.700000000000003</v>
       </c>
-      <c r="E13" s="303"/>
-      <c r="F13" s="304"/>
-      <c r="G13" s="304"/>
+      <c r="E13" s="281"/>
+      <c r="F13" s="282"/>
+      <c r="G13" s="282"/>
       <c r="H13" s="111" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A14" s="257"/>
-      <c r="B14" s="272"/>
+      <c r="A14" s="311"/>
+      <c r="B14" s="280"/>
       <c r="C14" s="104" t="s">
         <v>290</v>
       </c>
       <c r="D14" s="105">
         <v>59</v>
       </c>
-      <c r="E14" s="303"/>
-      <c r="F14" s="304"/>
-      <c r="G14" s="304"/>
+      <c r="E14" s="281"/>
+      <c r="F14" s="282"/>
+      <c r="G14" s="282"/>
       <c r="H14" s="111" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5">
-      <c r="A15" s="257"/>
-      <c r="B15" s="272"/>
+      <c r="A15" s="311"/>
+      <c r="B15" s="280"/>
       <c r="C15" s="104" t="s">
         <v>388</v>
       </c>
       <c r="D15" s="105">
         <v>29</v>
       </c>
-      <c r="E15" s="303"/>
-      <c r="F15" s="304"/>
-      <c r="G15" s="304"/>
+      <c r="E15" s="281"/>
+      <c r="F15" s="282"/>
+      <c r="G15" s="282"/>
       <c r="H15" s="111" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="63.75">
-      <c r="A16" s="257"/>
-      <c r="B16" s="272"/>
+      <c r="A16" s="311"/>
+      <c r="B16" s="280"/>
       <c r="C16" s="104" t="s">
         <v>394</v>
       </c>
       <c r="D16" s="105">
         <v>39.299999999999997</v>
       </c>
-      <c r="E16" s="303"/>
-      <c r="F16" s="304"/>
-      <c r="G16" s="304"/>
+      <c r="E16" s="281"/>
+      <c r="F16" s="282"/>
+      <c r="G16" s="282"/>
       <c r="H16" s="111" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A17" s="257">
+      <c r="A17" s="311">
         <v>4</v>
       </c>
-      <c r="B17" s="272" t="s">
+      <c r="B17" s="280" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="104" t="s">
@@ -23435,14 +23260,14 @@
       <c r="D17" s="112">
         <v>841</v>
       </c>
-      <c r="E17" s="271">
+      <c r="E17" s="283">
         <f>D17+D18+D19</f>
         <v>1591.9</v>
       </c>
-      <c r="F17" s="305">
+      <c r="F17" s="284">
         <v>0</v>
       </c>
-      <c r="G17" s="306">
+      <c r="G17" s="285">
         <f>E17-F17</f>
         <v>1591.9</v>
       </c>
@@ -23451,42 +23276,42 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="76.5">
-      <c r="A18" s="257"/>
-      <c r="B18" s="272"/>
+      <c r="A18" s="311"/>
+      <c r="B18" s="280"/>
       <c r="C18" s="104" t="s">
         <v>127</v>
       </c>
       <c r="D18" s="112">
         <v>469.3</v>
       </c>
-      <c r="E18" s="271"/>
-      <c r="F18" s="305"/>
-      <c r="G18" s="306"/>
+      <c r="E18" s="283"/>
+      <c r="F18" s="284"/>
+      <c r="G18" s="285"/>
       <c r="H18" s="111" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="51">
-      <c r="A19" s="257"/>
-      <c r="B19" s="272"/>
+      <c r="A19" s="311"/>
+      <c r="B19" s="280"/>
       <c r="C19" s="104" t="s">
         <v>128</v>
       </c>
       <c r="D19" s="112">
         <v>281.60000000000002</v>
       </c>
-      <c r="E19" s="271"/>
-      <c r="F19" s="305"/>
-      <c r="G19" s="306"/>
+      <c r="E19" s="283"/>
+      <c r="F19" s="284"/>
+      <c r="G19" s="285"/>
       <c r="H19" s="111" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A20" s="257">
+      <c r="A20" s="311">
         <v>5</v>
       </c>
-      <c r="B20" s="272" t="s">
+      <c r="B20" s="280" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="104" t="s">
@@ -23495,104 +23320,104 @@
       <c r="D20" s="112">
         <v>9.65</v>
       </c>
-      <c r="E20" s="271">
+      <c r="E20" s="283">
         <f>D20+D21+D22+D23+D24+D25</f>
         <v>1021.75</v>
       </c>
-      <c r="F20" s="307">
+      <c r="F20" s="286">
         <v>587</v>
       </c>
-      <c r="G20" s="271">
+      <c r="G20" s="283">
         <f>E20-F20</f>
         <v>434.75</v>
       </c>
       <c r="H20" s="111"/>
     </row>
     <row r="21" spans="1:8" ht="76.5">
-      <c r="A21" s="257"/>
-      <c r="B21" s="272"/>
+      <c r="A21" s="311"/>
+      <c r="B21" s="280"/>
       <c r="C21" s="104" t="s">
         <v>392</v>
       </c>
       <c r="D21" s="112">
         <v>13.1</v>
       </c>
-      <c r="E21" s="271"/>
-      <c r="F21" s="307"/>
-      <c r="G21" s="271"/>
+      <c r="E21" s="283"/>
+      <c r="F21" s="286"/>
+      <c r="G21" s="283"/>
       <c r="H21" s="111" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="51">
-      <c r="A22" s="257"/>
-      <c r="B22" s="272"/>
+      <c r="A22" s="311"/>
+      <c r="B22" s="280"/>
       <c r="C22" s="104" t="s">
         <v>395</v>
       </c>
       <c r="D22" s="112">
         <v>59</v>
       </c>
-      <c r="E22" s="271"/>
-      <c r="F22" s="307"/>
-      <c r="G22" s="271"/>
+      <c r="E22" s="283"/>
+      <c r="F22" s="286"/>
+      <c r="G22" s="283"/>
       <c r="H22" s="111" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="38.25">
-      <c r="A23" s="257"/>
-      <c r="B23" s="272"/>
+      <c r="A23" s="311"/>
+      <c r="B23" s="280"/>
       <c r="C23" s="104" t="s">
         <v>397</v>
       </c>
       <c r="D23" s="112">
         <v>59</v>
       </c>
-      <c r="E23" s="271"/>
-      <c r="F23" s="307"/>
-      <c r="G23" s="271"/>
+      <c r="E23" s="283"/>
+      <c r="F23" s="286"/>
+      <c r="G23" s="283"/>
       <c r="H23" s="111" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="69.75" customHeight="1">
-      <c r="A24" s="257"/>
-      <c r="B24" s="272"/>
+      <c r="A24" s="311"/>
+      <c r="B24" s="280"/>
       <c r="C24" s="104" t="s">
         <v>399</v>
       </c>
       <c r="D24" s="112">
         <v>822</v>
       </c>
-      <c r="E24" s="271"/>
-      <c r="F24" s="307"/>
-      <c r="G24" s="271"/>
+      <c r="E24" s="283"/>
+      <c r="F24" s="286"/>
+      <c r="G24" s="283"/>
       <c r="H24" s="111" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="76.5" customHeight="1">
-      <c r="A25" s="257"/>
-      <c r="B25" s="272"/>
+      <c r="A25" s="311"/>
+      <c r="B25" s="280"/>
       <c r="C25" s="104" t="s">
         <v>310</v>
       </c>
       <c r="D25" s="112">
         <v>59</v>
       </c>
-      <c r="E25" s="271"/>
-      <c r="F25" s="307"/>
-      <c r="G25" s="271"/>
+      <c r="E25" s="283"/>
+      <c r="F25" s="286"/>
+      <c r="G25" s="283"/>
       <c r="H25" s="111" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A26" s="257">
+      <c r="A26" s="311">
         <v>6</v>
       </c>
-      <c r="B26" s="308" t="s">
+      <c r="B26" s="287" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="115" t="s">
@@ -23601,95 +23426,95 @@
       <c r="D26" s="116">
         <v>31</v>
       </c>
-      <c r="E26" s="256">
+      <c r="E26" s="267">
         <f>SUM(D26:D31)</f>
         <v>1015.9</v>
       </c>
-      <c r="F26" s="264">
+      <c r="F26" s="288">
         <v>587</v>
       </c>
-      <c r="G26" s="256">
+      <c r="G26" s="267">
         <f>E26-F26</f>
         <v>428.9</v>
       </c>
       <c r="H26" s="117"/>
     </row>
     <row r="27" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A27" s="257"/>
-      <c r="B27" s="308"/>
+      <c r="A27" s="311"/>
+      <c r="B27" s="287"/>
       <c r="C27" s="104" t="s">
         <v>170</v>
       </c>
       <c r="D27" s="118">
         <v>78</v>
       </c>
-      <c r="E27" s="256"/>
-      <c r="F27" s="264"/>
-      <c r="G27" s="256"/>
+      <c r="E27" s="267"/>
+      <c r="F27" s="288"/>
+      <c r="G27" s="267"/>
       <c r="H27" s="119" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25.5">
-      <c r="A28" s="257"/>
-      <c r="B28" s="308"/>
+      <c r="A28" s="311"/>
+      <c r="B28" s="287"/>
       <c r="C28" s="120" t="s">
         <v>131</v>
       </c>
       <c r="D28" s="121">
         <v>58.7</v>
       </c>
-      <c r="E28" s="256"/>
-      <c r="F28" s="264"/>
-      <c r="G28" s="256"/>
+      <c r="E28" s="267"/>
+      <c r="F28" s="288"/>
+      <c r="G28" s="267"/>
       <c r="H28" s="119" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="110.25" customHeight="1">
-      <c r="A29" s="257"/>
-      <c r="B29" s="308"/>
+      <c r="A29" s="311"/>
+      <c r="B29" s="287"/>
       <c r="C29" s="122" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="123">
         <v>104.8</v>
       </c>
-      <c r="E29" s="256"/>
-      <c r="F29" s="264"/>
-      <c r="G29" s="256"/>
+      <c r="E29" s="267"/>
+      <c r="F29" s="288"/>
+      <c r="G29" s="267"/>
       <c r="H29" s="124" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A30" s="257"/>
-      <c r="B30" s="308"/>
+      <c r="A30" s="311"/>
+      <c r="B30" s="287"/>
       <c r="C30" s="122" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="123">
         <v>234.7</v>
       </c>
-      <c r="E30" s="256"/>
-      <c r="F30" s="264"/>
-      <c r="G30" s="256"/>
+      <c r="E30" s="267"/>
+      <c r="F30" s="288"/>
+      <c r="G30" s="267"/>
       <c r="H30" s="115" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A31" s="257"/>
-      <c r="B31" s="308"/>
+      <c r="A31" s="311"/>
+      <c r="B31" s="287"/>
       <c r="C31" s="115" t="s">
         <v>133</v>
       </c>
       <c r="D31" s="123">
         <v>508.7</v>
       </c>
-      <c r="E31" s="256"/>
-      <c r="F31" s="264"/>
-      <c r="G31" s="256"/>
+      <c r="E31" s="267"/>
+      <c r="F31" s="288"/>
+      <c r="G31" s="267"/>
       <c r="H31" s="125" t="s">
         <v>134</v>
       </c>
@@ -23719,10 +23544,10 @@
       <c r="H32" s="111"/>
     </row>
     <row r="33" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A33" s="250">
+      <c r="A33" s="312">
         <v>8</v>
       </c>
-      <c r="B33" s="258" t="s">
+      <c r="B33" s="268" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="126" t="s">
@@ -23735,7 +23560,7 @@
         <f>SUM(D33:D35)</f>
         <v>834.40000000000009</v>
       </c>
-      <c r="F33" s="275">
+      <c r="F33" s="264">
         <v>587</v>
       </c>
       <c r="G33" s="261">
@@ -23747,8 +23572,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A34" s="251"/>
-      <c r="B34" s="259"/>
+      <c r="A34" s="313"/>
+      <c r="B34" s="269"/>
       <c r="C34" s="104" t="s">
         <v>376</v>
       </c>
@@ -23756,13 +23581,13 @@
         <v>13.1</v>
       </c>
       <c r="E34" s="262"/>
-      <c r="F34" s="276"/>
+      <c r="F34" s="265"/>
       <c r="G34" s="262"/>
       <c r="H34" s="117"/>
     </row>
     <row r="35" spans="1:8" ht="38.25">
-      <c r="A35" s="252"/>
-      <c r="B35" s="260"/>
+      <c r="A35" s="314"/>
+      <c r="B35" s="270"/>
       <c r="C35" s="104" t="s">
         <v>402</v>
       </c>
@@ -23770,17 +23595,17 @@
         <v>469.3</v>
       </c>
       <c r="E35" s="263"/>
-      <c r="F35" s="277"/>
+      <c r="F35" s="266"/>
       <c r="G35" s="263"/>
       <c r="H35" s="115" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A36" s="250">
+      <c r="A36" s="312">
         <v>9</v>
       </c>
-      <c r="B36" s="258" t="s">
+      <c r="B36" s="268" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="104" t="s">
@@ -23789,14 +23614,14 @@
       <c r="D36" s="112">
         <v>19.7</v>
       </c>
-      <c r="E36" s="267">
+      <c r="E36" s="271">
         <f>SUM(D36:D42)</f>
         <v>415.4</v>
       </c>
-      <c r="F36" s="297">
+      <c r="F36" s="274">
         <v>587</v>
       </c>
-      <c r="G36" s="300">
+      <c r="G36" s="277">
         <f>E36-F36</f>
         <v>-171.60000000000002</v>
       </c>
@@ -23805,104 +23630,104 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A37" s="251"/>
-      <c r="B37" s="259"/>
+      <c r="A37" s="313"/>
+      <c r="B37" s="269"/>
       <c r="C37" s="104" t="s">
         <v>298</v>
       </c>
       <c r="D37" s="112">
         <v>59</v>
       </c>
-      <c r="E37" s="268"/>
-      <c r="F37" s="298"/>
-      <c r="G37" s="301"/>
+      <c r="E37" s="272"/>
+      <c r="F37" s="275"/>
+      <c r="G37" s="278"/>
       <c r="H37" s="111" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A38" s="251"/>
-      <c r="B38" s="259"/>
+      <c r="A38" s="313"/>
+      <c r="B38" s="269"/>
       <c r="C38" s="104" t="s">
         <v>300</v>
       </c>
       <c r="D38" s="112">
         <v>59</v>
       </c>
-      <c r="E38" s="268"/>
-      <c r="F38" s="298"/>
-      <c r="G38" s="301"/>
+      <c r="E38" s="272"/>
+      <c r="F38" s="275"/>
+      <c r="G38" s="278"/>
       <c r="H38" s="111" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="63.75">
-      <c r="A39" s="251"/>
-      <c r="B39" s="259"/>
+      <c r="A39" s="313"/>
+      <c r="B39" s="269"/>
       <c r="C39" s="104" t="s">
         <v>136</v>
       </c>
       <c r="D39" s="112">
         <v>23.5</v>
       </c>
-      <c r="E39" s="268"/>
-      <c r="F39" s="298"/>
-      <c r="G39" s="301"/>
+      <c r="E39" s="272"/>
+      <c r="F39" s="275"/>
+      <c r="G39" s="278"/>
       <c r="H39" s="111" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="63.75">
-      <c r="A40" s="251"/>
-      <c r="B40" s="259"/>
+      <c r="A40" s="313"/>
+      <c r="B40" s="269"/>
       <c r="C40" s="104" t="s">
         <v>137</v>
       </c>
       <c r="D40" s="112">
         <v>39.1</v>
       </c>
-      <c r="E40" s="268"/>
-      <c r="F40" s="298"/>
-      <c r="G40" s="301"/>
+      <c r="E40" s="272"/>
+      <c r="F40" s="275"/>
+      <c r="G40" s="278"/>
       <c r="H40" s="111" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A41" s="251"/>
-      <c r="B41" s="259"/>
+      <c r="A41" s="313"/>
+      <c r="B41" s="269"/>
       <c r="C41" s="104" t="s">
         <v>138</v>
       </c>
       <c r="D41" s="112">
         <v>58.7</v>
       </c>
-      <c r="E41" s="268"/>
-      <c r="F41" s="298"/>
-      <c r="G41" s="301"/>
+      <c r="E41" s="272"/>
+      <c r="F41" s="275"/>
+      <c r="G41" s="278"/>
       <c r="H41" s="111" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A42" s="252"/>
-      <c r="B42" s="260"/>
+      <c r="A42" s="314"/>
+      <c r="B42" s="270"/>
       <c r="C42" s="107" t="s">
         <v>404</v>
       </c>
       <c r="D42" s="112">
         <v>156.4</v>
       </c>
-      <c r="E42" s="296"/>
-      <c r="F42" s="299"/>
-      <c r="G42" s="302"/>
+      <c r="E42" s="273"/>
+      <c r="F42" s="276"/>
+      <c r="G42" s="279"/>
       <c r="H42" s="111"/>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A43" s="249">
+      <c r="A43" s="320">
         <v>10</v>
       </c>
-      <c r="B43" s="272" t="s">
+      <c r="B43" s="280" t="s">
         <v>258</v>
       </c>
       <c r="C43" s="104" t="s">
@@ -23911,88 +23736,88 @@
       <c r="D43" s="112">
         <v>109.5</v>
       </c>
-      <c r="E43" s="271">
+      <c r="E43" s="283">
         <f>D43+D44+D45+D46+D47</f>
         <v>650.90000000000009</v>
       </c>
-      <c r="F43" s="278">
+      <c r="F43" s="289">
         <v>587</v>
       </c>
-      <c r="G43" s="279">
+      <c r="G43" s="290">
         <f>E43-F43</f>
         <v>63.900000000000091</v>
       </c>
       <c r="H43" s="111"/>
     </row>
     <row r="44" spans="1:8" ht="63.75">
-      <c r="A44" s="249"/>
-      <c r="B44" s="272"/>
+      <c r="A44" s="320"/>
+      <c r="B44" s="280"/>
       <c r="C44" s="104" t="s">
         <v>139</v>
       </c>
       <c r="D44" s="112">
         <v>117.3</v>
       </c>
-      <c r="E44" s="271"/>
-      <c r="F44" s="278"/>
-      <c r="G44" s="280"/>
+      <c r="E44" s="283"/>
+      <c r="F44" s="289"/>
+      <c r="G44" s="291"/>
       <c r="H44" s="111" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="63.75">
-      <c r="A45" s="249"/>
-      <c r="B45" s="272"/>
+      <c r="A45" s="320"/>
+      <c r="B45" s="280"/>
       <c r="C45" s="104" t="s">
         <v>140</v>
       </c>
       <c r="D45" s="112">
         <v>117.3</v>
       </c>
-      <c r="E45" s="271"/>
-      <c r="F45" s="278"/>
-      <c r="G45" s="280"/>
+      <c r="E45" s="283"/>
+      <c r="F45" s="289"/>
+      <c r="G45" s="291"/>
       <c r="H45" s="111" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A46" s="249"/>
-      <c r="B46" s="272"/>
+      <c r="A46" s="320"/>
+      <c r="B46" s="280"/>
       <c r="C46" s="104" t="s">
         <v>376</v>
       </c>
       <c r="D46" s="112">
         <v>32.799999999999997</v>
       </c>
-      <c r="E46" s="271"/>
-      <c r="F46" s="278"/>
-      <c r="G46" s="280"/>
+      <c r="E46" s="283"/>
+      <c r="F46" s="289"/>
+      <c r="G46" s="291"/>
       <c r="H46" s="111" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A47" s="249"/>
-      <c r="B47" s="272"/>
+      <c r="A47" s="320"/>
+      <c r="B47" s="280"/>
       <c r="C47" s="127" t="s">
         <v>405</v>
       </c>
       <c r="D47" s="112">
         <v>274</v>
       </c>
-      <c r="E47" s="271"/>
-      <c r="F47" s="278"/>
-      <c r="G47" s="280"/>
+      <c r="E47" s="283"/>
+      <c r="F47" s="289"/>
+      <c r="G47" s="291"/>
       <c r="H47" s="111" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A48" s="250">
+      <c r="A48" s="312">
         <v>11</v>
       </c>
-      <c r="B48" s="258" t="s">
+      <c r="B48" s="268" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="120" t="s">
@@ -24001,14 +23826,14 @@
       <c r="D48" s="128">
         <v>59</v>
       </c>
-      <c r="E48" s="275">
+      <c r="E48" s="264">
         <f>SUM(D48:D51)</f>
         <v>881</v>
       </c>
-      <c r="F48" s="281">
+      <c r="F48" s="292">
         <v>587</v>
       </c>
-      <c r="G48" s="281">
+      <c r="G48" s="292">
         <f>E48-F48</f>
         <v>294</v>
       </c>
@@ -24017,58 +23842,58 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="51">
-      <c r="A49" s="251"/>
-      <c r="B49" s="259"/>
+      <c r="A49" s="313"/>
+      <c r="B49" s="269"/>
       <c r="C49" s="120" t="s">
         <v>408</v>
       </c>
       <c r="D49" s="128">
         <v>59</v>
       </c>
-      <c r="E49" s="276"/>
-      <c r="F49" s="282"/>
-      <c r="G49" s="282"/>
+      <c r="E49" s="265"/>
+      <c r="F49" s="293"/>
+      <c r="G49" s="293"/>
       <c r="H49" s="129" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A50" s="251"/>
-      <c r="B50" s="259"/>
+      <c r="A50" s="313"/>
+      <c r="B50" s="269"/>
       <c r="C50" s="120" t="s">
         <v>410</v>
       </c>
       <c r="D50" s="128">
         <v>59</v>
       </c>
-      <c r="E50" s="276"/>
-      <c r="F50" s="282"/>
-      <c r="G50" s="282"/>
+      <c r="E50" s="265"/>
+      <c r="F50" s="293"/>
+      <c r="G50" s="293"/>
       <c r="H50" s="129" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A51" s="252"/>
-      <c r="B51" s="260"/>
+      <c r="A51" s="314"/>
+      <c r="B51" s="270"/>
       <c r="C51" s="120" t="s">
         <v>412</v>
       </c>
       <c r="D51" s="128">
         <v>704</v>
       </c>
-      <c r="E51" s="277"/>
-      <c r="F51" s="283"/>
-      <c r="G51" s="283"/>
+      <c r="E51" s="266"/>
+      <c r="F51" s="294"/>
+      <c r="G51" s="294"/>
       <c r="H51" s="129" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A52" s="249">
+      <c r="A52" s="320">
         <v>12</v>
       </c>
-      <c r="B52" s="253" t="s">
+      <c r="B52" s="307" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="130" t="s">
@@ -24077,153 +23902,153 @@
       <c r="D52" s="118">
         <v>248.5</v>
       </c>
-      <c r="E52" s="256">
+      <c r="E52" s="267">
         <f>SUM(D52:D60)</f>
         <v>1463.5</v>
       </c>
-      <c r="F52" s="256">
+      <c r="F52" s="267">
         <f>587</f>
         <v>587</v>
       </c>
-      <c r="G52" s="256">
+      <c r="G52" s="267">
         <f>E52-F52</f>
         <v>876.5</v>
       </c>
       <c r="H52" s="119"/>
     </row>
     <row r="53" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A53" s="249"/>
-      <c r="B53" s="253"/>
+      <c r="A53" s="320"/>
+      <c r="B53" s="307"/>
       <c r="C53" s="131" t="s">
         <v>141</v>
       </c>
       <c r="D53" s="118">
         <v>59</v>
       </c>
-      <c r="E53" s="256"/>
-      <c r="F53" s="256"/>
-      <c r="G53" s="256"/>
+      <c r="E53" s="267"/>
+      <c r="F53" s="267"/>
+      <c r="G53" s="267"/>
       <c r="H53" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A54" s="249"/>
-      <c r="B54" s="253"/>
+      <c r="A54" s="320"/>
+      <c r="B54" s="307"/>
       <c r="C54" s="131" t="s">
         <v>143</v>
       </c>
       <c r="D54" s="118">
         <v>59</v>
       </c>
-      <c r="E54" s="256"/>
-      <c r="F54" s="256"/>
-      <c r="G54" s="256"/>
+      <c r="E54" s="267"/>
+      <c r="F54" s="267"/>
+      <c r="G54" s="267"/>
       <c r="H54" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A55" s="249"/>
-      <c r="B55" s="253"/>
+      <c r="A55" s="320"/>
+      <c r="B55" s="307"/>
       <c r="C55" s="131" t="s">
         <v>144</v>
       </c>
       <c r="D55" s="118">
         <v>59</v>
       </c>
-      <c r="E55" s="256"/>
-      <c r="F55" s="256"/>
-      <c r="G55" s="256"/>
+      <c r="E55" s="267"/>
+      <c r="F55" s="267"/>
+      <c r="G55" s="267"/>
       <c r="H55" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A56" s="249"/>
-      <c r="B56" s="253"/>
+      <c r="A56" s="320"/>
+      <c r="B56" s="307"/>
       <c r="C56" s="131" t="s">
         <v>145</v>
       </c>
       <c r="D56" s="118">
         <v>29</v>
       </c>
-      <c r="E56" s="256"/>
-      <c r="F56" s="256"/>
-      <c r="G56" s="256"/>
+      <c r="E56" s="267"/>
+      <c r="F56" s="267"/>
+      <c r="G56" s="267"/>
       <c r="H56" s="119" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A57" s="249"/>
-      <c r="B57" s="253"/>
+      <c r="A57" s="320"/>
+      <c r="B57" s="307"/>
       <c r="C57" s="131" t="s">
         <v>146</v>
       </c>
       <c r="D57" s="118">
         <v>94</v>
       </c>
-      <c r="E57" s="256"/>
-      <c r="F57" s="256"/>
-      <c r="G57" s="256"/>
+      <c r="E57" s="267"/>
+      <c r="F57" s="267"/>
+      <c r="G57" s="267"/>
       <c r="H57" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A58" s="249"/>
-      <c r="B58" s="253"/>
+      <c r="A58" s="320"/>
+      <c r="B58" s="307"/>
       <c r="C58" s="131" t="s">
         <v>147</v>
       </c>
       <c r="D58" s="118">
         <v>117</v>
       </c>
-      <c r="E58" s="256"/>
-      <c r="F58" s="256"/>
-      <c r="G58" s="256"/>
+      <c r="E58" s="267"/>
+      <c r="F58" s="267"/>
+      <c r="G58" s="267"/>
       <c r="H58" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="25.5">
-      <c r="A59" s="249"/>
-      <c r="B59" s="253"/>
+      <c r="A59" s="320"/>
+      <c r="B59" s="307"/>
       <c r="C59" s="131" t="s">
         <v>148</v>
       </c>
       <c r="D59" s="118">
         <v>94</v>
       </c>
-      <c r="E59" s="256"/>
-      <c r="F59" s="256"/>
-      <c r="G59" s="256"/>
+      <c r="E59" s="267"/>
+      <c r="F59" s="267"/>
+      <c r="G59" s="267"/>
       <c r="H59" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="51">
-      <c r="A60" s="249"/>
-      <c r="B60" s="253"/>
+      <c r="A60" s="320"/>
+      <c r="B60" s="307"/>
       <c r="C60" s="132" t="s">
         <v>414</v>
       </c>
       <c r="D60" s="121">
         <v>704</v>
       </c>
-      <c r="E60" s="256"/>
-      <c r="F60" s="256"/>
-      <c r="G60" s="256"/>
+      <c r="E60" s="267"/>
+      <c r="F60" s="267"/>
+      <c r="G60" s="267"/>
       <c r="H60" s="119" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A61" s="250">
+      <c r="A61" s="312">
         <v>13</v>
       </c>
-      <c r="B61" s="287" t="s">
+      <c r="B61" s="298" t="s">
         <v>25</v>
       </c>
       <c r="C61" s="131" t="s">
@@ -24232,14 +24057,14 @@
       <c r="D61" s="133">
         <v>117.3</v>
       </c>
-      <c r="E61" s="290">
+      <c r="E61" s="301">
         <f>SUM(D61:D64)</f>
         <v>404.29999999999995</v>
       </c>
-      <c r="F61" s="293">
+      <c r="F61" s="304">
         <v>587</v>
       </c>
-      <c r="G61" s="284">
+      <c r="G61" s="295">
         <f>E61-F61</f>
         <v>-182.70000000000005</v>
       </c>
@@ -24248,58 +24073,58 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="38.25">
-      <c r="A62" s="251"/>
-      <c r="B62" s="288"/>
+      <c r="A62" s="313"/>
+      <c r="B62" s="299"/>
       <c r="C62" s="134" t="s">
         <v>416</v>
       </c>
       <c r="D62" s="135">
         <v>39.299999999999997</v>
       </c>
-      <c r="E62" s="291"/>
-      <c r="F62" s="294"/>
-      <c r="G62" s="285"/>
+      <c r="E62" s="302"/>
+      <c r="F62" s="305"/>
+      <c r="G62" s="296"/>
       <c r="H62" s="119" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="94.5" customHeight="1">
-      <c r="A63" s="251"/>
-      <c r="B63" s="288"/>
+      <c r="A63" s="313"/>
+      <c r="B63" s="299"/>
       <c r="C63" s="104" t="s">
         <v>391</v>
       </c>
       <c r="D63" s="136">
         <v>13.1</v>
       </c>
-      <c r="E63" s="291"/>
-      <c r="F63" s="294"/>
-      <c r="G63" s="285"/>
+      <c r="E63" s="302"/>
+      <c r="F63" s="305"/>
+      <c r="G63" s="296"/>
       <c r="H63" s="111" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="69.75" customHeight="1">
-      <c r="A64" s="252"/>
-      <c r="B64" s="289"/>
+      <c r="A64" s="314"/>
+      <c r="B64" s="300"/>
       <c r="C64" s="104" t="s">
         <v>402</v>
       </c>
       <c r="D64" s="136">
         <v>234.6</v>
       </c>
-      <c r="E64" s="292"/>
-      <c r="F64" s="295"/>
-      <c r="G64" s="286"/>
+      <c r="E64" s="303"/>
+      <c r="F64" s="306"/>
+      <c r="G64" s="297"/>
       <c r="H64" s="111" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="38.25">
-      <c r="A65" s="250">
+      <c r="A65" s="312">
         <v>14</v>
       </c>
-      <c r="B65" s="258" t="s">
+      <c r="B65" s="268" t="s">
         <v>111</v>
       </c>
       <c r="C65" s="104"/>
@@ -24308,7 +24133,7 @@
         <f>SUM(D65:D68)</f>
         <v>300.7</v>
       </c>
-      <c r="F65" s="275">
+      <c r="F65" s="264">
         <f>587/12*5</f>
         <v>244.58333333333331</v>
       </c>
@@ -24321,8 +24146,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="38.25">
-      <c r="A66" s="251"/>
-      <c r="B66" s="259"/>
+      <c r="A66" s="313"/>
+      <c r="B66" s="269"/>
       <c r="C66" s="131" t="s">
         <v>150</v>
       </c>
@@ -24330,15 +24155,15 @@
         <v>59</v>
       </c>
       <c r="E66" s="262"/>
-      <c r="F66" s="276"/>
+      <c r="F66" s="265"/>
       <c r="G66" s="262"/>
       <c r="H66" s="119" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="51">
-      <c r="A67" s="251"/>
-      <c r="B67" s="259"/>
+      <c r="A67" s="313"/>
+      <c r="B67" s="269"/>
       <c r="C67" s="120" t="s">
         <v>152</v>
       </c>
@@ -24346,15 +24171,15 @@
         <v>59</v>
       </c>
       <c r="E67" s="262"/>
-      <c r="F67" s="276"/>
+      <c r="F67" s="265"/>
       <c r="G67" s="262"/>
       <c r="H67" s="119" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A68" s="252"/>
-      <c r="B68" s="260"/>
+      <c r="A68" s="314"/>
+      <c r="B68" s="270"/>
       <c r="C68" s="115" t="s">
         <v>420</v>
       </c>
@@ -24362,17 +24187,17 @@
         <v>182.7</v>
       </c>
       <c r="E68" s="263"/>
-      <c r="F68" s="277"/>
+      <c r="F68" s="266"/>
       <c r="G68" s="263"/>
       <c r="H68" s="138" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A69" s="249">
+      <c r="A69" s="320">
         <v>15</v>
       </c>
-      <c r="B69" s="272" t="s">
+      <c r="B69" s="280" t="s">
         <v>26</v>
       </c>
       <c r="C69" s="139" t="s">
@@ -24381,72 +24206,72 @@
       <c r="D69" s="140">
         <v>82.1</v>
       </c>
-      <c r="E69" s="273">
+      <c r="E69" s="308">
         <f>SUM(D69:D72)</f>
         <v>1588.4</v>
       </c>
-      <c r="F69" s="274">
+      <c r="F69" s="309">
         <v>587</v>
       </c>
-      <c r="G69" s="274">
+      <c r="G69" s="309">
         <f>E69-F69</f>
         <v>1001.4000000000001</v>
       </c>
       <c r="H69" s="139"/>
     </row>
     <row r="70" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A70" s="249"/>
-      <c r="B70" s="272"/>
+      <c r="A70" s="320"/>
+      <c r="B70" s="280"/>
       <c r="C70" s="127" t="s">
         <v>405</v>
       </c>
       <c r="D70" s="140">
         <v>548</v>
       </c>
-      <c r="E70" s="273"/>
-      <c r="F70" s="274"/>
-      <c r="G70" s="274"/>
+      <c r="E70" s="308"/>
+      <c r="F70" s="309"/>
+      <c r="G70" s="309"/>
       <c r="H70" s="139" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A71" s="249"/>
-      <c r="B71" s="272"/>
+      <c r="A71" s="320"/>
+      <c r="B71" s="280"/>
       <c r="C71" s="127" t="s">
         <v>423</v>
       </c>
       <c r="D71" s="140">
         <v>254.3</v>
       </c>
-      <c r="E71" s="273"/>
-      <c r="F71" s="274"/>
-      <c r="G71" s="274"/>
+      <c r="E71" s="308"/>
+      <c r="F71" s="309"/>
+      <c r="G71" s="309"/>
       <c r="H71" s="139" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A72" s="249"/>
-      <c r="B72" s="272"/>
+      <c r="A72" s="320"/>
+      <c r="B72" s="280"/>
       <c r="C72" s="127" t="s">
         <v>425</v>
       </c>
       <c r="D72" s="140">
         <v>704</v>
       </c>
-      <c r="E72" s="273"/>
-      <c r="F72" s="274"/>
-      <c r="G72" s="274"/>
+      <c r="E72" s="308"/>
+      <c r="F72" s="309"/>
+      <c r="G72" s="309"/>
       <c r="H72" s="139" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="38.25">
-      <c r="A73" s="249">
+      <c r="A73" s="320">
         <v>16</v>
       </c>
-      <c r="B73" s="253" t="s">
+      <c r="B73" s="307" t="s">
         <v>27</v>
       </c>
       <c r="C73" s="131" t="s">
@@ -24455,15 +24280,15 @@
       <c r="D73" s="116">
         <v>1018.83</v>
       </c>
-      <c r="E73" s="256">
+      <c r="E73" s="267">
         <f>SUM(D73:D77)</f>
         <v>2074.5299999999997</v>
       </c>
-      <c r="F73" s="264">
+      <c r="F73" s="288">
         <f>587/12*11.5*0.4+587/12*0.5*0.3</f>
         <v>232.35416666666666</v>
       </c>
-      <c r="G73" s="264">
+      <c r="G73" s="288">
         <f>E73-F73</f>
         <v>1842.175833333333</v>
       </c>
@@ -24472,72 +24297,72 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="63.75">
-      <c r="A74" s="249"/>
-      <c r="B74" s="253"/>
+      <c r="A74" s="320"/>
+      <c r="B74" s="307"/>
       <c r="C74" s="131" t="s">
         <v>157</v>
       </c>
       <c r="D74" s="118">
         <v>391</v>
       </c>
-      <c r="E74" s="256"/>
-      <c r="F74" s="264"/>
-      <c r="G74" s="264"/>
+      <c r="E74" s="267"/>
+      <c r="F74" s="288"/>
+      <c r="G74" s="288"/>
       <c r="H74" s="141"/>
     </row>
     <row r="75" spans="1:8" ht="51">
-      <c r="A75" s="249"/>
-      <c r="B75" s="253"/>
+      <c r="A75" s="320"/>
+      <c r="B75" s="307"/>
       <c r="C75" s="131" t="s">
         <v>426</v>
       </c>
       <c r="D75" s="118">
         <v>586</v>
       </c>
-      <c r="E75" s="256"/>
-      <c r="F75" s="264"/>
-      <c r="G75" s="264"/>
+      <c r="E75" s="267"/>
+      <c r="F75" s="288"/>
+      <c r="G75" s="288"/>
       <c r="H75" s="111" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A76" s="249"/>
-      <c r="B76" s="253"/>
+      <c r="A76" s="320"/>
+      <c r="B76" s="307"/>
       <c r="C76" s="131" t="s">
         <v>308</v>
       </c>
       <c r="D76" s="118">
         <v>19.7</v>
       </c>
-      <c r="E76" s="256"/>
-      <c r="F76" s="264"/>
-      <c r="G76" s="264"/>
+      <c r="E76" s="267"/>
+      <c r="F76" s="288"/>
+      <c r="G76" s="288"/>
       <c r="H76" s="111" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A77" s="249"/>
-      <c r="B77" s="253"/>
+      <c r="A77" s="320"/>
+      <c r="B77" s="307"/>
       <c r="C77" s="139" t="s">
         <v>310</v>
       </c>
       <c r="D77" s="118">
         <v>59</v>
       </c>
-      <c r="E77" s="256"/>
-      <c r="F77" s="264"/>
-      <c r="G77" s="264"/>
+      <c r="E77" s="267"/>
+      <c r="F77" s="288"/>
+      <c r="G77" s="288"/>
       <c r="H77" s="111" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A78" s="249">
+      <c r="A78" s="320">
         <v>17</v>
       </c>
-      <c r="B78" s="253" t="s">
+      <c r="B78" s="307" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="131" t="s">
@@ -24546,120 +24371,120 @@
       <c r="D78" s="118">
         <v>536.16666666666697</v>
       </c>
-      <c r="E78" s="256">
+      <c r="E78" s="267">
         <f>+D78+D79+D80+D81+D82+D83+D84</f>
         <v>1607.2666666666669</v>
       </c>
-      <c r="F78" s="255">
+      <c r="F78" s="319">
         <v>587</v>
       </c>
-      <c r="G78" s="256">
+      <c r="G78" s="267">
         <f>E78-F78</f>
         <v>1020.2666666666669</v>
       </c>
       <c r="H78" s="119"/>
     </row>
     <row r="79" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A79" s="249"/>
-      <c r="B79" s="253"/>
+      <c r="A79" s="320"/>
+      <c r="B79" s="307"/>
       <c r="C79" s="131" t="s">
         <v>158</v>
       </c>
       <c r="D79" s="118">
         <v>59</v>
       </c>
-      <c r="E79" s="256"/>
-      <c r="F79" s="255"/>
-      <c r="G79" s="256"/>
+      <c r="E79" s="267"/>
+      <c r="F79" s="319"/>
+      <c r="G79" s="267"/>
       <c r="H79" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="25.5">
-      <c r="A80" s="249"/>
-      <c r="B80" s="253"/>
+      <c r="A80" s="320"/>
+      <c r="B80" s="307"/>
       <c r="C80" s="131" t="s">
         <v>160</v>
       </c>
       <c r="D80" s="118">
         <v>59</v>
       </c>
-      <c r="E80" s="256"/>
-      <c r="F80" s="255"/>
-      <c r="G80" s="256"/>
+      <c r="E80" s="267"/>
+      <c r="F80" s="319"/>
+      <c r="G80" s="267"/>
       <c r="H80" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A81" s="249"/>
-      <c r="B81" s="253"/>
+      <c r="A81" s="320"/>
+      <c r="B81" s="307"/>
       <c r="C81" s="131" t="s">
         <v>161</v>
       </c>
       <c r="D81" s="118">
         <v>59</v>
       </c>
-      <c r="E81" s="256"/>
-      <c r="F81" s="255"/>
-      <c r="G81" s="256"/>
+      <c r="E81" s="267"/>
+      <c r="F81" s="319"/>
+      <c r="G81" s="267"/>
       <c r="H81" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A82" s="249"/>
-      <c r="B82" s="253"/>
+      <c r="A82" s="320"/>
+      <c r="B82" s="307"/>
       <c r="C82" s="131" t="s">
         <v>311</v>
       </c>
       <c r="D82" s="118">
         <v>59</v>
       </c>
-      <c r="E82" s="256"/>
-      <c r="F82" s="255"/>
-      <c r="G82" s="256"/>
+      <c r="E82" s="267"/>
+      <c r="F82" s="319"/>
+      <c r="G82" s="267"/>
       <c r="H82" s="119" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A83" s="249"/>
-      <c r="B83" s="253"/>
+      <c r="A83" s="320"/>
+      <c r="B83" s="307"/>
       <c r="C83" s="104" t="s">
         <v>392</v>
       </c>
       <c r="D83" s="118">
         <v>13.1</v>
       </c>
-      <c r="E83" s="256"/>
-      <c r="F83" s="255"/>
-      <c r="G83" s="256"/>
+      <c r="E83" s="267"/>
+      <c r="F83" s="319"/>
+      <c r="G83" s="267"/>
       <c r="H83" s="119" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A84" s="249"/>
-      <c r="B84" s="253"/>
+      <c r="A84" s="320"/>
+      <c r="B84" s="307"/>
       <c r="C84" s="120" t="s">
         <v>162</v>
       </c>
       <c r="D84" s="121">
         <v>822</v>
       </c>
-      <c r="E84" s="256"/>
-      <c r="F84" s="255"/>
-      <c r="G84" s="256"/>
+      <c r="E84" s="267"/>
+      <c r="F84" s="319"/>
+      <c r="G84" s="267"/>
       <c r="H84" s="119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A85" s="249">
+      <c r="A85" s="320">
         <v>18</v>
       </c>
-      <c r="B85" s="253" t="s">
+      <c r="B85" s="307" t="s">
         <v>32</v>
       </c>
       <c r="C85" s="130" t="s">
@@ -24668,121 +24493,121 @@
       <c r="D85" s="118">
         <v>806.83</v>
       </c>
-      <c r="E85" s="256">
+      <c r="E85" s="267">
         <f>SUM(D85:D91)</f>
         <v>1433.83</v>
       </c>
-      <c r="F85" s="256">
+      <c r="F85" s="267">
         <f>587</f>
         <v>587</v>
       </c>
-      <c r="G85" s="256">
+      <c r="G85" s="267">
         <f>E85-F85</f>
         <v>846.82999999999993</v>
       </c>
       <c r="H85" s="119"/>
     </row>
     <row r="86" spans="1:8" ht="25.5">
-      <c r="A86" s="249"/>
-      <c r="B86" s="253"/>
+      <c r="A86" s="320"/>
+      <c r="B86" s="307"/>
       <c r="C86" s="131" t="s">
         <v>313</v>
       </c>
       <c r="D86" s="118">
         <v>59</v>
       </c>
-      <c r="E86" s="256"/>
-      <c r="F86" s="256"/>
-      <c r="G86" s="256"/>
+      <c r="E86" s="267"/>
+      <c r="F86" s="267"/>
+      <c r="G86" s="267"/>
       <c r="H86" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="25.5">
-      <c r="A87" s="249"/>
-      <c r="B87" s="253"/>
+      <c r="A87" s="320"/>
+      <c r="B87" s="307"/>
       <c r="C87" s="131" t="s">
         <v>314</v>
       </c>
       <c r="D87" s="118">
         <v>59</v>
       </c>
-      <c r="E87" s="256"/>
-      <c r="F87" s="256"/>
-      <c r="G87" s="256"/>
+      <c r="E87" s="267"/>
+      <c r="F87" s="267"/>
+      <c r="G87" s="267"/>
       <c r="H87" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A88" s="249"/>
-      <c r="B88" s="253"/>
+      <c r="A88" s="320"/>
+      <c r="B88" s="307"/>
       <c r="C88" s="131" t="s">
         <v>315</v>
       </c>
       <c r="D88" s="118">
         <v>59</v>
       </c>
-      <c r="E88" s="256"/>
-      <c r="F88" s="256"/>
-      <c r="G88" s="256"/>
+      <c r="E88" s="267"/>
+      <c r="F88" s="267"/>
+      <c r="G88" s="267"/>
       <c r="H88" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="51">
-      <c r="A89" s="249"/>
-      <c r="B89" s="253"/>
+      <c r="A89" s="320"/>
+      <c r="B89" s="307"/>
       <c r="C89" s="131" t="s">
         <v>316</v>
       </c>
       <c r="D89" s="118">
         <v>195.5</v>
       </c>
-      <c r="E89" s="256"/>
-      <c r="F89" s="256"/>
-      <c r="G89" s="256"/>
+      <c r="E89" s="267"/>
+      <c r="F89" s="267"/>
+      <c r="G89" s="267"/>
       <c r="H89" s="119" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="51">
-      <c r="A90" s="249"/>
-      <c r="B90" s="253"/>
+      <c r="A90" s="320"/>
+      <c r="B90" s="307"/>
       <c r="C90" s="131" t="s">
         <v>318</v>
       </c>
       <c r="D90" s="118">
         <v>195.5</v>
       </c>
-      <c r="E90" s="256"/>
-      <c r="F90" s="256"/>
-      <c r="G90" s="256"/>
+      <c r="E90" s="267"/>
+      <c r="F90" s="267"/>
+      <c r="G90" s="267"/>
       <c r="H90" s="119" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="38.25">
-      <c r="A91" s="249"/>
-      <c r="B91" s="253"/>
+      <c r="A91" s="320"/>
+      <c r="B91" s="307"/>
       <c r="C91" s="131" t="s">
         <v>165</v>
       </c>
       <c r="D91" s="118">
         <v>59</v>
       </c>
-      <c r="E91" s="256"/>
-      <c r="F91" s="256"/>
-      <c r="G91" s="256"/>
+      <c r="E91" s="267"/>
+      <c r="F91" s="267"/>
+      <c r="G91" s="267"/>
       <c r="H91" s="119" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A92" s="250">
+      <c r="A92" s="312">
         <v>19</v>
       </c>
-      <c r="B92" s="258" t="s">
+      <c r="B92" s="268" t="s">
         <v>34</v>
       </c>
       <c r="C92" s="104" t="s">
@@ -24791,326 +24616,326 @@
       <c r="D92" s="112">
         <v>675.15</v>
       </c>
-      <c r="E92" s="267">
+      <c r="E92" s="271">
         <f>SUM(D92:D111)</f>
         <v>3881.8900000000003</v>
       </c>
-      <c r="F92" s="269">
+      <c r="F92" s="317">
         <v>587</v>
       </c>
-      <c r="G92" s="267">
+      <c r="G92" s="271">
         <f>E92-F92</f>
         <v>3294.8900000000003</v>
       </c>
       <c r="H92" s="111"/>
     </row>
     <row r="93" spans="1:8" ht="63.75">
-      <c r="A93" s="251"/>
-      <c r="B93" s="259"/>
+      <c r="A93" s="313"/>
+      <c r="B93" s="269"/>
       <c r="C93" s="104" t="s">
         <v>166</v>
       </c>
       <c r="D93" s="112">
         <v>254.3</v>
       </c>
-      <c r="E93" s="268"/>
-      <c r="F93" s="270"/>
-      <c r="G93" s="268"/>
+      <c r="E93" s="272"/>
+      <c r="F93" s="318"/>
+      <c r="G93" s="272"/>
       <c r="H93" s="111" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="63.75">
-      <c r="A94" s="251"/>
-      <c r="B94" s="259"/>
+      <c r="A94" s="313"/>
+      <c r="B94" s="269"/>
       <c r="C94" s="104" t="s">
         <v>167</v>
       </c>
       <c r="D94" s="112">
         <v>411</v>
       </c>
-      <c r="E94" s="268"/>
-      <c r="F94" s="270"/>
-      <c r="G94" s="268"/>
+      <c r="E94" s="272"/>
+      <c r="F94" s="318"/>
+      <c r="G94" s="272"/>
       <c r="H94" s="111" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="89.25">
-      <c r="A95" s="251"/>
-      <c r="B95" s="259"/>
+      <c r="A95" s="313"/>
+      <c r="B95" s="269"/>
       <c r="C95" s="104" t="s">
         <v>168</v>
       </c>
       <c r="D95" s="112">
         <v>456.67</v>
       </c>
-      <c r="E95" s="268"/>
-      <c r="F95" s="270"/>
-      <c r="G95" s="268"/>
+      <c r="E95" s="272"/>
+      <c r="F95" s="318"/>
+      <c r="G95" s="272"/>
       <c r="H95" s="111" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="102">
-      <c r="A96" s="251"/>
-      <c r="B96" s="259"/>
+      <c r="A96" s="313"/>
+      <c r="B96" s="269"/>
       <c r="C96" s="104" t="s">
         <v>169</v>
       </c>
       <c r="D96" s="112">
         <v>127.17</v>
       </c>
-      <c r="E96" s="268"/>
-      <c r="F96" s="270"/>
-      <c r="G96" s="268"/>
+      <c r="E96" s="272"/>
+      <c r="F96" s="318"/>
+      <c r="G96" s="272"/>
       <c r="H96" s="111" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="126" customHeight="1">
-      <c r="A97" s="251"/>
-      <c r="B97" s="259"/>
+      <c r="A97" s="313"/>
+      <c r="B97" s="269"/>
       <c r="C97" s="104" t="s">
         <v>170</v>
       </c>
       <c r="D97" s="112">
         <v>339.11</v>
       </c>
-      <c r="E97" s="268"/>
-      <c r="F97" s="270"/>
-      <c r="G97" s="268"/>
+      <c r="E97" s="272"/>
+      <c r="F97" s="318"/>
+      <c r="G97" s="272"/>
       <c r="H97" s="111" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="76.5">
-      <c r="A98" s="251"/>
-      <c r="B98" s="259"/>
+      <c r="A98" s="313"/>
+      <c r="B98" s="269"/>
       <c r="C98" s="104" t="s">
         <v>171</v>
       </c>
       <c r="D98" s="112">
         <v>130.44</v>
       </c>
-      <c r="E98" s="268"/>
-      <c r="F98" s="270"/>
-      <c r="G98" s="268"/>
+      <c r="E98" s="272"/>
+      <c r="F98" s="318"/>
+      <c r="G98" s="272"/>
       <c r="H98" s="111" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="76.5">
-      <c r="A99" s="251"/>
-      <c r="B99" s="259"/>
+      <c r="A99" s="313"/>
+      <c r="B99" s="269"/>
       <c r="C99" s="104" t="s">
         <v>172</v>
       </c>
       <c r="D99" s="112">
         <v>111.81</v>
       </c>
-      <c r="E99" s="268"/>
-      <c r="F99" s="270"/>
-      <c r="G99" s="268"/>
+      <c r="E99" s="272"/>
+      <c r="F99" s="318"/>
+      <c r="G99" s="272"/>
       <c r="H99" s="111" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="38.25">
-      <c r="A100" s="251"/>
-      <c r="B100" s="259"/>
+      <c r="A100" s="313"/>
+      <c r="B100" s="269"/>
       <c r="C100" s="104" t="s">
         <v>173</v>
       </c>
       <c r="D100" s="112">
         <v>19.670000000000002</v>
       </c>
-      <c r="E100" s="268"/>
-      <c r="F100" s="270"/>
-      <c r="G100" s="268"/>
+      <c r="E100" s="272"/>
+      <c r="F100" s="318"/>
+      <c r="G100" s="272"/>
       <c r="H100" s="111"/>
     </row>
     <row r="101" spans="1:8" ht="63.75">
-      <c r="A101" s="251"/>
-      <c r="B101" s="259"/>
+      <c r="A101" s="313"/>
+      <c r="B101" s="269"/>
       <c r="C101" s="104" t="s">
         <v>174</v>
       </c>
       <c r="D101" s="112">
         <v>195.67</v>
       </c>
-      <c r="E101" s="268"/>
-      <c r="F101" s="270"/>
-      <c r="G101" s="268"/>
+      <c r="E101" s="272"/>
+      <c r="F101" s="318"/>
+      <c r="G101" s="272"/>
       <c r="H101" s="111" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A102" s="251"/>
-      <c r="B102" s="259"/>
+      <c r="A102" s="313"/>
+      <c r="B102" s="269"/>
       <c r="C102" s="104" t="s">
         <v>175</v>
       </c>
       <c r="D102" s="142">
         <v>70</v>
       </c>
-      <c r="E102" s="268"/>
-      <c r="F102" s="270"/>
-      <c r="G102" s="268"/>
+      <c r="E102" s="272"/>
+      <c r="F102" s="318"/>
+      <c r="G102" s="272"/>
       <c r="H102" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A103" s="251"/>
-      <c r="B103" s="259"/>
+      <c r="A103" s="313"/>
+      <c r="B103" s="269"/>
       <c r="C103" s="104" t="s">
         <v>176</v>
       </c>
       <c r="D103" s="142">
         <v>70</v>
       </c>
-      <c r="E103" s="268"/>
-      <c r="F103" s="270"/>
-      <c r="G103" s="268"/>
+      <c r="E103" s="272"/>
+      <c r="F103" s="318"/>
+      <c r="G103" s="272"/>
       <c r="H103" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="25.5">
-      <c r="A104" s="251"/>
-      <c r="B104" s="259"/>
+      <c r="A104" s="313"/>
+      <c r="B104" s="269"/>
       <c r="C104" s="104" t="s">
         <v>177</v>
       </c>
       <c r="D104" s="142">
         <v>70</v>
       </c>
-      <c r="E104" s="268"/>
-      <c r="F104" s="270"/>
-      <c r="G104" s="268"/>
+      <c r="E104" s="272"/>
+      <c r="F104" s="318"/>
+      <c r="G104" s="272"/>
       <c r="H104" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="25.5">
-      <c r="A105" s="251"/>
-      <c r="B105" s="259"/>
+      <c r="A105" s="313"/>
+      <c r="B105" s="269"/>
       <c r="C105" s="104" t="s">
         <v>178</v>
       </c>
       <c r="D105" s="142">
         <v>70</v>
       </c>
-      <c r="E105" s="268"/>
-      <c r="F105" s="270"/>
-      <c r="G105" s="268"/>
+      <c r="E105" s="272"/>
+      <c r="F105" s="318"/>
+      <c r="G105" s="272"/>
       <c r="H105" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A106" s="251"/>
-      <c r="B106" s="259"/>
+      <c r="A106" s="313"/>
+      <c r="B106" s="269"/>
       <c r="C106" s="104" t="s">
         <v>179</v>
       </c>
       <c r="D106" s="142">
         <v>59</v>
       </c>
-      <c r="E106" s="268"/>
-      <c r="F106" s="270"/>
-      <c r="G106" s="268"/>
+      <c r="E106" s="272"/>
+      <c r="F106" s="318"/>
+      <c r="G106" s="272"/>
       <c r="H106" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A107" s="251"/>
-      <c r="B107" s="259"/>
+      <c r="A107" s="313"/>
+      <c r="B107" s="269"/>
       <c r="C107" s="104" t="s">
         <v>180</v>
       </c>
       <c r="D107" s="142">
         <v>59</v>
       </c>
-      <c r="E107" s="268"/>
-      <c r="F107" s="270"/>
-      <c r="G107" s="268"/>
+      <c r="E107" s="272"/>
+      <c r="F107" s="318"/>
+      <c r="G107" s="272"/>
       <c r="H107" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A108" s="251"/>
-      <c r="B108" s="259"/>
+      <c r="A108" s="313"/>
+      <c r="B108" s="269"/>
       <c r="C108" s="104" t="s">
         <v>181</v>
       </c>
       <c r="D108" s="142">
         <v>29</v>
       </c>
-      <c r="E108" s="268"/>
-      <c r="F108" s="270"/>
-      <c r="G108" s="268"/>
+      <c r="E108" s="272"/>
+      <c r="F108" s="318"/>
+      <c r="G108" s="272"/>
       <c r="H108" s="143" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A109" s="251"/>
-      <c r="B109" s="259"/>
+      <c r="A109" s="313"/>
+      <c r="B109" s="269"/>
       <c r="C109" s="104" t="s">
         <v>429</v>
       </c>
       <c r="D109" s="105">
         <v>411.1</v>
       </c>
-      <c r="E109" s="268"/>
-      <c r="F109" s="270"/>
-      <c r="G109" s="268"/>
+      <c r="E109" s="272"/>
+      <c r="F109" s="318"/>
+      <c r="G109" s="272"/>
       <c r="H109" s="143" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A110" s="251"/>
-      <c r="B110" s="259"/>
+      <c r="A110" s="313"/>
+      <c r="B110" s="269"/>
       <c r="C110" s="104" t="s">
         <v>430</v>
       </c>
       <c r="D110" s="105">
         <v>146.80000000000001</v>
       </c>
-      <c r="E110" s="268"/>
-      <c r="F110" s="270"/>
-      <c r="G110" s="268"/>
+      <c r="E110" s="272"/>
+      <c r="F110" s="318"/>
+      <c r="G110" s="272"/>
       <c r="H110" s="144" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A111" s="251"/>
-      <c r="B111" s="259"/>
+      <c r="A111" s="313"/>
+      <c r="B111" s="269"/>
       <c r="C111" s="104" t="s">
         <v>431</v>
       </c>
       <c r="D111" s="142">
         <v>176</v>
       </c>
-      <c r="E111" s="268"/>
-      <c r="F111" s="270"/>
-      <c r="G111" s="268"/>
+      <c r="E111" s="272"/>
+      <c r="F111" s="318"/>
+      <c r="G111" s="272"/>
       <c r="H111" s="143" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A112" s="249">
+      <c r="A112" s="320">
         <v>20</v>
       </c>
-      <c r="B112" s="253" t="s">
+      <c r="B112" s="307" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="104" t="s">
@@ -25119,15 +24944,15 @@
       <c r="D112" s="142">
         <v>1655.9</v>
       </c>
-      <c r="E112" s="256">
+      <c r="E112" s="267">
         <f>D112+D113+D114+D115+D116+D117</f>
         <v>1909.6000000000001</v>
       </c>
-      <c r="F112" s="255">
+      <c r="F112" s="319">
         <f>587/12*0.5*0.4+587/12*11.5</f>
         <v>572.32499999999993</v>
       </c>
-      <c r="G112" s="271">
+      <c r="G112" s="283">
         <f>E112-F112</f>
         <v>1337.2750000000001</v>
       </c>
@@ -25136,90 +24961,90 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A113" s="249"/>
-      <c r="B113" s="253"/>
+      <c r="A113" s="320"/>
+      <c r="B113" s="307"/>
       <c r="C113" s="104" t="s">
         <v>170</v>
       </c>
       <c r="D113" s="118">
         <v>78</v>
       </c>
-      <c r="E113" s="256"/>
-      <c r="F113" s="255"/>
-      <c r="G113" s="271"/>
+      <c r="E113" s="267"/>
+      <c r="F113" s="319"/>
+      <c r="G113" s="283"/>
       <c r="H113" s="119" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A114" s="249"/>
-      <c r="B114" s="253"/>
+      <c r="A114" s="320"/>
+      <c r="B114" s="307"/>
       <c r="C114" s="120" t="s">
         <v>131</v>
       </c>
       <c r="D114" s="121">
         <v>58.7</v>
       </c>
-      <c r="E114" s="256"/>
-      <c r="F114" s="255"/>
-      <c r="G114" s="271"/>
+      <c r="E114" s="267"/>
+      <c r="F114" s="319"/>
+      <c r="G114" s="283"/>
       <c r="H114" s="119" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A115" s="249"/>
-      <c r="B115" s="253"/>
+      <c r="A115" s="320"/>
+      <c r="B115" s="307"/>
       <c r="C115" s="122" t="s">
         <v>183</v>
       </c>
       <c r="D115" s="123">
         <v>29</v>
       </c>
-      <c r="E115" s="256"/>
-      <c r="F115" s="255"/>
-      <c r="G115" s="271"/>
+      <c r="E115" s="267"/>
+      <c r="F115" s="319"/>
+      <c r="G115" s="283"/>
       <c r="H115" s="124" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A116" s="249"/>
-      <c r="B116" s="253"/>
+      <c r="A116" s="320"/>
+      <c r="B116" s="307"/>
       <c r="C116" s="122" t="s">
         <v>432</v>
       </c>
       <c r="D116" s="123">
         <v>29</v>
       </c>
-      <c r="E116" s="256"/>
-      <c r="F116" s="255"/>
-      <c r="G116" s="271"/>
+      <c r="E116" s="267"/>
+      <c r="F116" s="319"/>
+      <c r="G116" s="283"/>
       <c r="H116" s="124" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A117" s="249"/>
-      <c r="B117" s="253"/>
+      <c r="A117" s="320"/>
+      <c r="B117" s="307"/>
       <c r="C117" s="115" t="s">
         <v>329</v>
       </c>
       <c r="D117" s="123">
         <v>59</v>
       </c>
-      <c r="E117" s="256"/>
-      <c r="F117" s="255"/>
-      <c r="G117" s="271"/>
+      <c r="E117" s="267"/>
+      <c r="F117" s="319"/>
+      <c r="G117" s="283"/>
       <c r="H117" s="125" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A118" s="250">
+      <c r="A118" s="312">
         <v>21</v>
       </c>
-      <c r="B118" s="258" t="s">
+      <c r="B118" s="268" t="s">
         <v>29</v>
       </c>
       <c r="C118" s="130" t="s">
@@ -25242,8 +25067,8 @@
       <c r="H118" s="119"/>
     </row>
     <row r="119" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A119" s="251"/>
-      <c r="B119" s="259"/>
+      <c r="A119" s="313"/>
+      <c r="B119" s="269"/>
       <c r="C119" s="120" t="s">
         <v>184</v>
       </c>
@@ -25258,8 +25083,8 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A120" s="251"/>
-      <c r="B120" s="259"/>
+      <c r="A120" s="313"/>
+      <c r="B120" s="269"/>
       <c r="C120" s="120" t="s">
         <v>185</v>
       </c>
@@ -25274,8 +25099,8 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="76.5">
-      <c r="A121" s="251"/>
-      <c r="B121" s="259"/>
+      <c r="A121" s="313"/>
+      <c r="B121" s="269"/>
       <c r="C121" s="104" t="s">
         <v>391</v>
       </c>
@@ -25290,8 +25115,8 @@
       </c>
     </row>
     <row r="122" spans="1:8" ht="90">
-      <c r="A122" s="252"/>
-      <c r="B122" s="260"/>
+      <c r="A122" s="314"/>
+      <c r="B122" s="270"/>
       <c r="C122" s="146" t="s">
         <v>441</v>
       </c>
@@ -25306,10 +25131,10 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A123" s="249">
+      <c r="A123" s="320">
         <v>22</v>
       </c>
-      <c r="B123" s="253" t="s">
+      <c r="B123" s="307" t="s">
         <v>33</v>
       </c>
       <c r="C123" s="115" t="s">
@@ -25318,15 +25143,15 @@
       <c r="D123" s="147">
         <v>976.9</v>
       </c>
-      <c r="E123" s="264">
+      <c r="E123" s="288">
         <f>SUM(D123:D131)</f>
         <v>4244.9000000000005</v>
       </c>
-      <c r="F123" s="265">
+      <c r="F123" s="315">
         <f>587*0.8</f>
         <v>469.6</v>
       </c>
-      <c r="G123" s="266">
+      <c r="G123" s="316">
         <f>E123-F123</f>
         <v>3775.3000000000006</v>
       </c>
@@ -25335,136 +25160,136 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A124" s="249"/>
-      <c r="B124" s="253"/>
+      <c r="A124" s="320"/>
+      <c r="B124" s="307"/>
       <c r="C124" s="131" t="s">
         <v>435</v>
       </c>
       <c r="D124" s="133">
         <v>1174</v>
       </c>
-      <c r="E124" s="264"/>
-      <c r="F124" s="265"/>
-      <c r="G124" s="266"/>
+      <c r="E124" s="288"/>
+      <c r="F124" s="315"/>
+      <c r="G124" s="316"/>
       <c r="H124" s="119"/>
     </row>
     <row r="125" spans="1:8" ht="38.25">
-      <c r="A125" s="249"/>
-      <c r="B125" s="253"/>
+      <c r="A125" s="320"/>
+      <c r="B125" s="307"/>
       <c r="C125" s="131" t="s">
         <v>332</v>
       </c>
       <c r="D125" s="133">
         <v>195.6</v>
       </c>
-      <c r="E125" s="264"/>
-      <c r="F125" s="265"/>
-      <c r="G125" s="266"/>
+      <c r="E125" s="288"/>
+      <c r="F125" s="315"/>
+      <c r="G125" s="316"/>
       <c r="H125" s="119" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="51">
-      <c r="A126" s="249"/>
-      <c r="B126" s="253"/>
+      <c r="A126" s="320"/>
+      <c r="B126" s="307"/>
       <c r="C126" s="131" t="s">
         <v>333</v>
       </c>
       <c r="D126" s="133">
         <v>469.3</v>
       </c>
-      <c r="E126" s="264"/>
-      <c r="F126" s="265"/>
-      <c r="G126" s="266"/>
+      <c r="E126" s="288"/>
+      <c r="F126" s="315"/>
+      <c r="G126" s="316"/>
       <c r="H126" s="119" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="76.5">
-      <c r="A127" s="249"/>
-      <c r="B127" s="253"/>
+      <c r="A127" s="320"/>
+      <c r="B127" s="307"/>
       <c r="C127" s="120" t="s">
         <v>436</v>
       </c>
       <c r="D127" s="135">
         <v>97.8</v>
       </c>
-      <c r="E127" s="264"/>
-      <c r="F127" s="265"/>
-      <c r="G127" s="266"/>
+      <c r="E127" s="288"/>
+      <c r="F127" s="315"/>
+      <c r="G127" s="316"/>
       <c r="H127" s="119" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="25.5">
-      <c r="A128" s="249"/>
-      <c r="B128" s="253"/>
+      <c r="A128" s="320"/>
+      <c r="B128" s="307"/>
       <c r="C128" s="120" t="s">
         <v>334</v>
       </c>
       <c r="D128" s="135">
         <v>1174</v>
       </c>
-      <c r="E128" s="264"/>
-      <c r="F128" s="265"/>
-      <c r="G128" s="266"/>
+      <c r="E128" s="288"/>
+      <c r="F128" s="315"/>
+      <c r="G128" s="316"/>
       <c r="H128" s="119" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="38.25">
-      <c r="A129" s="249"/>
-      <c r="B129" s="253"/>
+      <c r="A129" s="320"/>
+      <c r="B129" s="307"/>
       <c r="C129" s="120" t="s">
         <v>336</v>
       </c>
       <c r="D129" s="135">
         <v>39.299999999999997</v>
       </c>
-      <c r="E129" s="264"/>
-      <c r="F129" s="265"/>
-      <c r="G129" s="266"/>
+      <c r="E129" s="288"/>
+      <c r="F129" s="315"/>
+      <c r="G129" s="316"/>
       <c r="H129" s="119" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="51">
-      <c r="A130" s="249"/>
-      <c r="B130" s="253"/>
+      <c r="A130" s="320"/>
+      <c r="B130" s="307"/>
       <c r="C130" s="129" t="s">
         <v>438</v>
       </c>
       <c r="D130" s="135">
         <v>59</v>
       </c>
-      <c r="E130" s="264"/>
-      <c r="F130" s="265"/>
-      <c r="G130" s="266"/>
+      <c r="E130" s="288"/>
+      <c r="F130" s="315"/>
+      <c r="G130" s="316"/>
       <c r="H130" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="38.25">
-      <c r="A131" s="249"/>
-      <c r="B131" s="253"/>
+      <c r="A131" s="320"/>
+      <c r="B131" s="307"/>
       <c r="C131" s="129" t="s">
         <v>439</v>
       </c>
       <c r="D131" s="135">
         <v>59</v>
       </c>
-      <c r="E131" s="264"/>
-      <c r="F131" s="265"/>
-      <c r="G131" s="266"/>
+      <c r="E131" s="288"/>
+      <c r="F131" s="315"/>
+      <c r="G131" s="316"/>
       <c r="H131" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A132" s="249">
+      <c r="A132" s="320">
         <v>23</v>
       </c>
-      <c r="B132" s="253" t="s">
+      <c r="B132" s="307" t="s">
         <v>30</v>
       </c>
       <c r="C132" s="127" t="s">
@@ -25473,31 +25298,31 @@
       <c r="D132" s="148">
         <v>293.5</v>
       </c>
-      <c r="E132" s="254">
+      <c r="E132" s="310">
         <f>D132+D133</f>
         <v>606.5</v>
       </c>
-      <c r="F132" s="254">
+      <c r="F132" s="310">
         <v>587</v>
       </c>
-      <c r="G132" s="254">
+      <c r="G132" s="310">
         <f>E132-F132</f>
         <v>19.5</v>
       </c>
       <c r="H132" s="117"/>
     </row>
     <row r="133" spans="1:8" ht="76.5">
-      <c r="A133" s="249"/>
-      <c r="B133" s="253"/>
+      <c r="A133" s="320"/>
+      <c r="B133" s="307"/>
       <c r="C133" s="115" t="s">
         <v>186</v>
       </c>
       <c r="D133" s="118">
         <v>313</v>
       </c>
-      <c r="E133" s="254"/>
-      <c r="F133" s="254"/>
-      <c r="G133" s="254"/>
+      <c r="E133" s="310"/>
+      <c r="F133" s="310"/>
+      <c r="G133" s="310"/>
       <c r="H133" s="117"/>
     </row>
     <row r="134" spans="1:8">
@@ -25521,14 +25346,14 @@
       <c r="H135" s="155"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="248" t="s">
+      <c r="A136" s="321" t="s">
         <v>440</v>
       </c>
-      <c r="B136" s="248"/>
-      <c r="C136" s="248" t="s">
+      <c r="B136" s="321"/>
+      <c r="C136" s="321" t="s">
         <v>187</v>
       </c>
-      <c r="D136" s="248"/>
+      <c r="D136" s="321"/>
       <c r="E136" s="156"/>
       <c r="F136" s="156"/>
       <c r="G136" s="156"/>
@@ -25538,19 +25363,84 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="A92:A111"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A123:A131"/>
+    <mergeCell ref="B123:B131"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F78:F84"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="E52:E60"/>
+    <mergeCell ref="F52:F60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A42"/>
+    <mergeCell ref="B118:B122"/>
+    <mergeCell ref="E118:E122"/>
+    <mergeCell ref="F118:F122"/>
+    <mergeCell ref="G118:G122"/>
+    <mergeCell ref="E123:E131"/>
+    <mergeCell ref="F123:F131"/>
+    <mergeCell ref="G123:G131"/>
+    <mergeCell ref="B92:B111"/>
+    <mergeCell ref="E92:E111"/>
+    <mergeCell ref="F92:F111"/>
+    <mergeCell ref="G92:G111"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="E112:E117"/>
+    <mergeCell ref="F112:F117"/>
+    <mergeCell ref="G112:G117"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="E78:E84"/>
+    <mergeCell ref="G78:G84"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="E85:E91"/>
+    <mergeCell ref="F85:F91"/>
+    <mergeCell ref="G85:G91"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="G69:G72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="F73:F77"/>
+    <mergeCell ref="G73:G77"/>
+    <mergeCell ref="G52:G60"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F61:F64"/>
     <mergeCell ref="E33:E35"/>
     <mergeCell ref="F33:F35"/>
     <mergeCell ref="G33:G35"/>
@@ -25575,84 +25465,19 @@
     <mergeCell ref="F26:F31"/>
     <mergeCell ref="G26:G31"/>
     <mergeCell ref="B33:B35"/>
-    <mergeCell ref="G52:G60"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="G78:G84"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="E85:E91"/>
-    <mergeCell ref="F85:F91"/>
-    <mergeCell ref="G85:G91"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="G69:G72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="F73:F77"/>
-    <mergeCell ref="G73:G77"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="B118:B122"/>
-    <mergeCell ref="E118:E122"/>
-    <mergeCell ref="F118:F122"/>
-    <mergeCell ref="G118:G122"/>
-    <mergeCell ref="E123:E131"/>
-    <mergeCell ref="F123:F131"/>
-    <mergeCell ref="G123:G131"/>
-    <mergeCell ref="B92:B111"/>
-    <mergeCell ref="E92:E111"/>
-    <mergeCell ref="F92:F111"/>
-    <mergeCell ref="G92:G111"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="E112:E117"/>
-    <mergeCell ref="F112:F117"/>
-    <mergeCell ref="G112:G117"/>
-    <mergeCell ref="B78:B84"/>
-    <mergeCell ref="E78:E84"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F78:F84"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="E52:E60"/>
-    <mergeCell ref="F52:F60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="A92:A111"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A123:A131"/>
-    <mergeCell ref="B123:B131"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <phoneticPr fontId="58"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25686,34 +25511,34 @@
       <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="324" t="s">
+      <c r="A2" s="322" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="325" t="s">
+      <c r="A3" s="323" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="325"/>
-      <c r="C3" s="325"/>
-      <c r="D3" s="325"/>
-      <c r="E3" s="325"/>
-      <c r="F3" s="325"/>
-      <c r="G3" s="325"/>
+      <c r="B3" s="323"/>
+      <c r="C3" s="323"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
+      <c r="F3" s="323"/>
+      <c r="G3" s="323"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="326" t="s">
+      <c r="A4" s="324" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="326"/>
-      <c r="C4" s="326"/>
-      <c r="D4" s="326"/>
-      <c r="E4" s="326"/>
-      <c r="F4" s="326"/>
-      <c r="G4" s="326"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="324"/>
+      <c r="D4" s="324"/>
+      <c r="E4" s="324"/>
+      <c r="F4" s="324"/>
+      <c r="G4" s="324"/>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="79"/>
@@ -26373,16 +26198,16 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25">
-      <c r="A39" s="325" t="s">
+      <c r="A39" s="323" t="s">
         <v>346</v>
       </c>
-      <c r="B39" s="325"/>
-      <c r="C39" s="325" t="s">
+      <c r="B39" s="323"/>
+      <c r="C39" s="323" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="325"/>
-      <c r="E39" s="325"/>
-      <c r="F39" s="325"/>
+      <c r="D39" s="323"/>
+      <c r="E39" s="323"/>
+      <c r="F39" s="323"/>
       <c r="G39" s="100" t="s">
         <v>188</v>
       </c>

--- a/src/helpers/excel/template_export.xlsx
+++ b/src/helpers/excel/template_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ThanhNha\Github\mission-timer-be\src\helpers\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65803228-E748-4274-83AD-01B5951590C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0B2F11-C819-48A8-BD61-1A67922DF688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1501,9 +1501,6 @@
     <t>VI</t>
   </si>
   <si>
-    <t>Năm học 2020 - 2021</t>
-  </si>
-  <si>
     <t>Bộ phận: Công nghệ thông tin</t>
   </si>
   <si>
@@ -1528,6 +1525,10 @@
   </si>
   <si>
     <t>Độc lập - Tự do - Hạnh phúc</t>
+    <phoneticPr fontId="58"/>
+  </si>
+  <si>
+    <t>Năm học</t>
     <phoneticPr fontId="58"/>
   </si>
 </sst>
@@ -3383,6 +3384,21 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="39" xfId="94" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="39" xfId="94" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="45" fillId="0" borderId="39" xfId="94" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="94" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="92" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3395,6 +3411,12 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="188" fontId="48" fillId="0" borderId="39" xfId="94" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="188" fontId="60" fillId="0" borderId="39" xfId="94" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3416,6 +3438,189 @@
     <xf numFmtId="0" fontId="46" fillId="24" borderId="36" xfId="88" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="24" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="37" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="38" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="37" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="38" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="28" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="37" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="38" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="28" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="37" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="38" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="28" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="24" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3461,189 +3666,6 @@
     <xf numFmtId="2" fontId="56" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="37" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="38" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="28" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="37" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="38" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="28" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="37" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="38" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="28" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="24" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="52" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="24" borderId="12" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="37" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="38" xfId="57" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3652,27 +3674,6 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="39" xfId="94" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="48" fillId="0" borderId="39" xfId="94" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="39" xfId="94" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="60" fillId="0" borderId="39" xfId="94" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="45" fillId="0" borderId="39" xfId="94" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="39" xfId="94" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="39" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="116">
@@ -7026,7 +7027,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7044,60 +7045,60 @@
     <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="38"/>
       <c r="B1" s="39"/>
-      <c r="C1" s="325" t="s">
-        <v>447</v>
-      </c>
-      <c r="D1" s="326" t="s">
-        <v>450</v>
-      </c>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
+      <c r="C1" s="235" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" s="244" t="s">
+        <v>449</v>
+      </c>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
-      <c r="C2" s="327" t="s">
-        <v>448</v>
-      </c>
-      <c r="D2" s="328" t="s">
-        <v>451</v>
-      </c>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
+      <c r="C2" s="236" t="s">
+        <v>447</v>
+      </c>
+      <c r="D2" s="245" t="s">
+        <v>450</v>
+      </c>
+      <c r="E2" s="245"/>
+      <c r="F2" s="245"/>
     </row>
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="38"/>
       <c r="B3" s="39"/>
-      <c r="C3" s="327" t="s">
-        <v>449</v>
-      </c>
-      <c r="D3" s="329"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="331"/>
+      <c r="C3" s="236" t="s">
+        <v>448</v>
+      </c>
+      <c r="D3" s="237"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="239"/>
     </row>
     <row r="4" spans="1:6" ht="18.75">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="240" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
     </row>
     <row r="5" spans="1:6" ht="18.75">
-      <c r="A5" s="235" t="s">
-        <v>444</v>
-      </c>
-      <c r="B5" s="235"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
+      <c r="A5" s="240" t="s">
+        <v>451</v>
+      </c>
+      <c r="B5" s="240"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="240"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="210"/>
@@ -7109,10 +7110,10 @@
       <c r="A7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="236" t="s">
+      <c r="B7" s="241" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="237"/>
+      <c r="C7" s="242"/>
       <c r="D7" s="230" t="s">
         <v>191</v>
       </c>
@@ -7182,12 +7183,12 @@
       <c r="A13" s="216"/>
       <c r="B13" s="217"/>
       <c r="C13" s="218"/>
-      <c r="D13" s="238" t="str">
+      <c r="D13" s="243" t="str">
         <f ca="1">"TP. Hồ Chí Minh, ngày "&amp;TEXT(DAY(TODAY()),"00")&amp;" tháng "&amp;TEXT(MONTH(TODAY()),"00")&amp;" năm "&amp;YEAR(TODAY())</f>
         <v>TP. Hồ Chí Minh, ngày 31 tháng 05 năm 2022</v>
       </c>
-      <c r="E13" s="238"/>
-      <c r="F13" s="238"/>
+      <c r="E13" s="243"/>
+      <c r="F13" s="243"/>
     </row>
     <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="216"/>
@@ -7213,7 +7214,7 @@
     </row>
     <row r="22" spans="3:6" ht="15.75">
       <c r="F22" s="229" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -7285,25 +7286,25 @@
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A4" s="235" t="s">
+      <c r="A4" s="240" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="235"/>
-      <c r="C4" s="235"/>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235"/>
-      <c r="F4" s="235"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="240"/>
+      <c r="D4" s="240"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
       <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="235" t="s">
+      <c r="A5" s="240" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="235"/>
-      <c r="C5" s="235"/>
-      <c r="D5" s="235"/>
-      <c r="E5" s="235"/>
-      <c r="F5" s="235"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="240"/>
       <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
@@ -7321,10 +7322,10 @@
       <c r="A7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="240" t="s">
+      <c r="B7" s="247" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="241"/>
+      <c r="C7" s="248"/>
       <c r="D7" s="44" t="s">
         <v>191</v>
       </c>
@@ -15586,11 +15587,11 @@
       <c r="F567" s="65"/>
     </row>
     <row r="568" spans="1:6" s="10" customFormat="1" ht="20.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A568" s="242">
+      <c r="A568" s="249">
         <v>2</v>
       </c>
       <c r="B568" s="46"/>
-      <c r="C568" s="244" t="s">
+      <c r="C568" s="251" t="s">
         <v>234</v>
       </c>
       <c r="D568" s="98" t="s">
@@ -15600,9 +15601,9 @@
       <c r="F568" s="67"/>
     </row>
     <row r="569" spans="1:6" s="10" customFormat="1" ht="20.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A569" s="242"/>
+      <c r="A569" s="249"/>
       <c r="B569" s="46"/>
-      <c r="C569" s="244"/>
+      <c r="C569" s="251"/>
       <c r="D569" s="96" t="s">
         <v>4</v>
       </c>
@@ -15610,9 +15611,9 @@
       <c r="F569" s="64"/>
     </row>
     <row r="570" spans="1:6" s="15" customFormat="1" ht="20.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A570" s="242"/>
+      <c r="A570" s="249"/>
       <c r="B570" s="47"/>
-      <c r="C570" s="244"/>
+      <c r="C570" s="251"/>
       <c r="D570" s="96" t="s">
         <v>232</v>
       </c>
@@ -15620,9 +15621,9 @@
       <c r="F570" s="64"/>
     </row>
     <row r="571" spans="1:6" s="15" customFormat="1" ht="35.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A571" s="243"/>
+      <c r="A571" s="250"/>
       <c r="B571" s="48"/>
-      <c r="C571" s="245"/>
+      <c r="C571" s="252"/>
       <c r="D571" s="97" t="s">
         <v>233</v>
       </c>
@@ -15633,12 +15634,12 @@
       <c r="A572" s="49"/>
       <c r="B572" s="50"/>
       <c r="C572" s="51"/>
-      <c r="D572" s="239" t="str">
+      <c r="D572" s="246" t="str">
         <f ca="1">"TP. Hồ Chí Minh, ngày "&amp;TEXT(DAY(TODAY()),"00")&amp;" tháng "&amp;TEXT(MONTH(TODAY()),"00")&amp;" năm "&amp;YEAR(TODAY())</f>
         <v>TP. Hồ Chí Minh, ngày 31 tháng 05 năm 2022</v>
       </c>
-      <c r="E572" s="239"/>
-      <c r="F572" s="239"/>
+      <c r="E572" s="246"/>
+      <c r="F572" s="246"/>
     </row>
     <row r="573" spans="1:6" s="6" customFormat="1" ht="16.5" customHeight="1">
       <c r="A573" s="3" t="s">
@@ -22969,11 +22970,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="314" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
@@ -22981,30 +22982,30 @@
       <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:10" ht="42" customHeight="1">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="315" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="247"/>
-      <c r="C2" s="247"/>
-      <c r="D2" s="247"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="247"/>
-      <c r="G2" s="247"/>
-      <c r="H2" s="247"/>
+      <c r="B2" s="315"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
+      <c r="F2" s="315"/>
+      <c r="G2" s="315"/>
+      <c r="H2" s="315"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="14.25">
-      <c r="A3" s="248" t="s">
+      <c r="A3" s="316" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
+      <c r="F3" s="316"/>
+      <c r="G3" s="316"/>
+      <c r="H3" s="316"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="19"/>
@@ -23043,23 +23044,23 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A6" s="251">
+      <c r="A6" s="319">
         <v>1</v>
       </c>
-      <c r="B6" s="255" t="s">
+      <c r="B6" s="323" t="s">
         <v>107</v>
       </c>
       <c r="C6" s="101"/>
       <c r="D6" s="102"/>
-      <c r="E6" s="257">
+      <c r="E6" s="325">
         <f>D7</f>
         <v>29</v>
       </c>
-      <c r="F6" s="259">
+      <c r="F6" s="327">
         <f>587/12*9.5</f>
         <v>464.70833333333331</v>
       </c>
-      <c r="G6" s="257">
+      <c r="G6" s="325">
         <f>E6-F6</f>
         <v>-435.70833333333331</v>
       </c>
@@ -23068,26 +23069,26 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A7" s="252"/>
-      <c r="B7" s="256"/>
+      <c r="A7" s="320"/>
+      <c r="B7" s="324"/>
       <c r="C7" s="104" t="s">
         <v>388</v>
       </c>
       <c r="D7" s="105">
         <v>29</v>
       </c>
-      <c r="E7" s="258"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="258"/>
+      <c r="E7" s="326"/>
+      <c r="F7" s="328"/>
+      <c r="G7" s="326"/>
       <c r="H7" s="106" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A8" s="249">
+      <c r="A8" s="317">
         <v>2</v>
       </c>
-      <c r="B8" s="250" t="s">
+      <c r="B8" s="318" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="107" t="s">
@@ -23096,56 +23097,56 @@
       <c r="D8" s="108">
         <v>569.98</v>
       </c>
-      <c r="E8" s="253">
+      <c r="E8" s="321">
         <f>D8+D9+D10</f>
         <v>1098.28</v>
       </c>
-      <c r="F8" s="254">
+      <c r="F8" s="322">
         <v>587</v>
       </c>
-      <c r="G8" s="253">
+      <c r="G8" s="321">
         <f>E8-F8</f>
         <v>511.28</v>
       </c>
       <c r="H8" s="103"/>
     </row>
     <row r="9" spans="1:10" ht="110.25" customHeight="1">
-      <c r="A9" s="249"/>
-      <c r="B9" s="250"/>
+      <c r="A9" s="317"/>
+      <c r="B9" s="318"/>
       <c r="C9" s="107" t="s">
         <v>124</v>
       </c>
       <c r="D9" s="108">
         <v>469.3</v>
       </c>
-      <c r="E9" s="253"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="253"/>
+      <c r="E9" s="321"/>
+      <c r="F9" s="322"/>
+      <c r="G9" s="321"/>
       <c r="H9" s="103" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A10" s="249"/>
-      <c r="B10" s="250"/>
+      <c r="A10" s="317"/>
+      <c r="B10" s="318"/>
       <c r="C10" s="109" t="s">
         <v>125</v>
       </c>
       <c r="D10" s="108">
         <v>59</v>
       </c>
-      <c r="E10" s="253"/>
-      <c r="F10" s="254"/>
-      <c r="G10" s="253"/>
+      <c r="E10" s="321"/>
+      <c r="F10" s="322"/>
+      <c r="G10" s="321"/>
       <c r="H10" s="103" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A11" s="311">
+      <c r="A11" s="262">
         <v>3</v>
       </c>
-      <c r="B11" s="280" t="s">
+      <c r="B11" s="277" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="104" t="s">
@@ -23154,104 +23155,104 @@
       <c r="D11" s="105">
         <v>977.5</v>
       </c>
-      <c r="E11" s="281">
+      <c r="E11" s="308">
         <f>D11+D12+D13+D14+D15+D16</f>
         <v>1170.2</v>
       </c>
-      <c r="F11" s="282">
+      <c r="F11" s="309">
         <v>587</v>
       </c>
-      <c r="G11" s="282">
+      <c r="G11" s="309">
         <f>E11-F11</f>
         <v>583.20000000000005</v>
       </c>
       <c r="H11" s="111"/>
     </row>
     <row r="12" spans="1:10" ht="76.5">
-      <c r="A12" s="311"/>
-      <c r="B12" s="280"/>
+      <c r="A12" s="262"/>
+      <c r="B12" s="277"/>
       <c r="C12" s="104" t="s">
         <v>391</v>
       </c>
       <c r="D12" s="105">
         <v>32.700000000000003</v>
       </c>
-      <c r="E12" s="281"/>
-      <c r="F12" s="282"/>
-      <c r="G12" s="282"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="309"/>
+      <c r="G12" s="309"/>
       <c r="H12" s="111" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="76.5">
-      <c r="A13" s="311"/>
-      <c r="B13" s="280"/>
+      <c r="A13" s="262"/>
+      <c r="B13" s="277"/>
       <c r="C13" s="104" t="s">
         <v>392</v>
       </c>
       <c r="D13" s="105">
         <v>32.700000000000003</v>
       </c>
-      <c r="E13" s="281"/>
-      <c r="F13" s="282"/>
-      <c r="G13" s="282"/>
+      <c r="E13" s="308"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="309"/>
       <c r="H13" s="111" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A14" s="311"/>
-      <c r="B14" s="280"/>
+      <c r="A14" s="262"/>
+      <c r="B14" s="277"/>
       <c r="C14" s="104" t="s">
         <v>290</v>
       </c>
       <c r="D14" s="105">
         <v>59</v>
       </c>
-      <c r="E14" s="281"/>
-      <c r="F14" s="282"/>
-      <c r="G14" s="282"/>
+      <c r="E14" s="308"/>
+      <c r="F14" s="309"/>
+      <c r="G14" s="309"/>
       <c r="H14" s="111" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="25.5">
-      <c r="A15" s="311"/>
-      <c r="B15" s="280"/>
+      <c r="A15" s="262"/>
+      <c r="B15" s="277"/>
       <c r="C15" s="104" t="s">
         <v>388</v>
       </c>
       <c r="D15" s="105">
         <v>29</v>
       </c>
-      <c r="E15" s="281"/>
-      <c r="F15" s="282"/>
-      <c r="G15" s="282"/>
+      <c r="E15" s="308"/>
+      <c r="F15" s="309"/>
+      <c r="G15" s="309"/>
       <c r="H15" s="111" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="63.75">
-      <c r="A16" s="311"/>
-      <c r="B16" s="280"/>
+      <c r="A16" s="262"/>
+      <c r="B16" s="277"/>
       <c r="C16" s="104" t="s">
         <v>394</v>
       </c>
       <c r="D16" s="105">
         <v>39.299999999999997</v>
       </c>
-      <c r="E16" s="281"/>
-      <c r="F16" s="282"/>
-      <c r="G16" s="282"/>
+      <c r="E16" s="308"/>
+      <c r="F16" s="309"/>
+      <c r="G16" s="309"/>
       <c r="H16" s="111" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A17" s="311">
+      <c r="A17" s="262">
         <v>4</v>
       </c>
-      <c r="B17" s="280" t="s">
+      <c r="B17" s="277" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="104" t="s">
@@ -23260,14 +23261,14 @@
       <c r="D17" s="112">
         <v>841</v>
       </c>
-      <c r="E17" s="283">
+      <c r="E17" s="276">
         <f>D17+D18+D19</f>
         <v>1591.9</v>
       </c>
-      <c r="F17" s="284">
+      <c r="F17" s="310">
         <v>0</v>
       </c>
-      <c r="G17" s="285">
+      <c r="G17" s="311">
         <f>E17-F17</f>
         <v>1591.9</v>
       </c>
@@ -23276,42 +23277,42 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="76.5">
-      <c r="A18" s="311"/>
-      <c r="B18" s="280"/>
+      <c r="A18" s="262"/>
+      <c r="B18" s="277"/>
       <c r="C18" s="104" t="s">
         <v>127</v>
       </c>
       <c r="D18" s="112">
         <v>469.3</v>
       </c>
-      <c r="E18" s="283"/>
-      <c r="F18" s="284"/>
-      <c r="G18" s="285"/>
+      <c r="E18" s="276"/>
+      <c r="F18" s="310"/>
+      <c r="G18" s="311"/>
       <c r="H18" s="111" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="51">
-      <c r="A19" s="311"/>
-      <c r="B19" s="280"/>
+      <c r="A19" s="262"/>
+      <c r="B19" s="277"/>
       <c r="C19" s="104" t="s">
         <v>128</v>
       </c>
       <c r="D19" s="112">
         <v>281.60000000000002</v>
       </c>
-      <c r="E19" s="283"/>
-      <c r="F19" s="284"/>
-      <c r="G19" s="285"/>
+      <c r="E19" s="276"/>
+      <c r="F19" s="310"/>
+      <c r="G19" s="311"/>
       <c r="H19" s="111" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A20" s="311">
+      <c r="A20" s="262">
         <v>5</v>
       </c>
-      <c r="B20" s="280" t="s">
+      <c r="B20" s="277" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="104" t="s">
@@ -23320,104 +23321,104 @@
       <c r="D20" s="112">
         <v>9.65</v>
       </c>
-      <c r="E20" s="283">
+      <c r="E20" s="276">
         <f>D20+D21+D22+D23+D24+D25</f>
         <v>1021.75</v>
       </c>
-      <c r="F20" s="286">
+      <c r="F20" s="312">
         <v>587</v>
       </c>
-      <c r="G20" s="283">
+      <c r="G20" s="276">
         <f>E20-F20</f>
         <v>434.75</v>
       </c>
       <c r="H20" s="111"/>
     </row>
     <row r="21" spans="1:8" ht="76.5">
-      <c r="A21" s="311"/>
-      <c r="B21" s="280"/>
+      <c r="A21" s="262"/>
+      <c r="B21" s="277"/>
       <c r="C21" s="104" t="s">
         <v>392</v>
       </c>
       <c r="D21" s="112">
         <v>13.1</v>
       </c>
-      <c r="E21" s="283"/>
-      <c r="F21" s="286"/>
-      <c r="G21" s="283"/>
+      <c r="E21" s="276"/>
+      <c r="F21" s="312"/>
+      <c r="G21" s="276"/>
       <c r="H21" s="111" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="51">
-      <c r="A22" s="311"/>
-      <c r="B22" s="280"/>
+      <c r="A22" s="262"/>
+      <c r="B22" s="277"/>
       <c r="C22" s="104" t="s">
         <v>395</v>
       </c>
       <c r="D22" s="112">
         <v>59</v>
       </c>
-      <c r="E22" s="283"/>
-      <c r="F22" s="286"/>
-      <c r="G22" s="283"/>
+      <c r="E22" s="276"/>
+      <c r="F22" s="312"/>
+      <c r="G22" s="276"/>
       <c r="H22" s="111" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="38.25">
-      <c r="A23" s="311"/>
-      <c r="B23" s="280"/>
+      <c r="A23" s="262"/>
+      <c r="B23" s="277"/>
       <c r="C23" s="104" t="s">
         <v>397</v>
       </c>
       <c r="D23" s="112">
         <v>59</v>
       </c>
-      <c r="E23" s="283"/>
-      <c r="F23" s="286"/>
-      <c r="G23" s="283"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="312"/>
+      <c r="G23" s="276"/>
       <c r="H23" s="111" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="69.75" customHeight="1">
-      <c r="A24" s="311"/>
-      <c r="B24" s="280"/>
+      <c r="A24" s="262"/>
+      <c r="B24" s="277"/>
       <c r="C24" s="104" t="s">
         <v>399</v>
       </c>
       <c r="D24" s="112">
         <v>822</v>
       </c>
-      <c r="E24" s="283"/>
-      <c r="F24" s="286"/>
-      <c r="G24" s="283"/>
+      <c r="E24" s="276"/>
+      <c r="F24" s="312"/>
+      <c r="G24" s="276"/>
       <c r="H24" s="111" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="76.5" customHeight="1">
-      <c r="A25" s="311"/>
-      <c r="B25" s="280"/>
+      <c r="A25" s="262"/>
+      <c r="B25" s="277"/>
       <c r="C25" s="104" t="s">
         <v>310</v>
       </c>
       <c r="D25" s="112">
         <v>59</v>
       </c>
-      <c r="E25" s="283"/>
-      <c r="F25" s="286"/>
-      <c r="G25" s="283"/>
+      <c r="E25" s="276"/>
+      <c r="F25" s="312"/>
+      <c r="G25" s="276"/>
       <c r="H25" s="111" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A26" s="311">
+      <c r="A26" s="262">
         <v>6</v>
       </c>
-      <c r="B26" s="287" t="s">
+      <c r="B26" s="313" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="115" t="s">
@@ -23426,95 +23427,95 @@
       <c r="D26" s="116">
         <v>31</v>
       </c>
-      <c r="E26" s="267">
+      <c r="E26" s="261">
         <f>SUM(D26:D31)</f>
         <v>1015.9</v>
       </c>
-      <c r="F26" s="288">
+      <c r="F26" s="269">
         <v>587</v>
       </c>
-      <c r="G26" s="267">
+      <c r="G26" s="261">
         <f>E26-F26</f>
         <v>428.9</v>
       </c>
       <c r="H26" s="117"/>
     </row>
     <row r="27" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A27" s="311"/>
-      <c r="B27" s="287"/>
+      <c r="A27" s="262"/>
+      <c r="B27" s="313"/>
       <c r="C27" s="104" t="s">
         <v>170</v>
       </c>
       <c r="D27" s="118">
         <v>78</v>
       </c>
-      <c r="E27" s="267"/>
-      <c r="F27" s="288"/>
-      <c r="G27" s="267"/>
+      <c r="E27" s="261"/>
+      <c r="F27" s="269"/>
+      <c r="G27" s="261"/>
       <c r="H27" s="119" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="25.5">
-      <c r="A28" s="311"/>
-      <c r="B28" s="287"/>
+      <c r="A28" s="262"/>
+      <c r="B28" s="313"/>
       <c r="C28" s="120" t="s">
         <v>131</v>
       </c>
       <c r="D28" s="121">
         <v>58.7</v>
       </c>
-      <c r="E28" s="267"/>
-      <c r="F28" s="288"/>
-      <c r="G28" s="267"/>
+      <c r="E28" s="261"/>
+      <c r="F28" s="269"/>
+      <c r="G28" s="261"/>
       <c r="H28" s="119" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="110.25" customHeight="1">
-      <c r="A29" s="311"/>
-      <c r="B29" s="287"/>
+      <c r="A29" s="262"/>
+      <c r="B29" s="313"/>
       <c r="C29" s="122" t="s">
         <v>132</v>
       </c>
       <c r="D29" s="123">
         <v>104.8</v>
       </c>
-      <c r="E29" s="267"/>
-      <c r="F29" s="288"/>
-      <c r="G29" s="267"/>
+      <c r="E29" s="261"/>
+      <c r="F29" s="269"/>
+      <c r="G29" s="261"/>
       <c r="H29" s="124" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A30" s="311"/>
-      <c r="B30" s="287"/>
+      <c r="A30" s="262"/>
+      <c r="B30" s="313"/>
       <c r="C30" s="122" t="s">
         <v>124</v>
       </c>
       <c r="D30" s="123">
         <v>234.7</v>
       </c>
-      <c r="E30" s="267"/>
-      <c r="F30" s="288"/>
-      <c r="G30" s="267"/>
+      <c r="E30" s="261"/>
+      <c r="F30" s="269"/>
+      <c r="G30" s="261"/>
       <c r="H30" s="115" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A31" s="311"/>
-      <c r="B31" s="287"/>
+      <c r="A31" s="262"/>
+      <c r="B31" s="313"/>
       <c r="C31" s="115" t="s">
         <v>133</v>
       </c>
       <c r="D31" s="123">
         <v>508.7</v>
       </c>
-      <c r="E31" s="267"/>
-      <c r="F31" s="288"/>
-      <c r="G31" s="267"/>
+      <c r="E31" s="261"/>
+      <c r="F31" s="269"/>
+      <c r="G31" s="261"/>
       <c r="H31" s="125" t="s">
         <v>134</v>
       </c>
@@ -23544,10 +23545,10 @@
       <c r="H32" s="111"/>
     </row>
     <row r="33" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A33" s="312">
+      <c r="A33" s="255">
         <v>8</v>
       </c>
-      <c r="B33" s="268" t="s">
+      <c r="B33" s="263" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="126" t="s">
@@ -23556,14 +23557,14 @@
       <c r="D33" s="118">
         <v>352</v>
       </c>
-      <c r="E33" s="261">
+      <c r="E33" s="266">
         <f>SUM(D33:D35)</f>
         <v>834.40000000000009</v>
       </c>
-      <c r="F33" s="264">
+      <c r="F33" s="280">
         <v>587</v>
       </c>
-      <c r="G33" s="261">
+      <c r="G33" s="266">
         <f>E33-F33</f>
         <v>247.40000000000009</v>
       </c>
@@ -23572,40 +23573,40 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A34" s="313"/>
-      <c r="B34" s="269"/>
+      <c r="A34" s="256"/>
+      <c r="B34" s="264"/>
       <c r="C34" s="104" t="s">
         <v>376</v>
       </c>
       <c r="D34" s="121">
         <v>13.1</v>
       </c>
-      <c r="E34" s="262"/>
-      <c r="F34" s="265"/>
-      <c r="G34" s="262"/>
+      <c r="E34" s="267"/>
+      <c r="F34" s="281"/>
+      <c r="G34" s="267"/>
       <c r="H34" s="117"/>
     </row>
     <row r="35" spans="1:8" ht="38.25">
-      <c r="A35" s="314"/>
-      <c r="B35" s="270"/>
+      <c r="A35" s="257"/>
+      <c r="B35" s="265"/>
       <c r="C35" s="104" t="s">
         <v>402</v>
       </c>
       <c r="D35" s="121">
         <v>469.3</v>
       </c>
-      <c r="E35" s="263"/>
-      <c r="F35" s="266"/>
-      <c r="G35" s="263"/>
+      <c r="E35" s="268"/>
+      <c r="F35" s="282"/>
+      <c r="G35" s="268"/>
       <c r="H35" s="115" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A36" s="312">
+      <c r="A36" s="255">
         <v>9</v>
       </c>
-      <c r="B36" s="268" t="s">
+      <c r="B36" s="263" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="104" t="s">
@@ -23614,14 +23615,14 @@
       <c r="D36" s="112">
         <v>19.7</v>
       </c>
-      <c r="E36" s="271">
+      <c r="E36" s="272">
         <f>SUM(D36:D42)</f>
         <v>415.4</v>
       </c>
-      <c r="F36" s="274">
+      <c r="F36" s="302">
         <v>587</v>
       </c>
-      <c r="G36" s="277">
+      <c r="G36" s="305">
         <f>E36-F36</f>
         <v>-171.60000000000002</v>
       </c>
@@ -23630,104 +23631,104 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A37" s="313"/>
-      <c r="B37" s="269"/>
+      <c r="A37" s="256"/>
+      <c r="B37" s="264"/>
       <c r="C37" s="104" t="s">
         <v>298</v>
       </c>
       <c r="D37" s="112">
         <v>59</v>
       </c>
-      <c r="E37" s="272"/>
-      <c r="F37" s="275"/>
-      <c r="G37" s="278"/>
+      <c r="E37" s="273"/>
+      <c r="F37" s="303"/>
+      <c r="G37" s="306"/>
       <c r="H37" s="111" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A38" s="313"/>
-      <c r="B38" s="269"/>
+      <c r="A38" s="256"/>
+      <c r="B38" s="264"/>
       <c r="C38" s="104" t="s">
         <v>300</v>
       </c>
       <c r="D38" s="112">
         <v>59</v>
       </c>
-      <c r="E38" s="272"/>
-      <c r="F38" s="275"/>
-      <c r="G38" s="278"/>
+      <c r="E38" s="273"/>
+      <c r="F38" s="303"/>
+      <c r="G38" s="306"/>
       <c r="H38" s="111" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="63.75">
-      <c r="A39" s="313"/>
-      <c r="B39" s="269"/>
+      <c r="A39" s="256"/>
+      <c r="B39" s="264"/>
       <c r="C39" s="104" t="s">
         <v>136</v>
       </c>
       <c r="D39" s="112">
         <v>23.5</v>
       </c>
-      <c r="E39" s="272"/>
-      <c r="F39" s="275"/>
-      <c r="G39" s="278"/>
+      <c r="E39" s="273"/>
+      <c r="F39" s="303"/>
+      <c r="G39" s="306"/>
       <c r="H39" s="111" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="63.75">
-      <c r="A40" s="313"/>
-      <c r="B40" s="269"/>
+      <c r="A40" s="256"/>
+      <c r="B40" s="264"/>
       <c r="C40" s="104" t="s">
         <v>137</v>
       </c>
       <c r="D40" s="112">
         <v>39.1</v>
       </c>
-      <c r="E40" s="272"/>
-      <c r="F40" s="275"/>
-      <c r="G40" s="278"/>
+      <c r="E40" s="273"/>
+      <c r="F40" s="303"/>
+      <c r="G40" s="306"/>
       <c r="H40" s="111" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A41" s="313"/>
-      <c r="B41" s="269"/>
+      <c r="A41" s="256"/>
+      <c r="B41" s="264"/>
       <c r="C41" s="104" t="s">
         <v>138</v>
       </c>
       <c r="D41" s="112">
         <v>58.7</v>
       </c>
-      <c r="E41" s="272"/>
-      <c r="F41" s="275"/>
-      <c r="G41" s="278"/>
+      <c r="E41" s="273"/>
+      <c r="F41" s="303"/>
+      <c r="G41" s="306"/>
       <c r="H41" s="111" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A42" s="314"/>
-      <c r="B42" s="270"/>
+      <c r="A42" s="257"/>
+      <c r="B42" s="265"/>
       <c r="C42" s="107" t="s">
         <v>404</v>
       </c>
       <c r="D42" s="112">
         <v>156.4</v>
       </c>
-      <c r="E42" s="273"/>
-      <c r="F42" s="276"/>
-      <c r="G42" s="279"/>
+      <c r="E42" s="301"/>
+      <c r="F42" s="304"/>
+      <c r="G42" s="307"/>
       <c r="H42" s="111"/>
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A43" s="320">
+      <c r="A43" s="254">
         <v>10</v>
       </c>
-      <c r="B43" s="280" t="s">
+      <c r="B43" s="277" t="s">
         <v>258</v>
       </c>
       <c r="C43" s="104" t="s">
@@ -23736,88 +23737,88 @@
       <c r="D43" s="112">
         <v>109.5</v>
       </c>
-      <c r="E43" s="283">
+      <c r="E43" s="276">
         <f>D43+D44+D45+D46+D47</f>
         <v>650.90000000000009</v>
       </c>
-      <c r="F43" s="289">
+      <c r="F43" s="283">
         <v>587</v>
       </c>
-      <c r="G43" s="290">
+      <c r="G43" s="284">
         <f>E43-F43</f>
         <v>63.900000000000091</v>
       </c>
       <c r="H43" s="111"/>
     </row>
     <row r="44" spans="1:8" ht="63.75">
-      <c r="A44" s="320"/>
-      <c r="B44" s="280"/>
+      <c r="A44" s="254"/>
+      <c r="B44" s="277"/>
       <c r="C44" s="104" t="s">
         <v>139</v>
       </c>
       <c r="D44" s="112">
         <v>117.3</v>
       </c>
-      <c r="E44" s="283"/>
-      <c r="F44" s="289"/>
-      <c r="G44" s="291"/>
+      <c r="E44" s="276"/>
+      <c r="F44" s="283"/>
+      <c r="G44" s="285"/>
       <c r="H44" s="111" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="63.75">
-      <c r="A45" s="320"/>
-      <c r="B45" s="280"/>
+      <c r="A45" s="254"/>
+      <c r="B45" s="277"/>
       <c r="C45" s="104" t="s">
         <v>140</v>
       </c>
       <c r="D45" s="112">
         <v>117.3</v>
       </c>
-      <c r="E45" s="283"/>
-      <c r="F45" s="289"/>
-      <c r="G45" s="291"/>
+      <c r="E45" s="276"/>
+      <c r="F45" s="283"/>
+      <c r="G45" s="285"/>
       <c r="H45" s="111" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A46" s="320"/>
-      <c r="B46" s="280"/>
+      <c r="A46" s="254"/>
+      <c r="B46" s="277"/>
       <c r="C46" s="104" t="s">
         <v>376</v>
       </c>
       <c r="D46" s="112">
         <v>32.799999999999997</v>
       </c>
-      <c r="E46" s="283"/>
-      <c r="F46" s="289"/>
-      <c r="G46" s="291"/>
+      <c r="E46" s="276"/>
+      <c r="F46" s="283"/>
+      <c r="G46" s="285"/>
       <c r="H46" s="111" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A47" s="320"/>
-      <c r="B47" s="280"/>
+      <c r="A47" s="254"/>
+      <c r="B47" s="277"/>
       <c r="C47" s="127" t="s">
         <v>405</v>
       </c>
       <c r="D47" s="112">
         <v>274</v>
       </c>
-      <c r="E47" s="283"/>
-      <c r="F47" s="289"/>
-      <c r="G47" s="291"/>
+      <c r="E47" s="276"/>
+      <c r="F47" s="283"/>
+      <c r="G47" s="285"/>
       <c r="H47" s="111" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A48" s="312">
+      <c r="A48" s="255">
         <v>11</v>
       </c>
-      <c r="B48" s="268" t="s">
+      <c r="B48" s="263" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="120" t="s">
@@ -23826,14 +23827,14 @@
       <c r="D48" s="128">
         <v>59</v>
       </c>
-      <c r="E48" s="264">
+      <c r="E48" s="280">
         <f>SUM(D48:D51)</f>
         <v>881</v>
       </c>
-      <c r="F48" s="292">
+      <c r="F48" s="286">
         <v>587</v>
       </c>
-      <c r="G48" s="292">
+      <c r="G48" s="286">
         <f>E48-F48</f>
         <v>294</v>
       </c>
@@ -23842,58 +23843,58 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="51">
-      <c r="A49" s="313"/>
-      <c r="B49" s="269"/>
+      <c r="A49" s="256"/>
+      <c r="B49" s="264"/>
       <c r="C49" s="120" t="s">
         <v>408</v>
       </c>
       <c r="D49" s="128">
         <v>59</v>
       </c>
-      <c r="E49" s="265"/>
-      <c r="F49" s="293"/>
-      <c r="G49" s="293"/>
+      <c r="E49" s="281"/>
+      <c r="F49" s="287"/>
+      <c r="G49" s="287"/>
       <c r="H49" s="129" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A50" s="313"/>
-      <c r="B50" s="269"/>
+      <c r="A50" s="256"/>
+      <c r="B50" s="264"/>
       <c r="C50" s="120" t="s">
         <v>410</v>
       </c>
       <c r="D50" s="128">
         <v>59</v>
       </c>
-      <c r="E50" s="265"/>
-      <c r="F50" s="293"/>
-      <c r="G50" s="293"/>
+      <c r="E50" s="281"/>
+      <c r="F50" s="287"/>
+      <c r="G50" s="287"/>
       <c r="H50" s="129" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A51" s="314"/>
-      <c r="B51" s="270"/>
+      <c r="A51" s="257"/>
+      <c r="B51" s="265"/>
       <c r="C51" s="120" t="s">
         <v>412</v>
       </c>
       <c r="D51" s="128">
         <v>704</v>
       </c>
-      <c r="E51" s="266"/>
-      <c r="F51" s="294"/>
-      <c r="G51" s="294"/>
+      <c r="E51" s="282"/>
+      <c r="F51" s="288"/>
+      <c r="G51" s="288"/>
       <c r="H51" s="129" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A52" s="320">
+      <c r="A52" s="254">
         <v>12</v>
       </c>
-      <c r="B52" s="307" t="s">
+      <c r="B52" s="258" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="130" t="s">
@@ -23902,153 +23903,153 @@
       <c r="D52" s="118">
         <v>248.5</v>
       </c>
-      <c r="E52" s="267">
+      <c r="E52" s="261">
         <f>SUM(D52:D60)</f>
         <v>1463.5</v>
       </c>
-      <c r="F52" s="267">
+      <c r="F52" s="261">
         <f>587</f>
         <v>587</v>
       </c>
-      <c r="G52" s="267">
+      <c r="G52" s="261">
         <f>E52-F52</f>
         <v>876.5</v>
       </c>
       <c r="H52" s="119"/>
     </row>
     <row r="53" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A53" s="320"/>
-      <c r="B53" s="307"/>
+      <c r="A53" s="254"/>
+      <c r="B53" s="258"/>
       <c r="C53" s="131" t="s">
         <v>141</v>
       </c>
       <c r="D53" s="118">
         <v>59</v>
       </c>
-      <c r="E53" s="267"/>
-      <c r="F53" s="267"/>
-      <c r="G53" s="267"/>
+      <c r="E53" s="261"/>
+      <c r="F53" s="261"/>
+      <c r="G53" s="261"/>
       <c r="H53" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A54" s="320"/>
-      <c r="B54" s="307"/>
+      <c r="A54" s="254"/>
+      <c r="B54" s="258"/>
       <c r="C54" s="131" t="s">
         <v>143</v>
       </c>
       <c r="D54" s="118">
         <v>59</v>
       </c>
-      <c r="E54" s="267"/>
-      <c r="F54" s="267"/>
-      <c r="G54" s="267"/>
+      <c r="E54" s="261"/>
+      <c r="F54" s="261"/>
+      <c r="G54" s="261"/>
       <c r="H54" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A55" s="320"/>
-      <c r="B55" s="307"/>
+      <c r="A55" s="254"/>
+      <c r="B55" s="258"/>
       <c r="C55" s="131" t="s">
         <v>144</v>
       </c>
       <c r="D55" s="118">
         <v>59</v>
       </c>
-      <c r="E55" s="267"/>
-      <c r="F55" s="267"/>
-      <c r="G55" s="267"/>
+      <c r="E55" s="261"/>
+      <c r="F55" s="261"/>
+      <c r="G55" s="261"/>
       <c r="H55" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A56" s="320"/>
-      <c r="B56" s="307"/>
+      <c r="A56" s="254"/>
+      <c r="B56" s="258"/>
       <c r="C56" s="131" t="s">
         <v>145</v>
       </c>
       <c r="D56" s="118">
         <v>29</v>
       </c>
-      <c r="E56" s="267"/>
-      <c r="F56" s="267"/>
-      <c r="G56" s="267"/>
+      <c r="E56" s="261"/>
+      <c r="F56" s="261"/>
+      <c r="G56" s="261"/>
       <c r="H56" s="119" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A57" s="320"/>
-      <c r="B57" s="307"/>
+      <c r="A57" s="254"/>
+      <c r="B57" s="258"/>
       <c r="C57" s="131" t="s">
         <v>146</v>
       </c>
       <c r="D57" s="118">
         <v>94</v>
       </c>
-      <c r="E57" s="267"/>
-      <c r="F57" s="267"/>
-      <c r="G57" s="267"/>
+      <c r="E57" s="261"/>
+      <c r="F57" s="261"/>
+      <c r="G57" s="261"/>
       <c r="H57" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A58" s="320"/>
-      <c r="B58" s="307"/>
+      <c r="A58" s="254"/>
+      <c r="B58" s="258"/>
       <c r="C58" s="131" t="s">
         <v>147</v>
       </c>
       <c r="D58" s="118">
         <v>117</v>
       </c>
-      <c r="E58" s="267"/>
-      <c r="F58" s="267"/>
-      <c r="G58" s="267"/>
+      <c r="E58" s="261"/>
+      <c r="F58" s="261"/>
+      <c r="G58" s="261"/>
       <c r="H58" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="25.5">
-      <c r="A59" s="320"/>
-      <c r="B59" s="307"/>
+      <c r="A59" s="254"/>
+      <c r="B59" s="258"/>
       <c r="C59" s="131" t="s">
         <v>148</v>
       </c>
       <c r="D59" s="118">
         <v>94</v>
       </c>
-      <c r="E59" s="267"/>
-      <c r="F59" s="267"/>
-      <c r="G59" s="267"/>
+      <c r="E59" s="261"/>
+      <c r="F59" s="261"/>
+      <c r="G59" s="261"/>
       <c r="H59" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="51">
-      <c r="A60" s="320"/>
-      <c r="B60" s="307"/>
+      <c r="A60" s="254"/>
+      <c r="B60" s="258"/>
       <c r="C60" s="132" t="s">
         <v>414</v>
       </c>
       <c r="D60" s="121">
         <v>704</v>
       </c>
-      <c r="E60" s="267"/>
-      <c r="F60" s="267"/>
-      <c r="G60" s="267"/>
+      <c r="E60" s="261"/>
+      <c r="F60" s="261"/>
+      <c r="G60" s="261"/>
       <c r="H60" s="119" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A61" s="312">
+      <c r="A61" s="255">
         <v>13</v>
       </c>
-      <c r="B61" s="298" t="s">
+      <c r="B61" s="292" t="s">
         <v>25</v>
       </c>
       <c r="C61" s="131" t="s">
@@ -24057,14 +24058,14 @@
       <c r="D61" s="133">
         <v>117.3</v>
       </c>
-      <c r="E61" s="301">
+      <c r="E61" s="295">
         <f>SUM(D61:D64)</f>
         <v>404.29999999999995</v>
       </c>
-      <c r="F61" s="304">
+      <c r="F61" s="298">
         <v>587</v>
       </c>
-      <c r="G61" s="295">
+      <c r="G61" s="289">
         <f>E61-F61</f>
         <v>-182.70000000000005</v>
       </c>
@@ -24073,71 +24074,71 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="38.25">
-      <c r="A62" s="313"/>
-      <c r="B62" s="299"/>
+      <c r="A62" s="256"/>
+      <c r="B62" s="293"/>
       <c r="C62" s="134" t="s">
         <v>416</v>
       </c>
       <c r="D62" s="135">
         <v>39.299999999999997</v>
       </c>
-      <c r="E62" s="302"/>
-      <c r="F62" s="305"/>
-      <c r="G62" s="296"/>
+      <c r="E62" s="296"/>
+      <c r="F62" s="299"/>
+      <c r="G62" s="290"/>
       <c r="H62" s="119" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="94.5" customHeight="1">
-      <c r="A63" s="313"/>
-      <c r="B63" s="299"/>
+      <c r="A63" s="256"/>
+      <c r="B63" s="293"/>
       <c r="C63" s="104" t="s">
         <v>391</v>
       </c>
       <c r="D63" s="136">
         <v>13.1</v>
       </c>
-      <c r="E63" s="302"/>
-      <c r="F63" s="305"/>
-      <c r="G63" s="296"/>
+      <c r="E63" s="296"/>
+      <c r="F63" s="299"/>
+      <c r="G63" s="290"/>
       <c r="H63" s="111" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="69.75" customHeight="1">
-      <c r="A64" s="314"/>
-      <c r="B64" s="300"/>
+      <c r="A64" s="257"/>
+      <c r="B64" s="294"/>
       <c r="C64" s="104" t="s">
         <v>402</v>
       </c>
       <c r="D64" s="136">
         <v>234.6</v>
       </c>
-      <c r="E64" s="303"/>
-      <c r="F64" s="306"/>
-      <c r="G64" s="297"/>
+      <c r="E64" s="297"/>
+      <c r="F64" s="300"/>
+      <c r="G64" s="291"/>
       <c r="H64" s="111" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="38.25">
-      <c r="A65" s="312">
+      <c r="A65" s="255">
         <v>14</v>
       </c>
-      <c r="B65" s="268" t="s">
+      <c r="B65" s="263" t="s">
         <v>111</v>
       </c>
       <c r="C65" s="104"/>
       <c r="D65" s="136"/>
-      <c r="E65" s="261">
+      <c r="E65" s="266">
         <f>SUM(D65:D68)</f>
         <v>300.7</v>
       </c>
-      <c r="F65" s="264">
+      <c r="F65" s="280">
         <f>587/12*5</f>
         <v>244.58333333333331</v>
       </c>
-      <c r="G65" s="261">
+      <c r="G65" s="266">
         <f>E65-F65</f>
         <v>56.116666666666674</v>
       </c>
@@ -24146,58 +24147,58 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="38.25">
-      <c r="A66" s="313"/>
-      <c r="B66" s="269"/>
+      <c r="A66" s="256"/>
+      <c r="B66" s="264"/>
       <c r="C66" s="131" t="s">
         <v>150</v>
       </c>
       <c r="D66" s="118">
         <v>59</v>
       </c>
-      <c r="E66" s="262"/>
-      <c r="F66" s="265"/>
-      <c r="G66" s="262"/>
+      <c r="E66" s="267"/>
+      <c r="F66" s="281"/>
+      <c r="G66" s="267"/>
       <c r="H66" s="119" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="51">
-      <c r="A67" s="313"/>
-      <c r="B67" s="269"/>
+      <c r="A67" s="256"/>
+      <c r="B67" s="264"/>
       <c r="C67" s="120" t="s">
         <v>152</v>
       </c>
       <c r="D67" s="121">
         <v>59</v>
       </c>
-      <c r="E67" s="262"/>
-      <c r="F67" s="265"/>
-      <c r="G67" s="262"/>
+      <c r="E67" s="267"/>
+      <c r="F67" s="281"/>
+      <c r="G67" s="267"/>
       <c r="H67" s="119" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A68" s="314"/>
-      <c r="B68" s="270"/>
+      <c r="A68" s="257"/>
+      <c r="B68" s="265"/>
       <c r="C68" s="115" t="s">
         <v>420</v>
       </c>
       <c r="D68" s="137">
         <v>182.7</v>
       </c>
-      <c r="E68" s="263"/>
-      <c r="F68" s="266"/>
-      <c r="G68" s="263"/>
+      <c r="E68" s="268"/>
+      <c r="F68" s="282"/>
+      <c r="G68" s="268"/>
       <c r="H68" s="138" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A69" s="320">
+      <c r="A69" s="254">
         <v>15</v>
       </c>
-      <c r="B69" s="280" t="s">
+      <c r="B69" s="277" t="s">
         <v>26</v>
       </c>
       <c r="C69" s="139" t="s">
@@ -24206,72 +24207,72 @@
       <c r="D69" s="140">
         <v>82.1</v>
       </c>
-      <c r="E69" s="308">
+      <c r="E69" s="278">
         <f>SUM(D69:D72)</f>
         <v>1588.4</v>
       </c>
-      <c r="F69" s="309">
+      <c r="F69" s="279">
         <v>587</v>
       </c>
-      <c r="G69" s="309">
+      <c r="G69" s="279">
         <f>E69-F69</f>
         <v>1001.4000000000001</v>
       </c>
       <c r="H69" s="139"/>
     </row>
     <row r="70" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A70" s="320"/>
-      <c r="B70" s="280"/>
+      <c r="A70" s="254"/>
+      <c r="B70" s="277"/>
       <c r="C70" s="127" t="s">
         <v>405</v>
       </c>
       <c r="D70" s="140">
         <v>548</v>
       </c>
-      <c r="E70" s="308"/>
-      <c r="F70" s="309"/>
-      <c r="G70" s="309"/>
+      <c r="E70" s="278"/>
+      <c r="F70" s="279"/>
+      <c r="G70" s="279"/>
       <c r="H70" s="139" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A71" s="320"/>
-      <c r="B71" s="280"/>
+      <c r="A71" s="254"/>
+      <c r="B71" s="277"/>
       <c r="C71" s="127" t="s">
         <v>423</v>
       </c>
       <c r="D71" s="140">
         <v>254.3</v>
       </c>
-      <c r="E71" s="308"/>
-      <c r="F71" s="309"/>
-      <c r="G71" s="309"/>
+      <c r="E71" s="278"/>
+      <c r="F71" s="279"/>
+      <c r="G71" s="279"/>
       <c r="H71" s="139" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A72" s="320"/>
-      <c r="B72" s="280"/>
+      <c r="A72" s="254"/>
+      <c r="B72" s="277"/>
       <c r="C72" s="127" t="s">
         <v>425</v>
       </c>
       <c r="D72" s="140">
         <v>704</v>
       </c>
-      <c r="E72" s="308"/>
-      <c r="F72" s="309"/>
-      <c r="G72" s="309"/>
+      <c r="E72" s="278"/>
+      <c r="F72" s="279"/>
+      <c r="G72" s="279"/>
       <c r="H72" s="139" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="38.25">
-      <c r="A73" s="320">
+      <c r="A73" s="254">
         <v>16</v>
       </c>
-      <c r="B73" s="307" t="s">
+      <c r="B73" s="258" t="s">
         <v>27</v>
       </c>
       <c r="C73" s="131" t="s">
@@ -24280,15 +24281,15 @@
       <c r="D73" s="116">
         <v>1018.83</v>
       </c>
-      <c r="E73" s="267">
+      <c r="E73" s="261">
         <f>SUM(D73:D77)</f>
         <v>2074.5299999999997</v>
       </c>
-      <c r="F73" s="288">
+      <c r="F73" s="269">
         <f>587/12*11.5*0.4+587/12*0.5*0.3</f>
         <v>232.35416666666666</v>
       </c>
-      <c r="G73" s="288">
+      <c r="G73" s="269">
         <f>E73-F73</f>
         <v>1842.175833333333</v>
       </c>
@@ -24297,72 +24298,72 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="63.75">
-      <c r="A74" s="320"/>
-      <c r="B74" s="307"/>
+      <c r="A74" s="254"/>
+      <c r="B74" s="258"/>
       <c r="C74" s="131" t="s">
         <v>157</v>
       </c>
       <c r="D74" s="118">
         <v>391</v>
       </c>
-      <c r="E74" s="267"/>
-      <c r="F74" s="288"/>
-      <c r="G74" s="288"/>
+      <c r="E74" s="261"/>
+      <c r="F74" s="269"/>
+      <c r="G74" s="269"/>
       <c r="H74" s="141"/>
     </row>
     <row r="75" spans="1:8" ht="51">
-      <c r="A75" s="320"/>
-      <c r="B75" s="307"/>
+      <c r="A75" s="254"/>
+      <c r="B75" s="258"/>
       <c r="C75" s="131" t="s">
         <v>426</v>
       </c>
       <c r="D75" s="118">
         <v>586</v>
       </c>
-      <c r="E75" s="267"/>
-      <c r="F75" s="288"/>
-      <c r="G75" s="288"/>
+      <c r="E75" s="261"/>
+      <c r="F75" s="269"/>
+      <c r="G75" s="269"/>
       <c r="H75" s="111" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A76" s="320"/>
-      <c r="B76" s="307"/>
+      <c r="A76" s="254"/>
+      <c r="B76" s="258"/>
       <c r="C76" s="131" t="s">
         <v>308</v>
       </c>
       <c r="D76" s="118">
         <v>19.7</v>
       </c>
-      <c r="E76" s="267"/>
-      <c r="F76" s="288"/>
-      <c r="G76" s="288"/>
+      <c r="E76" s="261"/>
+      <c r="F76" s="269"/>
+      <c r="G76" s="269"/>
       <c r="H76" s="111" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A77" s="320"/>
-      <c r="B77" s="307"/>
+      <c r="A77" s="254"/>
+      <c r="B77" s="258"/>
       <c r="C77" s="139" t="s">
         <v>310</v>
       </c>
       <c r="D77" s="118">
         <v>59</v>
       </c>
-      <c r="E77" s="267"/>
-      <c r="F77" s="288"/>
-      <c r="G77" s="288"/>
+      <c r="E77" s="261"/>
+      <c r="F77" s="269"/>
+      <c r="G77" s="269"/>
       <c r="H77" s="111" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A78" s="320">
+      <c r="A78" s="254">
         <v>17</v>
       </c>
-      <c r="B78" s="307" t="s">
+      <c r="B78" s="258" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="131" t="s">
@@ -24371,120 +24372,120 @@
       <c r="D78" s="118">
         <v>536.16666666666697</v>
       </c>
-      <c r="E78" s="267">
+      <c r="E78" s="261">
         <f>+D78+D79+D80+D81+D82+D83+D84</f>
         <v>1607.2666666666669</v>
       </c>
-      <c r="F78" s="319">
+      <c r="F78" s="260">
         <v>587</v>
       </c>
-      <c r="G78" s="267">
+      <c r="G78" s="261">
         <f>E78-F78</f>
         <v>1020.2666666666669</v>
       </c>
       <c r="H78" s="119"/>
     </row>
     <row r="79" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A79" s="320"/>
-      <c r="B79" s="307"/>
+      <c r="A79" s="254"/>
+      <c r="B79" s="258"/>
       <c r="C79" s="131" t="s">
         <v>158</v>
       </c>
       <c r="D79" s="118">
         <v>59</v>
       </c>
-      <c r="E79" s="267"/>
-      <c r="F79" s="319"/>
-      <c r="G79" s="267"/>
+      <c r="E79" s="261"/>
+      <c r="F79" s="260"/>
+      <c r="G79" s="261"/>
       <c r="H79" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="25.5">
-      <c r="A80" s="320"/>
-      <c r="B80" s="307"/>
+      <c r="A80" s="254"/>
+      <c r="B80" s="258"/>
       <c r="C80" s="131" t="s">
         <v>160</v>
       </c>
       <c r="D80" s="118">
         <v>59</v>
       </c>
-      <c r="E80" s="267"/>
-      <c r="F80" s="319"/>
-      <c r="G80" s="267"/>
+      <c r="E80" s="261"/>
+      <c r="F80" s="260"/>
+      <c r="G80" s="261"/>
       <c r="H80" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A81" s="320"/>
-      <c r="B81" s="307"/>
+      <c r="A81" s="254"/>
+      <c r="B81" s="258"/>
       <c r="C81" s="131" t="s">
         <v>161</v>
       </c>
       <c r="D81" s="118">
         <v>59</v>
       </c>
-      <c r="E81" s="267"/>
-      <c r="F81" s="319"/>
-      <c r="G81" s="267"/>
+      <c r="E81" s="261"/>
+      <c r="F81" s="260"/>
+      <c r="G81" s="261"/>
       <c r="H81" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A82" s="320"/>
-      <c r="B82" s="307"/>
+      <c r="A82" s="254"/>
+      <c r="B82" s="258"/>
       <c r="C82" s="131" t="s">
         <v>311</v>
       </c>
       <c r="D82" s="118">
         <v>59</v>
       </c>
-      <c r="E82" s="267"/>
-      <c r="F82" s="319"/>
-      <c r="G82" s="267"/>
+      <c r="E82" s="261"/>
+      <c r="F82" s="260"/>
+      <c r="G82" s="261"/>
       <c r="H82" s="119" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A83" s="320"/>
-      <c r="B83" s="307"/>
+      <c r="A83" s="254"/>
+      <c r="B83" s="258"/>
       <c r="C83" s="104" t="s">
         <v>392</v>
       </c>
       <c r="D83" s="118">
         <v>13.1</v>
       </c>
-      <c r="E83" s="267"/>
-      <c r="F83" s="319"/>
-      <c r="G83" s="267"/>
+      <c r="E83" s="261"/>
+      <c r="F83" s="260"/>
+      <c r="G83" s="261"/>
       <c r="H83" s="119" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A84" s="320"/>
-      <c r="B84" s="307"/>
+      <c r="A84" s="254"/>
+      <c r="B84" s="258"/>
       <c r="C84" s="120" t="s">
         <v>162</v>
       </c>
       <c r="D84" s="121">
         <v>822</v>
       </c>
-      <c r="E84" s="267"/>
-      <c r="F84" s="319"/>
-      <c r="G84" s="267"/>
+      <c r="E84" s="261"/>
+      <c r="F84" s="260"/>
+      <c r="G84" s="261"/>
       <c r="H84" s="119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A85" s="320">
+      <c r="A85" s="254">
         <v>18</v>
       </c>
-      <c r="B85" s="307" t="s">
+      <c r="B85" s="258" t="s">
         <v>32</v>
       </c>
       <c r="C85" s="130" t="s">
@@ -24493,121 +24494,121 @@
       <c r="D85" s="118">
         <v>806.83</v>
       </c>
-      <c r="E85" s="267">
+      <c r="E85" s="261">
         <f>SUM(D85:D91)</f>
         <v>1433.83</v>
       </c>
-      <c r="F85" s="267">
+      <c r="F85" s="261">
         <f>587</f>
         <v>587</v>
       </c>
-      <c r="G85" s="267">
+      <c r="G85" s="261">
         <f>E85-F85</f>
         <v>846.82999999999993</v>
       </c>
       <c r="H85" s="119"/>
     </row>
     <row r="86" spans="1:8" ht="25.5">
-      <c r="A86" s="320"/>
-      <c r="B86" s="307"/>
+      <c r="A86" s="254"/>
+      <c r="B86" s="258"/>
       <c r="C86" s="131" t="s">
         <v>313</v>
       </c>
       <c r="D86" s="118">
         <v>59</v>
       </c>
-      <c r="E86" s="267"/>
-      <c r="F86" s="267"/>
-      <c r="G86" s="267"/>
+      <c r="E86" s="261"/>
+      <c r="F86" s="261"/>
+      <c r="G86" s="261"/>
       <c r="H86" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="25.5">
-      <c r="A87" s="320"/>
-      <c r="B87" s="307"/>
+      <c r="A87" s="254"/>
+      <c r="B87" s="258"/>
       <c r="C87" s="131" t="s">
         <v>314</v>
       </c>
       <c r="D87" s="118">
         <v>59</v>
       </c>
-      <c r="E87" s="267"/>
-      <c r="F87" s="267"/>
-      <c r="G87" s="267"/>
+      <c r="E87" s="261"/>
+      <c r="F87" s="261"/>
+      <c r="G87" s="261"/>
       <c r="H87" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A88" s="320"/>
-      <c r="B88" s="307"/>
+      <c r="A88" s="254"/>
+      <c r="B88" s="258"/>
       <c r="C88" s="131" t="s">
         <v>315</v>
       </c>
       <c r="D88" s="118">
         <v>59</v>
       </c>
-      <c r="E88" s="267"/>
-      <c r="F88" s="267"/>
-      <c r="G88" s="267"/>
+      <c r="E88" s="261"/>
+      <c r="F88" s="261"/>
+      <c r="G88" s="261"/>
       <c r="H88" s="119" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="51">
-      <c r="A89" s="320"/>
-      <c r="B89" s="307"/>
+      <c r="A89" s="254"/>
+      <c r="B89" s="258"/>
       <c r="C89" s="131" t="s">
         <v>316</v>
       </c>
       <c r="D89" s="118">
         <v>195.5</v>
       </c>
-      <c r="E89" s="267"/>
-      <c r="F89" s="267"/>
-      <c r="G89" s="267"/>
+      <c r="E89" s="261"/>
+      <c r="F89" s="261"/>
+      <c r="G89" s="261"/>
       <c r="H89" s="119" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="51">
-      <c r="A90" s="320"/>
-      <c r="B90" s="307"/>
+      <c r="A90" s="254"/>
+      <c r="B90" s="258"/>
       <c r="C90" s="131" t="s">
         <v>318</v>
       </c>
       <c r="D90" s="118">
         <v>195.5</v>
       </c>
-      <c r="E90" s="267"/>
-      <c r="F90" s="267"/>
-      <c r="G90" s="267"/>
+      <c r="E90" s="261"/>
+      <c r="F90" s="261"/>
+      <c r="G90" s="261"/>
       <c r="H90" s="119" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="38.25">
-      <c r="A91" s="320"/>
-      <c r="B91" s="307"/>
+      <c r="A91" s="254"/>
+      <c r="B91" s="258"/>
       <c r="C91" s="131" t="s">
         <v>165</v>
       </c>
       <c r="D91" s="118">
         <v>59</v>
       </c>
-      <c r="E91" s="267"/>
-      <c r="F91" s="267"/>
-      <c r="G91" s="267"/>
+      <c r="E91" s="261"/>
+      <c r="F91" s="261"/>
+      <c r="G91" s="261"/>
       <c r="H91" s="119" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A92" s="312">
+      <c r="A92" s="255">
         <v>19</v>
       </c>
-      <c r="B92" s="268" t="s">
+      <c r="B92" s="263" t="s">
         <v>34</v>
       </c>
       <c r="C92" s="104" t="s">
@@ -24616,326 +24617,326 @@
       <c r="D92" s="112">
         <v>675.15</v>
       </c>
-      <c r="E92" s="271">
+      <c r="E92" s="272">
         <f>SUM(D92:D111)</f>
         <v>3881.8900000000003</v>
       </c>
-      <c r="F92" s="317">
+      <c r="F92" s="274">
         <v>587</v>
       </c>
-      <c r="G92" s="271">
+      <c r="G92" s="272">
         <f>E92-F92</f>
         <v>3294.8900000000003</v>
       </c>
       <c r="H92" s="111"/>
     </row>
     <row r="93" spans="1:8" ht="63.75">
-      <c r="A93" s="313"/>
-      <c r="B93" s="269"/>
+      <c r="A93" s="256"/>
+      <c r="B93" s="264"/>
       <c r="C93" s="104" t="s">
         <v>166</v>
       </c>
       <c r="D93" s="112">
         <v>254.3</v>
       </c>
-      <c r="E93" s="272"/>
-      <c r="F93" s="318"/>
-      <c r="G93" s="272"/>
+      <c r="E93" s="273"/>
+      <c r="F93" s="275"/>
+      <c r="G93" s="273"/>
       <c r="H93" s="111" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="63.75">
-      <c r="A94" s="313"/>
-      <c r="B94" s="269"/>
+      <c r="A94" s="256"/>
+      <c r="B94" s="264"/>
       <c r="C94" s="104" t="s">
         <v>167</v>
       </c>
       <c r="D94" s="112">
         <v>411</v>
       </c>
-      <c r="E94" s="272"/>
-      <c r="F94" s="318"/>
-      <c r="G94" s="272"/>
+      <c r="E94" s="273"/>
+      <c r="F94" s="275"/>
+      <c r="G94" s="273"/>
       <c r="H94" s="111" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="89.25">
-      <c r="A95" s="313"/>
-      <c r="B95" s="269"/>
+      <c r="A95" s="256"/>
+      <c r="B95" s="264"/>
       <c r="C95" s="104" t="s">
         <v>168</v>
       </c>
       <c r="D95" s="112">
         <v>456.67</v>
       </c>
-      <c r="E95" s="272"/>
-      <c r="F95" s="318"/>
-      <c r="G95" s="272"/>
+      <c r="E95" s="273"/>
+      <c r="F95" s="275"/>
+      <c r="G95" s="273"/>
       <c r="H95" s="111" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="102">
-      <c r="A96" s="313"/>
-      <c r="B96" s="269"/>
+      <c r="A96" s="256"/>
+      <c r="B96" s="264"/>
       <c r="C96" s="104" t="s">
         <v>169</v>
       </c>
       <c r="D96" s="112">
         <v>127.17</v>
       </c>
-      <c r="E96" s="272"/>
-      <c r="F96" s="318"/>
-      <c r="G96" s="272"/>
+      <c r="E96" s="273"/>
+      <c r="F96" s="275"/>
+      <c r="G96" s="273"/>
       <c r="H96" s="111" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="126" customHeight="1">
-      <c r="A97" s="313"/>
-      <c r="B97" s="269"/>
+      <c r="A97" s="256"/>
+      <c r="B97" s="264"/>
       <c r="C97" s="104" t="s">
         <v>170</v>
       </c>
       <c r="D97" s="112">
         <v>339.11</v>
       </c>
-      <c r="E97" s="272"/>
-      <c r="F97" s="318"/>
-      <c r="G97" s="272"/>
+      <c r="E97" s="273"/>
+      <c r="F97" s="275"/>
+      <c r="G97" s="273"/>
       <c r="H97" s="111" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="76.5">
-      <c r="A98" s="313"/>
-      <c r="B98" s="269"/>
+      <c r="A98" s="256"/>
+      <c r="B98" s="264"/>
       <c r="C98" s="104" t="s">
         <v>171</v>
       </c>
       <c r="D98" s="112">
         <v>130.44</v>
       </c>
-      <c r="E98" s="272"/>
-      <c r="F98" s="318"/>
-      <c r="G98" s="272"/>
+      <c r="E98" s="273"/>
+      <c r="F98" s="275"/>
+      <c r="G98" s="273"/>
       <c r="H98" s="111" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="76.5">
-      <c r="A99" s="313"/>
-      <c r="B99" s="269"/>
+      <c r="A99" s="256"/>
+      <c r="B99" s="264"/>
       <c r="C99" s="104" t="s">
         <v>172</v>
       </c>
       <c r="D99" s="112">
         <v>111.81</v>
       </c>
-      <c r="E99" s="272"/>
-      <c r="F99" s="318"/>
-      <c r="G99" s="272"/>
+      <c r="E99" s="273"/>
+      <c r="F99" s="275"/>
+      <c r="G99" s="273"/>
       <c r="H99" s="111" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="38.25">
-      <c r="A100" s="313"/>
-      <c r="B100" s="269"/>
+      <c r="A100" s="256"/>
+      <c r="B100" s="264"/>
       <c r="C100" s="104" t="s">
         <v>173</v>
       </c>
       <c r="D100" s="112">
         <v>19.670000000000002</v>
       </c>
-      <c r="E100" s="272"/>
-      <c r="F100" s="318"/>
-      <c r="G100" s="272"/>
+      <c r="E100" s="273"/>
+      <c r="F100" s="275"/>
+      <c r="G100" s="273"/>
       <c r="H100" s="111"/>
     </row>
     <row r="101" spans="1:8" ht="63.75">
-      <c r="A101" s="313"/>
-      <c r="B101" s="269"/>
+      <c r="A101" s="256"/>
+      <c r="B101" s="264"/>
       <c r="C101" s="104" t="s">
         <v>174</v>
       </c>
       <c r="D101" s="112">
         <v>195.67</v>
       </c>
-      <c r="E101" s="272"/>
-      <c r="F101" s="318"/>
-      <c r="G101" s="272"/>
+      <c r="E101" s="273"/>
+      <c r="F101" s="275"/>
+      <c r="G101" s="273"/>
       <c r="H101" s="111" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A102" s="313"/>
-      <c r="B102" s="269"/>
+      <c r="A102" s="256"/>
+      <c r="B102" s="264"/>
       <c r="C102" s="104" t="s">
         <v>175</v>
       </c>
       <c r="D102" s="142">
         <v>70</v>
       </c>
-      <c r="E102" s="272"/>
-      <c r="F102" s="318"/>
-      <c r="G102" s="272"/>
+      <c r="E102" s="273"/>
+      <c r="F102" s="275"/>
+      <c r="G102" s="273"/>
       <c r="H102" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A103" s="313"/>
-      <c r="B103" s="269"/>
+      <c r="A103" s="256"/>
+      <c r="B103" s="264"/>
       <c r="C103" s="104" t="s">
         <v>176</v>
       </c>
       <c r="D103" s="142">
         <v>70</v>
       </c>
-      <c r="E103" s="272"/>
-      <c r="F103" s="318"/>
-      <c r="G103" s="272"/>
+      <c r="E103" s="273"/>
+      <c r="F103" s="275"/>
+      <c r="G103" s="273"/>
       <c r="H103" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="25.5">
-      <c r="A104" s="313"/>
-      <c r="B104" s="269"/>
+      <c r="A104" s="256"/>
+      <c r="B104" s="264"/>
       <c r="C104" s="104" t="s">
         <v>177</v>
       </c>
       <c r="D104" s="142">
         <v>70</v>
       </c>
-      <c r="E104" s="272"/>
-      <c r="F104" s="318"/>
-      <c r="G104" s="272"/>
+      <c r="E104" s="273"/>
+      <c r="F104" s="275"/>
+      <c r="G104" s="273"/>
       <c r="H104" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="25.5">
-      <c r="A105" s="313"/>
-      <c r="B105" s="269"/>
+      <c r="A105" s="256"/>
+      <c r="B105" s="264"/>
       <c r="C105" s="104" t="s">
         <v>178</v>
       </c>
       <c r="D105" s="142">
         <v>70</v>
       </c>
-      <c r="E105" s="272"/>
-      <c r="F105" s="318"/>
-      <c r="G105" s="272"/>
+      <c r="E105" s="273"/>
+      <c r="F105" s="275"/>
+      <c r="G105" s="273"/>
       <c r="H105" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A106" s="313"/>
-      <c r="B106" s="269"/>
+      <c r="A106" s="256"/>
+      <c r="B106" s="264"/>
       <c r="C106" s="104" t="s">
         <v>179</v>
       </c>
       <c r="D106" s="142">
         <v>59</v>
       </c>
-      <c r="E106" s="272"/>
-      <c r="F106" s="318"/>
-      <c r="G106" s="272"/>
+      <c r="E106" s="273"/>
+      <c r="F106" s="275"/>
+      <c r="G106" s="273"/>
       <c r="H106" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A107" s="313"/>
-      <c r="B107" s="269"/>
+      <c r="A107" s="256"/>
+      <c r="B107" s="264"/>
       <c r="C107" s="104" t="s">
         <v>180</v>
       </c>
       <c r="D107" s="142">
         <v>59</v>
       </c>
-      <c r="E107" s="272"/>
-      <c r="F107" s="318"/>
-      <c r="G107" s="272"/>
+      <c r="E107" s="273"/>
+      <c r="F107" s="275"/>
+      <c r="G107" s="273"/>
       <c r="H107" s="143" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A108" s="313"/>
-      <c r="B108" s="269"/>
+      <c r="A108" s="256"/>
+      <c r="B108" s="264"/>
       <c r="C108" s="104" t="s">
         <v>181</v>
       </c>
       <c r="D108" s="142">
         <v>29</v>
       </c>
-      <c r="E108" s="272"/>
-      <c r="F108" s="318"/>
-      <c r="G108" s="272"/>
+      <c r="E108" s="273"/>
+      <c r="F108" s="275"/>
+      <c r="G108" s="273"/>
       <c r="H108" s="143" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A109" s="313"/>
-      <c r="B109" s="269"/>
+      <c r="A109" s="256"/>
+      <c r="B109" s="264"/>
       <c r="C109" s="104" t="s">
         <v>429</v>
       </c>
       <c r="D109" s="105">
         <v>411.1</v>
       </c>
-      <c r="E109" s="272"/>
-      <c r="F109" s="318"/>
-      <c r="G109" s="272"/>
+      <c r="E109" s="273"/>
+      <c r="F109" s="275"/>
+      <c r="G109" s="273"/>
       <c r="H109" s="143" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A110" s="313"/>
-      <c r="B110" s="269"/>
+      <c r="A110" s="256"/>
+      <c r="B110" s="264"/>
       <c r="C110" s="104" t="s">
         <v>430</v>
       </c>
       <c r="D110" s="105">
         <v>146.80000000000001</v>
       </c>
-      <c r="E110" s="272"/>
-      <c r="F110" s="318"/>
-      <c r="G110" s="272"/>
+      <c r="E110" s="273"/>
+      <c r="F110" s="275"/>
+      <c r="G110" s="273"/>
       <c r="H110" s="144" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A111" s="313"/>
-      <c r="B111" s="269"/>
+      <c r="A111" s="256"/>
+      <c r="B111" s="264"/>
       <c r="C111" s="104" t="s">
         <v>431</v>
       </c>
       <c r="D111" s="142">
         <v>176</v>
       </c>
-      <c r="E111" s="272"/>
-      <c r="F111" s="318"/>
-      <c r="G111" s="272"/>
+      <c r="E111" s="273"/>
+      <c r="F111" s="275"/>
+      <c r="G111" s="273"/>
       <c r="H111" s="143" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A112" s="320">
+      <c r="A112" s="254">
         <v>20</v>
       </c>
-      <c r="B112" s="307" t="s">
+      <c r="B112" s="258" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="104" t="s">
@@ -24944,15 +24945,15 @@
       <c r="D112" s="142">
         <v>1655.9</v>
       </c>
-      <c r="E112" s="267">
+      <c r="E112" s="261">
         <f>D112+D113+D114+D115+D116+D117</f>
         <v>1909.6000000000001</v>
       </c>
-      <c r="F112" s="319">
+      <c r="F112" s="260">
         <f>587/12*0.5*0.4+587/12*11.5</f>
         <v>572.32499999999993</v>
       </c>
-      <c r="G112" s="283">
+      <c r="G112" s="276">
         <f>E112-F112</f>
         <v>1337.2750000000001</v>
       </c>
@@ -24961,90 +24962,90 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A113" s="320"/>
-      <c r="B113" s="307"/>
+      <c r="A113" s="254"/>
+      <c r="B113" s="258"/>
       <c r="C113" s="104" t="s">
         <v>170</v>
       </c>
       <c r="D113" s="118">
         <v>78</v>
       </c>
-      <c r="E113" s="267"/>
-      <c r="F113" s="319"/>
-      <c r="G113" s="283"/>
+      <c r="E113" s="261"/>
+      <c r="F113" s="260"/>
+      <c r="G113" s="276"/>
       <c r="H113" s="119" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A114" s="320"/>
-      <c r="B114" s="307"/>
+      <c r="A114" s="254"/>
+      <c r="B114" s="258"/>
       <c r="C114" s="120" t="s">
         <v>131</v>
       </c>
       <c r="D114" s="121">
         <v>58.7</v>
       </c>
-      <c r="E114" s="267"/>
-      <c r="F114" s="319"/>
-      <c r="G114" s="283"/>
+      <c r="E114" s="261"/>
+      <c r="F114" s="260"/>
+      <c r="G114" s="276"/>
       <c r="H114" s="119" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A115" s="320"/>
-      <c r="B115" s="307"/>
+      <c r="A115" s="254"/>
+      <c r="B115" s="258"/>
       <c r="C115" s="122" t="s">
         <v>183</v>
       </c>
       <c r="D115" s="123">
         <v>29</v>
       </c>
-      <c r="E115" s="267"/>
-      <c r="F115" s="319"/>
-      <c r="G115" s="283"/>
+      <c r="E115" s="261"/>
+      <c r="F115" s="260"/>
+      <c r="G115" s="276"/>
       <c r="H115" s="124" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A116" s="320"/>
-      <c r="B116" s="307"/>
+      <c r="A116" s="254"/>
+      <c r="B116" s="258"/>
       <c r="C116" s="122" t="s">
         <v>432</v>
       </c>
       <c r="D116" s="123">
         <v>29</v>
       </c>
-      <c r="E116" s="267"/>
-      <c r="F116" s="319"/>
-      <c r="G116" s="283"/>
+      <c r="E116" s="261"/>
+      <c r="F116" s="260"/>
+      <c r="G116" s="276"/>
       <c r="H116" s="124" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A117" s="320"/>
-      <c r="B117" s="307"/>
+      <c r="A117" s="254"/>
+      <c r="B117" s="258"/>
       <c r="C117" s="115" t="s">
         <v>329</v>
       </c>
       <c r="D117" s="123">
         <v>59</v>
       </c>
-      <c r="E117" s="267"/>
-      <c r="F117" s="319"/>
-      <c r="G117" s="283"/>
+      <c r="E117" s="261"/>
+      <c r="F117" s="260"/>
+      <c r="G117" s="276"/>
       <c r="H117" s="125" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A118" s="312">
+      <c r="A118" s="255">
         <v>21</v>
       </c>
-      <c r="B118" s="268" t="s">
+      <c r="B118" s="263" t="s">
         <v>29</v>
       </c>
       <c r="C118" s="130" t="s">
@@ -25053,88 +25054,88 @@
       <c r="D118" s="118">
         <v>407</v>
       </c>
-      <c r="E118" s="261">
+      <c r="E118" s="266">
         <f>SUM(D118:D122)</f>
         <v>720.8</v>
       </c>
-      <c r="F118" s="261">
+      <c r="F118" s="266">
         <v>587</v>
       </c>
-      <c r="G118" s="261">
+      <c r="G118" s="266">
         <f>E118-F118</f>
         <v>133.79999999999995</v>
       </c>
       <c r="H118" s="119"/>
     </row>
     <row r="119" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A119" s="313"/>
-      <c r="B119" s="269"/>
+      <c r="A119" s="256"/>
+      <c r="B119" s="264"/>
       <c r="C119" s="120" t="s">
         <v>184</v>
       </c>
       <c r="D119" s="118">
         <v>59</v>
       </c>
-      <c r="E119" s="262"/>
-      <c r="F119" s="262"/>
-      <c r="G119" s="262"/>
+      <c r="E119" s="267"/>
+      <c r="F119" s="267"/>
+      <c r="G119" s="267"/>
       <c r="H119" s="119" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A120" s="313"/>
-      <c r="B120" s="269"/>
+      <c r="A120" s="256"/>
+      <c r="B120" s="264"/>
       <c r="C120" s="120" t="s">
         <v>185</v>
       </c>
       <c r="D120" s="118">
         <v>59</v>
       </c>
-      <c r="E120" s="262"/>
-      <c r="F120" s="262"/>
-      <c r="G120" s="262"/>
+      <c r="E120" s="267"/>
+      <c r="F120" s="267"/>
+      <c r="G120" s="267"/>
       <c r="H120" s="119" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="76.5">
-      <c r="A121" s="313"/>
-      <c r="B121" s="269"/>
+      <c r="A121" s="256"/>
+      <c r="B121" s="264"/>
       <c r="C121" s="104" t="s">
         <v>391</v>
       </c>
       <c r="D121" s="121">
         <v>13.1</v>
       </c>
-      <c r="E121" s="262"/>
-      <c r="F121" s="262"/>
-      <c r="G121" s="262"/>
+      <c r="E121" s="267"/>
+      <c r="F121" s="267"/>
+      <c r="G121" s="267"/>
       <c r="H121" s="119" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="90">
-      <c r="A122" s="314"/>
-      <c r="B122" s="270"/>
+      <c r="A122" s="257"/>
+      <c r="B122" s="265"/>
       <c r="C122" s="146" t="s">
         <v>441</v>
       </c>
       <c r="D122" s="137">
         <v>182.7</v>
       </c>
-      <c r="E122" s="263"/>
-      <c r="F122" s="263"/>
-      <c r="G122" s="263"/>
+      <c r="E122" s="268"/>
+      <c r="F122" s="268"/>
+      <c r="G122" s="268"/>
       <c r="H122" s="119" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A123" s="320">
+      <c r="A123" s="254">
         <v>22</v>
       </c>
-      <c r="B123" s="307" t="s">
+      <c r="B123" s="258" t="s">
         <v>33</v>
       </c>
       <c r="C123" s="115" t="s">
@@ -25143,15 +25144,15 @@
       <c r="D123" s="147">
         <v>976.9</v>
       </c>
-      <c r="E123" s="288">
+      <c r="E123" s="269">
         <f>SUM(D123:D131)</f>
         <v>4244.9000000000005</v>
       </c>
-      <c r="F123" s="315">
+      <c r="F123" s="270">
         <f>587*0.8</f>
         <v>469.6</v>
       </c>
-      <c r="G123" s="316">
+      <c r="G123" s="271">
         <f>E123-F123</f>
         <v>3775.3000000000006</v>
       </c>
@@ -25160,136 +25161,136 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="50.1" customHeight="1">
-      <c r="A124" s="320"/>
-      <c r="B124" s="307"/>
+      <c r="A124" s="254"/>
+      <c r="B124" s="258"/>
       <c r="C124" s="131" t="s">
         <v>435</v>
       </c>
       <c r="D124" s="133">
         <v>1174</v>
       </c>
-      <c r="E124" s="288"/>
-      <c r="F124" s="315"/>
-      <c r="G124" s="316"/>
+      <c r="E124" s="269"/>
+      <c r="F124" s="270"/>
+      <c r="G124" s="271"/>
       <c r="H124" s="119"/>
     </row>
     <row r="125" spans="1:8" ht="38.25">
-      <c r="A125" s="320"/>
-      <c r="B125" s="307"/>
+      <c r="A125" s="254"/>
+      <c r="B125" s="258"/>
       <c r="C125" s="131" t="s">
         <v>332</v>
       </c>
       <c r="D125" s="133">
         <v>195.6</v>
       </c>
-      <c r="E125" s="288"/>
-      <c r="F125" s="315"/>
-      <c r="G125" s="316"/>
+      <c r="E125" s="269"/>
+      <c r="F125" s="270"/>
+      <c r="G125" s="271"/>
       <c r="H125" s="119" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="51">
-      <c r="A126" s="320"/>
-      <c r="B126" s="307"/>
+      <c r="A126" s="254"/>
+      <c r="B126" s="258"/>
       <c r="C126" s="131" t="s">
         <v>333</v>
       </c>
       <c r="D126" s="133">
         <v>469.3</v>
       </c>
-      <c r="E126" s="288"/>
-      <c r="F126" s="315"/>
-      <c r="G126" s="316"/>
+      <c r="E126" s="269"/>
+      <c r="F126" s="270"/>
+      <c r="G126" s="271"/>
       <c r="H126" s="119" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="76.5">
-      <c r="A127" s="320"/>
-      <c r="B127" s="307"/>
+      <c r="A127" s="254"/>
+      <c r="B127" s="258"/>
       <c r="C127" s="120" t="s">
         <v>436</v>
       </c>
       <c r="D127" s="135">
         <v>97.8</v>
       </c>
-      <c r="E127" s="288"/>
-      <c r="F127" s="315"/>
-      <c r="G127" s="316"/>
+      <c r="E127" s="269"/>
+      <c r="F127" s="270"/>
+      <c r="G127" s="271"/>
       <c r="H127" s="119" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="25.5">
-      <c r="A128" s="320"/>
-      <c r="B128" s="307"/>
+      <c r="A128" s="254"/>
+      <c r="B128" s="258"/>
       <c r="C128" s="120" t="s">
         <v>334</v>
       </c>
       <c r="D128" s="135">
         <v>1174</v>
       </c>
-      <c r="E128" s="288"/>
-      <c r="F128" s="315"/>
-      <c r="G128" s="316"/>
+      <c r="E128" s="269"/>
+      <c r="F128" s="270"/>
+      <c r="G128" s="271"/>
       <c r="H128" s="119" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="38.25">
-      <c r="A129" s="320"/>
-      <c r="B129" s="307"/>
+      <c r="A129" s="254"/>
+      <c r="B129" s="258"/>
       <c r="C129" s="120" t="s">
         <v>336</v>
       </c>
       <c r="D129" s="135">
         <v>39.299999999999997</v>
       </c>
-      <c r="E129" s="288"/>
-      <c r="F129" s="315"/>
-      <c r="G129" s="316"/>
+      <c r="E129" s="269"/>
+      <c r="F129" s="270"/>
+      <c r="G129" s="271"/>
       <c r="H129" s="119" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="51">
-      <c r="A130" s="320"/>
-      <c r="B130" s="307"/>
+      <c r="A130" s="254"/>
+      <c r="B130" s="258"/>
       <c r="C130" s="129" t="s">
         <v>438</v>
       </c>
       <c r="D130" s="135">
         <v>59</v>
       </c>
-      <c r="E130" s="288"/>
-      <c r="F130" s="315"/>
-      <c r="G130" s="316"/>
+      <c r="E130" s="269"/>
+      <c r="F130" s="270"/>
+      <c r="G130" s="271"/>
       <c r="H130" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="38.25">
-      <c r="A131" s="320"/>
-      <c r="B131" s="307"/>
+      <c r="A131" s="254"/>
+      <c r="B131" s="258"/>
       <c r="C131" s="129" t="s">
         <v>439</v>
       </c>
       <c r="D131" s="135">
         <v>59</v>
       </c>
-      <c r="E131" s="288"/>
-      <c r="F131" s="315"/>
-      <c r="G131" s="316"/>
+      <c r="E131" s="269"/>
+      <c r="F131" s="270"/>
+      <c r="G131" s="271"/>
       <c r="H131" s="119" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A132" s="320">
+      <c r="A132" s="254">
         <v>23</v>
       </c>
-      <c r="B132" s="307" t="s">
+      <c r="B132" s="258" t="s">
         <v>30</v>
       </c>
       <c r="C132" s="127" t="s">
@@ -25298,31 +25299,31 @@
       <c r="D132" s="148">
         <v>293.5</v>
       </c>
-      <c r="E132" s="310">
+      <c r="E132" s="259">
         <f>D132+D133</f>
         <v>606.5</v>
       </c>
-      <c r="F132" s="310">
+      <c r="F132" s="259">
         <v>587</v>
       </c>
-      <c r="G132" s="310">
+      <c r="G132" s="259">
         <f>E132-F132</f>
         <v>19.5</v>
       </c>
       <c r="H132" s="117"/>
     </row>
     <row r="133" spans="1:8" ht="76.5">
-      <c r="A133" s="320"/>
-      <c r="B133" s="307"/>
+      <c r="A133" s="254"/>
+      <c r="B133" s="258"/>
       <c r="C133" s="115" t="s">
         <v>186</v>
       </c>
       <c r="D133" s="118">
         <v>313</v>
       </c>
-      <c r="E133" s="310"/>
-      <c r="F133" s="310"/>
-      <c r="G133" s="310"/>
+      <c r="E133" s="259"/>
+      <c r="F133" s="259"/>
+      <c r="G133" s="259"/>
       <c r="H133" s="117"/>
     </row>
     <row r="134" spans="1:8">
@@ -25346,14 +25347,14 @@
       <c r="H135" s="155"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="321" t="s">
+      <c r="A136" s="253" t="s">
         <v>440</v>
       </c>
-      <c r="B136" s="321"/>
-      <c r="C136" s="321" t="s">
+      <c r="B136" s="253"/>
+      <c r="C136" s="253" t="s">
         <v>187</v>
       </c>
-      <c r="D136" s="321"/>
+      <c r="D136" s="253"/>
       <c r="E136" s="156"/>
       <c r="F136" s="156"/>
       <c r="G136" s="156"/>
@@ -25363,30 +25364,73 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="A92:A111"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A118:A122"/>
-    <mergeCell ref="A123:A131"/>
-    <mergeCell ref="B123:B131"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A77"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="F78:F84"/>
-    <mergeCell ref="B52:B60"/>
-    <mergeCell ref="E52:E60"/>
-    <mergeCell ref="F52:F60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="G36:G42"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="G52:G60"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="F43:F47"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="F48:F51"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F61:F64"/>
+    <mergeCell ref="G78:G84"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="E85:E91"/>
+    <mergeCell ref="F85:F91"/>
+    <mergeCell ref="G85:G91"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="G69:G72"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="E73:E77"/>
+    <mergeCell ref="F73:F77"/>
+    <mergeCell ref="G73:G77"/>
     <mergeCell ref="G132:G133"/>
     <mergeCell ref="A11:A16"/>
     <mergeCell ref="A17:A19"/>
@@ -25411,73 +25455,30 @@
     <mergeCell ref="G112:G117"/>
     <mergeCell ref="B78:B84"/>
     <mergeCell ref="E78:E84"/>
-    <mergeCell ref="G78:G84"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="E85:E91"/>
-    <mergeCell ref="F85:F91"/>
-    <mergeCell ref="G85:G91"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="E69:E72"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="G69:G72"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="E73:E77"/>
-    <mergeCell ref="F73:F77"/>
-    <mergeCell ref="G73:G77"/>
-    <mergeCell ref="G52:G60"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="F65:F68"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="F43:F47"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="F48:F51"/>
-    <mergeCell ref="G48:G51"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="E61:E64"/>
-    <mergeCell ref="F61:F64"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="B36:B42"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="G36:G42"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="E20:E25"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="G26:G31"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A77"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="F78:F84"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="E52:E60"/>
+    <mergeCell ref="F52:F60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="A92:A111"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A118:A122"/>
+    <mergeCell ref="A123:A131"/>
+    <mergeCell ref="B123:B131"/>
   </mergeCells>
   <phoneticPr fontId="58"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25511,34 +25512,34 @@
       <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="329" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
+      <c r="B2" s="329"/>
+      <c r="C2" s="329"/>
+      <c r="D2" s="329"/>
     </row>
     <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="323" t="s">
+      <c r="A3" s="330" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="323"/>
-      <c r="C3" s="323"/>
-      <c r="D3" s="323"/>
-      <c r="E3" s="323"/>
-      <c r="F3" s="323"/>
-      <c r="G3" s="323"/>
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
     </row>
     <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="324" t="s">
+      <c r="A4" s="331" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="324"/>
-      <c r="C4" s="324"/>
-      <c r="D4" s="324"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="324"/>
-      <c r="G4" s="324"/>
+      <c r="B4" s="331"/>
+      <c r="C4" s="331"/>
+      <c r="D4" s="331"/>
+      <c r="E4" s="331"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="331"/>
     </row>
     <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="79"/>
@@ -26198,16 +26199,16 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25">
-      <c r="A39" s="323" t="s">
+      <c r="A39" s="330" t="s">
         <v>346</v>
       </c>
-      <c r="B39" s="323"/>
-      <c r="C39" s="323" t="s">
+      <c r="B39" s="330"/>
+      <c r="C39" s="330" t="s">
         <v>187</v>
       </c>
-      <c r="D39" s="323"/>
-      <c r="E39" s="323"/>
-      <c r="F39" s="323"/>
+      <c r="D39" s="330"/>
+      <c r="E39" s="330"/>
+      <c r="F39" s="330"/>
       <c r="G39" s="100" t="s">
         <v>188</v>
       </c>
